--- a/mesDesigns/Guitare/JS_Bogdanovich/rosette_SpaceInvaders.xlsx
+++ b/mesDesigns/Guitare/JS_Bogdanovich/rosette_SpaceInvaders.xlsx
@@ -1,23 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sonepar-my.sharepoint.com/personal/eric_vandenbussche_sonepar_fr/Documents/Documents/GitHub/freecadModels/mesDesigns/Guitare/JS_Bogdanovich/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_7A8BFBBB379187FF97264470A7111B38D72AE0CC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B1E28812-AA5B-4B44-ADE4-7E6401714BD9}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="paramètres" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="planification" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="sprite 2" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="sprite 3" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Sprite 4" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="Sprite 5" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="mise en situation" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="paramètres" sheetId="1" r:id="rId1"/>
+    <sheet name="planification" sheetId="2" r:id="rId2"/>
+    <sheet name="sprite 2" sheetId="3" r:id="rId3"/>
+    <sheet name="sprite 3" sheetId="4" r:id="rId4"/>
+    <sheet name="Sprite 4" sheetId="5" r:id="rId5"/>
+    <sheet name="Sprite 5" sheetId="6" r:id="rId6"/>
+    <sheet name="mise en situation" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr iterateCount="1" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -28,77 +44,59 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
-    <t xml:space="preserve">ep feuille</t>
+    <t>ep feuille</t>
   </si>
   <si>
-    <t xml:space="preserve">mm</t>
+    <t>mm</t>
   </si>
   <si>
     <t xml:space="preserve">nb feuilles </t>
   </si>
   <si>
-    <t xml:space="preserve">ep totale</t>
+    <t>ep totale</t>
   </si>
   <si>
-    <t xml:space="preserve">rayon ext</t>
+    <t>rayon ext</t>
   </si>
   <si>
-    <t xml:space="preserve">longueur rosette</t>
+    <t>longueur rosette</t>
   </si>
   <si>
-    <t xml:space="preserve">nb tuiles</t>
+    <t>nb tuiles</t>
   </si>
   <si>
-    <t xml:space="preserve">angle ponçage</t>
+    <t>angle ponçage</t>
   </si>
   <si>
-    <t xml:space="preserve">index</t>
+    <t>index</t>
   </si>
   <si>
-    <t xml:space="preserve">nb</t>
+    <t>nb</t>
   </si>
   <si>
-    <t xml:space="preserve">largeur</t>
+    <t>largeur</t>
   </si>
   <si>
-    <t xml:space="preserve">trait de scie</t>
+    <t>trait de scie</t>
   </si>
   <si>
-    <t xml:space="preserve">largeur nécessaire</t>
+    <t>largeur nécessaire</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0"/>
-    <numFmt numFmtId="166" formatCode="0.0\°"/>
-    <numFmt numFmtId="167" formatCode="General"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0\°"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -147,7 +145,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -155,117 +153,59 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="19">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{3F056694-93C3-4E04-84BA-90B8136D4A18}"/>
+  </tableStyles>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -324,2553 +264,2853 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="1" sqref="AS:AS B5"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B5" activeCellId="1" sqref="AS1:AS1048576 B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.85"/>
+    <col min="1" max="1" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="n">
+      <c r="B1">
         <v>0.5</v>
       </c>
-      <c r="C1" s="0" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="0" t="n">
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
         <v>13</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="0" t="n">
-        <f aca="false">B2*B1</f>
+      <c r="B3">
+        <f>B2*B1</f>
         <v>6.5</v>
       </c>
-      <c r="C3" s="0" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5">
         <v>62</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="n">
-        <f aca="false">PI()*2*B5</f>
-        <v>389.557489045134</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="B6" s="1">
+        <f>PI()*2*B5</f>
+        <v>389.55748904513433</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="n">
-        <f aca="false">B6/B3</f>
-        <v>59.9319213915591</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="B7" s="1">
+        <f>B6/B3</f>
+        <v>59.931921391559129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="n">
-        <f aca="false">360/B7/2</f>
-        <v>3.00340779705673</v>
+      <c r="B8" s="2">
+        <f>360/B7/2</f>
+        <v>3.0034077970567346</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BR29"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="V1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AS1" activeCellId="0" sqref="AS:AS"/>
+    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="AS1" sqref="AS1:AS1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="76" min="1" style="0" width="5.71"/>
+    <col min="1" max="76" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="n">
-        <f aca="false">ROW()</f>
-        <v>1</v>
-      </c>
-      <c r="B1" s="3" t="n">
-        <f aca="false">ROW()</f>
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="n">
-        <f aca="false">ROW()</f>
-        <v>1</v>
-      </c>
-      <c r="D1" s="4" t="n">
-        <f aca="false">ROW()</f>
-        <v>1</v>
-      </c>
-      <c r="E1" s="3" t="n">
-        <f aca="false">ROW()</f>
-        <v>1</v>
-      </c>
-      <c r="F1" s="3" t="n">
-        <f aca="false">ROW()</f>
-        <v>1</v>
-      </c>
-      <c r="G1" s="3" t="n">
-        <f aca="false">ROW()</f>
-        <v>1</v>
-      </c>
-      <c r="H1" s="3" t="n">
-        <f aca="false">ROW()</f>
-        <v>1</v>
-      </c>
-      <c r="I1" s="3" t="n">
-        <f aca="false">ROW()</f>
-        <v>1</v>
-      </c>
-      <c r="J1" s="4" t="n">
-        <f aca="false">ROW()</f>
-        <v>1</v>
-      </c>
-      <c r="K1" s="3" t="n">
-        <f aca="false">ROW()</f>
-        <v>1</v>
-      </c>
-      <c r="L1" s="3" t="n">
-        <f aca="false">ROW()</f>
-        <v>1</v>
-      </c>
-      <c r="M1" s="3" t="n">
-        <f aca="false">ROW()</f>
-        <v>1</v>
-      </c>
-      <c r="N1" s="5" t="n">
-        <f aca="false">ROW()</f>
-        <v>1</v>
-      </c>
-      <c r="O1" s="5" t="n">
-        <f aca="false">ROW()</f>
-        <v>1</v>
-      </c>
-      <c r="P1" s="3" t="n">
-        <f aca="false">ROW()</f>
-        <v>1</v>
-      </c>
-      <c r="Q1" s="3" t="n">
-        <f aca="false">ROW()</f>
-        <v>1</v>
-      </c>
-      <c r="R1" s="3" t="n">
-        <f aca="false">ROW()</f>
-        <v>1</v>
-      </c>
-      <c r="S1" s="4" t="n">
-        <f aca="false">ROW()</f>
-        <v>1</v>
-      </c>
-      <c r="T1" s="3" t="n">
-        <f aca="false">ROW()</f>
-        <v>1</v>
-      </c>
-      <c r="U1" s="3" t="n">
-        <f aca="false">ROW()</f>
-        <v>1</v>
-      </c>
-      <c r="V1" s="3" t="n">
-        <f aca="false">ROW()</f>
-        <v>1</v>
-      </c>
-      <c r="W1" s="3" t="n">
-        <f aca="false">ROW()</f>
-        <v>1</v>
-      </c>
-      <c r="X1" s="3" t="n">
-        <f aca="false">ROW()</f>
-        <v>1</v>
-      </c>
-      <c r="Y1" s="4" t="n">
-        <f aca="false">ROW()</f>
-        <v>1</v>
-      </c>
-      <c r="Z1" s="3" t="n">
-        <f aca="false">ROW()</f>
-        <v>1</v>
-      </c>
-      <c r="AA1" s="3" t="n">
-        <f aca="false">ROW()</f>
-        <v>1</v>
-      </c>
-      <c r="AB1" s="3" t="n">
-        <f aca="false">ROW()</f>
+    <row r="1" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3">
+        <f>ROW()</f>
+        <v>1</v>
+      </c>
+      <c r="B1" s="3">
+        <f>ROW()</f>
+        <v>1</v>
+      </c>
+      <c r="C1" s="3">
+        <f>ROW()</f>
+        <v>1</v>
+      </c>
+      <c r="D1" s="4">
+        <f>ROW()</f>
+        <v>1</v>
+      </c>
+      <c r="E1" s="3">
+        <f>ROW()</f>
+        <v>1</v>
+      </c>
+      <c r="F1" s="3">
+        <f>ROW()</f>
+        <v>1</v>
+      </c>
+      <c r="G1" s="3">
+        <f>ROW()</f>
+        <v>1</v>
+      </c>
+      <c r="H1" s="3">
+        <f>ROW()</f>
+        <v>1</v>
+      </c>
+      <c r="I1" s="3">
+        <f>ROW()</f>
+        <v>1</v>
+      </c>
+      <c r="J1" s="4">
+        <f>ROW()</f>
+        <v>1</v>
+      </c>
+      <c r="K1" s="3">
+        <f>ROW()</f>
+        <v>1</v>
+      </c>
+      <c r="L1" s="3">
+        <f>ROW()</f>
+        <v>1</v>
+      </c>
+      <c r="M1" s="3">
+        <f>ROW()</f>
+        <v>1</v>
+      </c>
+      <c r="N1" s="5">
+        <f>ROW()</f>
+        <v>1</v>
+      </c>
+      <c r="O1" s="5">
+        <f>ROW()</f>
+        <v>1</v>
+      </c>
+      <c r="P1" s="3">
+        <f>ROW()</f>
+        <v>1</v>
+      </c>
+      <c r="Q1" s="3">
+        <f>ROW()</f>
+        <v>1</v>
+      </c>
+      <c r="R1" s="3">
+        <f>ROW()</f>
+        <v>1</v>
+      </c>
+      <c r="S1" s="4">
+        <f>ROW()</f>
+        <v>1</v>
+      </c>
+      <c r="T1" s="3">
+        <f>ROW()</f>
+        <v>1</v>
+      </c>
+      <c r="U1" s="3">
+        <f>ROW()</f>
+        <v>1</v>
+      </c>
+      <c r="V1" s="3">
+        <f>ROW()</f>
+        <v>1</v>
+      </c>
+      <c r="W1" s="3">
+        <f>ROW()</f>
+        <v>1</v>
+      </c>
+      <c r="X1" s="3">
+        <f>ROW()</f>
+        <v>1</v>
+      </c>
+      <c r="Y1" s="4">
+        <f>ROW()</f>
+        <v>1</v>
+      </c>
+      <c r="Z1" s="3">
+        <f>ROW()</f>
+        <v>1</v>
+      </c>
+      <c r="AA1" s="3">
+        <f>ROW()</f>
+        <v>1</v>
+      </c>
+      <c r="AB1" s="3">
+        <f>ROW()</f>
         <v>1</v>
       </c>
       <c r="AC1" s="6"/>
-      <c r="AD1" s="7" t="n">
-        <f aca="false">ROW()</f>
-        <v>1</v>
-      </c>
-      <c r="AE1" s="7" t="n">
-        <f aca="false">ROW()</f>
-        <v>1</v>
-      </c>
-      <c r="AF1" s="7" t="n">
-        <f aca="false">ROW()</f>
-        <v>1</v>
-      </c>
-      <c r="AG1" s="8" t="n">
-        <f aca="false">ROW()</f>
-        <v>1</v>
-      </c>
-      <c r="AH1" s="8" t="n">
-        <f aca="false">ROW()</f>
-        <v>1</v>
-      </c>
-      <c r="AI1" s="8" t="n">
-        <f aca="false">ROW()</f>
-        <v>1</v>
-      </c>
-      <c r="AJ1" s="8" t="n">
-        <f aca="false">ROW()</f>
-        <v>1</v>
-      </c>
-      <c r="AK1" s="8" t="n">
-        <f aca="false">ROW()</f>
-        <v>1</v>
-      </c>
-      <c r="AL1" s="8" t="n">
-        <f aca="false">ROW()</f>
-        <v>1</v>
-      </c>
-      <c r="AM1" s="8" t="n">
-        <f aca="false">ROW()</f>
-        <v>1</v>
-      </c>
-      <c r="AN1" s="7" t="n">
-        <f aca="false">ROW()</f>
-        <v>1</v>
-      </c>
-      <c r="AO1" s="7" t="n">
-        <f aca="false">ROW()</f>
-        <v>1</v>
-      </c>
-      <c r="AP1" s="7" t="n">
-        <f aca="false">ROW()</f>
-        <v>1</v>
-      </c>
-      <c r="AQ1" s="9" t="n">
-        <f aca="false">ROW()</f>
-        <v>1</v>
-      </c>
-      <c r="AR1" s="7" t="n">
-        <f aca="false">ROW()</f>
-        <v>1</v>
-      </c>
-      <c r="AS1" s="7" t="n">
-        <f aca="false">ROW()</f>
-        <v>1</v>
-      </c>
-      <c r="AT1" s="7" t="n">
-        <f aca="false">ROW()</f>
-        <v>1</v>
-      </c>
-      <c r="AU1" s="8" t="n">
-        <f aca="false">ROW()</f>
-        <v>1</v>
-      </c>
-      <c r="AV1" s="8" t="n">
-        <f aca="false">ROW()</f>
-        <v>1</v>
-      </c>
-      <c r="AW1" s="8" t="n">
-        <f aca="false">ROW()</f>
-        <v>1</v>
-      </c>
-      <c r="AX1" s="8" t="n">
-        <f aca="false">ROW()</f>
-        <v>1</v>
-      </c>
-      <c r="AY1" s="8" t="n">
-        <f aca="false">ROW()</f>
-        <v>1</v>
-      </c>
-      <c r="AZ1" s="8" t="n">
-        <f aca="false">ROW()</f>
-        <v>1</v>
-      </c>
-      <c r="BA1" s="8" t="n">
-        <f aca="false">ROW()</f>
-        <v>1</v>
-      </c>
-      <c r="BB1" s="7" t="n">
-        <f aca="false">ROW()</f>
-        <v>1</v>
-      </c>
-      <c r="BC1" s="7" t="n">
-        <f aca="false">ROW()</f>
-        <v>1</v>
-      </c>
-      <c r="BD1" s="7" t="n">
-        <f aca="false">ROW()</f>
-        <v>1</v>
-      </c>
-      <c r="BE1" s="9" t="n">
-        <f aca="false">ROW()</f>
-        <v>1</v>
-      </c>
-      <c r="BF1" s="7" t="n">
-        <f aca="false">ROW()</f>
-        <v>1</v>
-      </c>
-      <c r="BG1" s="7" t="n">
-        <f aca="false">ROW()</f>
-        <v>1</v>
-      </c>
-      <c r="BH1" s="7" t="n">
-        <f aca="false">ROW()</f>
-        <v>1</v>
-      </c>
-      <c r="BI1" s="7" t="n">
-        <f aca="false">ROW()</f>
-        <v>1</v>
-      </c>
-      <c r="BJ1" s="7" t="n">
-        <f aca="false">ROW()</f>
-        <v>1</v>
-      </c>
-      <c r="BK1" s="7" t="n">
-        <f aca="false">ROW()</f>
-        <v>1</v>
-      </c>
-      <c r="BL1" s="7" t="n">
-        <f aca="false">ROW()</f>
-        <v>1</v>
-      </c>
-      <c r="BM1" s="7" t="n">
-        <f aca="false">ROW()</f>
-        <v>1</v>
-      </c>
-      <c r="BN1" s="7" t="n">
-        <f aca="false">ROW()</f>
-        <v>1</v>
-      </c>
-      <c r="BO1" s="7" t="n">
-        <f aca="false">ROW()</f>
-        <v>1</v>
-      </c>
-      <c r="BP1" s="7" t="n">
-        <f aca="false">ROW()</f>
-        <v>1</v>
-      </c>
-      <c r="BQ1" s="7" t="n">
-        <f aca="false">ROW()</f>
-        <v>1</v>
-      </c>
-      <c r="BR1" s="7" t="n">
-        <f aca="false">ROW()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="n">
-        <f aca="false">ROW()</f>
-        <v>2</v>
-      </c>
-      <c r="B2" s="3" t="n">
-        <f aca="false">ROW()</f>
-        <v>2</v>
-      </c>
-      <c r="C2" s="3" t="n">
-        <f aca="false">ROW()</f>
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="n">
-        <f aca="false">ROW()</f>
-        <v>2</v>
-      </c>
-      <c r="E2" s="4" t="n">
-        <f aca="false">ROW()</f>
-        <v>2</v>
-      </c>
-      <c r="F2" s="3" t="n">
-        <f aca="false">ROW()</f>
-        <v>2</v>
-      </c>
-      <c r="G2" s="3" t="n">
-        <f aca="false">ROW()</f>
-        <v>2</v>
-      </c>
-      <c r="H2" s="3" t="n">
-        <f aca="false">ROW()</f>
-        <v>2</v>
-      </c>
-      <c r="I2" s="4" t="n">
-        <f aca="false">ROW()</f>
-        <v>2</v>
-      </c>
-      <c r="J2" s="3" t="n">
-        <f aca="false">ROW()</f>
-        <v>2</v>
-      </c>
-      <c r="K2" s="3" t="n">
-        <f aca="false">ROW()</f>
-        <v>2</v>
-      </c>
-      <c r="L2" s="3" t="n">
-        <f aca="false">ROW()</f>
-        <v>2</v>
-      </c>
-      <c r="M2" s="3" t="n">
-        <f aca="false">ROW()</f>
-        <v>2</v>
-      </c>
-      <c r="N2" s="5" t="n">
-        <f aca="false">ROW()</f>
-        <v>2</v>
-      </c>
-      <c r="O2" s="5" t="n">
-        <f aca="false">ROW()</f>
-        <v>2</v>
-      </c>
-      <c r="P2" s="3" t="n">
-        <f aca="false">ROW()</f>
-        <v>2</v>
-      </c>
-      <c r="Q2" s="4" t="n">
-        <f aca="false">ROW()</f>
-        <v>2</v>
-      </c>
-      <c r="R2" s="3" t="n">
-        <f aca="false">ROW()</f>
-        <v>2</v>
-      </c>
-      <c r="S2" s="3" t="n">
-        <f aca="false">ROW()</f>
-        <v>2</v>
-      </c>
-      <c r="T2" s="4" t="n">
-        <f aca="false">ROW()</f>
-        <v>2</v>
-      </c>
-      <c r="U2" s="3" t="n">
-        <f aca="false">ROW()</f>
-        <v>2</v>
-      </c>
-      <c r="V2" s="3" t="n">
-        <f aca="false">ROW()</f>
-        <v>2</v>
-      </c>
-      <c r="W2" s="3" t="n">
-        <f aca="false">ROW()</f>
-        <v>2</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <f aca="false">ROW()</f>
-        <v>2</v>
-      </c>
-      <c r="Y2" s="3" t="n">
-        <f aca="false">ROW()</f>
-        <v>2</v>
-      </c>
-      <c r="Z2" s="3" t="n">
-        <f aca="false">ROW()</f>
-        <v>2</v>
-      </c>
-      <c r="AA2" s="4" t="n">
-        <f aca="false">ROW()</f>
-        <v>2</v>
-      </c>
-      <c r="AB2" s="3" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AD1" s="7">
+        <f>ROW()</f>
+        <v>1</v>
+      </c>
+      <c r="AE1" s="7">
+        <f>ROW()</f>
+        <v>1</v>
+      </c>
+      <c r="AF1" s="7">
+        <f>ROW()</f>
+        <v>1</v>
+      </c>
+      <c r="AG1" s="8">
+        <f>ROW()</f>
+        <v>1</v>
+      </c>
+      <c r="AH1" s="8">
+        <f>ROW()</f>
+        <v>1</v>
+      </c>
+      <c r="AI1" s="8">
+        <f>ROW()</f>
+        <v>1</v>
+      </c>
+      <c r="AJ1" s="8">
+        <f>ROW()</f>
+        <v>1</v>
+      </c>
+      <c r="AK1" s="8">
+        <f>ROW()</f>
+        <v>1</v>
+      </c>
+      <c r="AL1" s="8">
+        <f>ROW()</f>
+        <v>1</v>
+      </c>
+      <c r="AM1" s="8">
+        <f>ROW()</f>
+        <v>1</v>
+      </c>
+      <c r="AN1" s="7">
+        <f>ROW()</f>
+        <v>1</v>
+      </c>
+      <c r="AO1" s="7">
+        <f>ROW()</f>
+        <v>1</v>
+      </c>
+      <c r="AP1" s="7">
+        <f>ROW()</f>
+        <v>1</v>
+      </c>
+      <c r="AQ1" s="9">
+        <f>ROW()</f>
+        <v>1</v>
+      </c>
+      <c r="AR1" s="7">
+        <f>ROW()</f>
+        <v>1</v>
+      </c>
+      <c r="AS1" s="7">
+        <f>ROW()</f>
+        <v>1</v>
+      </c>
+      <c r="AT1" s="7">
+        <f>ROW()</f>
+        <v>1</v>
+      </c>
+      <c r="AU1" s="8">
+        <f>ROW()</f>
+        <v>1</v>
+      </c>
+      <c r="AV1" s="8">
+        <f>ROW()</f>
+        <v>1</v>
+      </c>
+      <c r="AW1" s="8">
+        <f>ROW()</f>
+        <v>1</v>
+      </c>
+      <c r="AX1" s="8">
+        <f>ROW()</f>
+        <v>1</v>
+      </c>
+      <c r="AY1" s="8">
+        <f>ROW()</f>
+        <v>1</v>
+      </c>
+      <c r="AZ1" s="8">
+        <f>ROW()</f>
+        <v>1</v>
+      </c>
+      <c r="BA1" s="8">
+        <f>ROW()</f>
+        <v>1</v>
+      </c>
+      <c r="BB1" s="7">
+        <f>ROW()</f>
+        <v>1</v>
+      </c>
+      <c r="BC1" s="7">
+        <f>ROW()</f>
+        <v>1</v>
+      </c>
+      <c r="BD1" s="7">
+        <f>ROW()</f>
+        <v>1</v>
+      </c>
+      <c r="BE1" s="9">
+        <f>ROW()</f>
+        <v>1</v>
+      </c>
+      <c r="BF1" s="7">
+        <f>ROW()</f>
+        <v>1</v>
+      </c>
+      <c r="BG1" s="7">
+        <f>ROW()</f>
+        <v>1</v>
+      </c>
+      <c r="BH1" s="7">
+        <f>ROW()</f>
+        <v>1</v>
+      </c>
+      <c r="BI1" s="7">
+        <f>ROW()</f>
+        <v>1</v>
+      </c>
+      <c r="BJ1" s="7">
+        <f>ROW()</f>
+        <v>1</v>
+      </c>
+      <c r="BK1" s="7">
+        <f>ROW()</f>
+        <v>1</v>
+      </c>
+      <c r="BL1" s="7">
+        <f>ROW()</f>
+        <v>1</v>
+      </c>
+      <c r="BM1" s="7">
+        <f>ROW()</f>
+        <v>1</v>
+      </c>
+      <c r="BN1" s="7">
+        <f>ROW()</f>
+        <v>1</v>
+      </c>
+      <c r="BO1" s="7">
+        <f>ROW()</f>
+        <v>1</v>
+      </c>
+      <c r="BP1" s="7">
+        <f>ROW()</f>
+        <v>1</v>
+      </c>
+      <c r="BQ1" s="7">
+        <f>ROW()</f>
+        <v>1</v>
+      </c>
+      <c r="BR1" s="7">
+        <f>ROW()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <f>ROW()</f>
+        <v>2</v>
+      </c>
+      <c r="B2" s="3">
+        <f>ROW()</f>
+        <v>2</v>
+      </c>
+      <c r="C2" s="3">
+        <f>ROW()</f>
+        <v>2</v>
+      </c>
+      <c r="D2" s="3">
+        <f>ROW()</f>
+        <v>2</v>
+      </c>
+      <c r="E2" s="4">
+        <f>ROW()</f>
+        <v>2</v>
+      </c>
+      <c r="F2" s="3">
+        <f>ROW()</f>
+        <v>2</v>
+      </c>
+      <c r="G2" s="3">
+        <f>ROW()</f>
+        <v>2</v>
+      </c>
+      <c r="H2" s="3">
+        <f>ROW()</f>
+        <v>2</v>
+      </c>
+      <c r="I2" s="4">
+        <f>ROW()</f>
+        <v>2</v>
+      </c>
+      <c r="J2" s="3">
+        <f>ROW()</f>
+        <v>2</v>
+      </c>
+      <c r="K2" s="3">
+        <f>ROW()</f>
+        <v>2</v>
+      </c>
+      <c r="L2" s="3">
+        <f>ROW()</f>
+        <v>2</v>
+      </c>
+      <c r="M2" s="3">
+        <f>ROW()</f>
+        <v>2</v>
+      </c>
+      <c r="N2" s="5">
+        <f>ROW()</f>
+        <v>2</v>
+      </c>
+      <c r="O2" s="5">
+        <f>ROW()</f>
+        <v>2</v>
+      </c>
+      <c r="P2" s="3">
+        <f>ROW()</f>
+        <v>2</v>
+      </c>
+      <c r="Q2" s="4">
+        <f>ROW()</f>
+        <v>2</v>
+      </c>
+      <c r="R2" s="3">
+        <f>ROW()</f>
+        <v>2</v>
+      </c>
+      <c r="S2" s="3">
+        <f>ROW()</f>
+        <v>2</v>
+      </c>
+      <c r="T2" s="4">
+        <f>ROW()</f>
+        <v>2</v>
+      </c>
+      <c r="U2" s="3">
+        <f>ROW()</f>
+        <v>2</v>
+      </c>
+      <c r="V2" s="3">
+        <f>ROW()</f>
+        <v>2</v>
+      </c>
+      <c r="W2" s="3">
+        <f>ROW()</f>
+        <v>2</v>
+      </c>
+      <c r="X2" s="4">
+        <f>ROW()</f>
+        <v>2</v>
+      </c>
+      <c r="Y2" s="3">
+        <f>ROW()</f>
+        <v>2</v>
+      </c>
+      <c r="Z2" s="3">
+        <f>ROW()</f>
+        <v>2</v>
+      </c>
+      <c r="AA2" s="4">
+        <f>ROW()</f>
+        <v>2</v>
+      </c>
+      <c r="AB2" s="3">
+        <f>ROW()</f>
         <v>2</v>
       </c>
       <c r="AC2" s="6"/>
-      <c r="AD2" s="7" t="n">
-        <f aca="false">ROW()</f>
-        <v>2</v>
-      </c>
-      <c r="AE2" s="7" t="n">
-        <f aca="false">ROW()</f>
-        <v>2</v>
-      </c>
-      <c r="AF2" s="8" t="n">
-        <f aca="false">ROW()</f>
-        <v>2</v>
-      </c>
-      <c r="AG2" s="8" t="n">
-        <f aca="false">ROW()</f>
-        <v>2</v>
-      </c>
-      <c r="AH2" s="8" t="n">
-        <f aca="false">ROW()</f>
-        <v>2</v>
-      </c>
-      <c r="AI2" s="8" t="n">
-        <f aca="false">ROW()</f>
-        <v>2</v>
-      </c>
-      <c r="AJ2" s="8" t="n">
-        <f aca="false">ROW()</f>
-        <v>2</v>
-      </c>
-      <c r="AK2" s="8" t="n">
-        <f aca="false">ROW()</f>
-        <v>2</v>
-      </c>
-      <c r="AL2" s="8" t="n">
-        <f aca="false">ROW()</f>
-        <v>2</v>
-      </c>
-      <c r="AM2" s="8" t="n">
-        <f aca="false">ROW()</f>
-        <v>2</v>
-      </c>
-      <c r="AN2" s="8" t="n">
-        <f aca="false">ROW()</f>
-        <v>2</v>
-      </c>
-      <c r="AO2" s="7" t="n">
-        <f aca="false">ROW()</f>
-        <v>2</v>
-      </c>
-      <c r="AP2" s="7" t="n">
-        <f aca="false">ROW()</f>
-        <v>2</v>
-      </c>
-      <c r="AQ2" s="9" t="n">
-        <f aca="false">ROW()</f>
-        <v>2</v>
-      </c>
-      <c r="AR2" s="7" t="n">
-        <f aca="false">ROW()</f>
-        <v>2</v>
-      </c>
-      <c r="AS2" s="7" t="n">
-        <f aca="false">ROW()</f>
-        <v>2</v>
-      </c>
-      <c r="AT2" s="8" t="n">
-        <f aca="false">ROW()</f>
-        <v>2</v>
-      </c>
-      <c r="AU2" s="8" t="n">
-        <f aca="false">ROW()</f>
-        <v>2</v>
-      </c>
-      <c r="AV2" s="8" t="n">
-        <f aca="false">ROW()</f>
-        <v>2</v>
-      </c>
-      <c r="AW2" s="8" t="n">
-        <f aca="false">ROW()</f>
-        <v>2</v>
-      </c>
-      <c r="AX2" s="8" t="n">
-        <f aca="false">ROW()</f>
-        <v>2</v>
-      </c>
-      <c r="AY2" s="8" t="n">
-        <f aca="false">ROW()</f>
-        <v>2</v>
-      </c>
-      <c r="AZ2" s="8" t="n">
-        <f aca="false">ROW()</f>
-        <v>2</v>
-      </c>
-      <c r="BA2" s="8" t="n">
-        <f aca="false">ROW()</f>
-        <v>2</v>
-      </c>
-      <c r="BB2" s="8" t="n">
-        <f aca="false">ROW()</f>
-        <v>2</v>
-      </c>
-      <c r="BC2" s="7" t="n">
-        <f aca="false">ROW()</f>
-        <v>2</v>
-      </c>
-      <c r="BD2" s="7" t="n">
-        <f aca="false">ROW()</f>
-        <v>2</v>
-      </c>
-      <c r="BE2" s="9" t="n">
-        <f aca="false">ROW()</f>
-        <v>2</v>
-      </c>
-      <c r="BF2" s="7" t="n">
-        <f aca="false">ROW()</f>
-        <v>2</v>
-      </c>
-      <c r="BG2" s="7" t="n">
-        <f aca="false">ROW()</f>
-        <v>2</v>
-      </c>
-      <c r="BH2" s="7" t="n">
-        <f aca="false">ROW()</f>
-        <v>2</v>
-      </c>
-      <c r="BI2" s="7" t="n">
-        <f aca="false">ROW()</f>
-        <v>2</v>
-      </c>
-      <c r="BJ2" s="7" t="n">
-        <f aca="false">ROW()</f>
-        <v>2</v>
-      </c>
-      <c r="BK2" s="7" t="n">
-        <f aca="false">ROW()</f>
-        <v>2</v>
-      </c>
-      <c r="BL2" s="7" t="n">
-        <f aca="false">ROW()</f>
-        <v>2</v>
-      </c>
-      <c r="BM2" s="7" t="n">
-        <f aca="false">ROW()</f>
-        <v>2</v>
-      </c>
-      <c r="BN2" s="7" t="n">
-        <f aca="false">ROW()</f>
-        <v>2</v>
-      </c>
-      <c r="BO2" s="7" t="n">
-        <f aca="false">ROW()</f>
-        <v>2</v>
-      </c>
-      <c r="BP2" s="7" t="n">
-        <f aca="false">ROW()</f>
-        <v>2</v>
-      </c>
-      <c r="BQ2" s="7" t="n">
-        <f aca="false">ROW()</f>
-        <v>2</v>
-      </c>
-      <c r="BR2" s="7" t="n">
-        <f aca="false">ROW()</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AD2" s="7">
+        <f>ROW()</f>
+        <v>2</v>
+      </c>
+      <c r="AE2" s="7">
+        <f>ROW()</f>
+        <v>2</v>
+      </c>
+      <c r="AF2" s="8">
+        <f>ROW()</f>
+        <v>2</v>
+      </c>
+      <c r="AG2" s="8">
+        <f>ROW()</f>
+        <v>2</v>
+      </c>
+      <c r="AH2" s="8">
+        <f>ROW()</f>
+        <v>2</v>
+      </c>
+      <c r="AI2" s="8">
+        <f>ROW()</f>
+        <v>2</v>
+      </c>
+      <c r="AJ2" s="8">
+        <f>ROW()</f>
+        <v>2</v>
+      </c>
+      <c r="AK2" s="8">
+        <f>ROW()</f>
+        <v>2</v>
+      </c>
+      <c r="AL2" s="8">
+        <f>ROW()</f>
+        <v>2</v>
+      </c>
+      <c r="AM2" s="8">
+        <f>ROW()</f>
+        <v>2</v>
+      </c>
+      <c r="AN2" s="8">
+        <f>ROW()</f>
+        <v>2</v>
+      </c>
+      <c r="AO2" s="7">
+        <f>ROW()</f>
+        <v>2</v>
+      </c>
+      <c r="AP2" s="7">
+        <f>ROW()</f>
+        <v>2</v>
+      </c>
+      <c r="AQ2" s="9">
+        <f>ROW()</f>
+        <v>2</v>
+      </c>
+      <c r="AR2" s="7">
+        <f>ROW()</f>
+        <v>2</v>
+      </c>
+      <c r="AS2" s="7">
+        <f>ROW()</f>
+        <v>2</v>
+      </c>
+      <c r="AT2" s="8">
+        <f>ROW()</f>
+        <v>2</v>
+      </c>
+      <c r="AU2" s="8">
+        <f>ROW()</f>
+        <v>2</v>
+      </c>
+      <c r="AV2" s="8">
+        <f>ROW()</f>
+        <v>2</v>
+      </c>
+      <c r="AW2" s="8">
+        <f>ROW()</f>
+        <v>2</v>
+      </c>
+      <c r="AX2" s="8">
+        <f>ROW()</f>
+        <v>2</v>
+      </c>
+      <c r="AY2" s="8">
+        <f>ROW()</f>
+        <v>2</v>
+      </c>
+      <c r="AZ2" s="8">
+        <f>ROW()</f>
+        <v>2</v>
+      </c>
+      <c r="BA2" s="8">
+        <f>ROW()</f>
+        <v>2</v>
+      </c>
+      <c r="BB2" s="8">
+        <f>ROW()</f>
+        <v>2</v>
+      </c>
+      <c r="BC2" s="7">
+        <f>ROW()</f>
+        <v>2</v>
+      </c>
+      <c r="BD2" s="7">
+        <f>ROW()</f>
+        <v>2</v>
+      </c>
+      <c r="BE2" s="9">
+        <f>ROW()</f>
+        <v>2</v>
+      </c>
+      <c r="BF2" s="7">
+        <f>ROW()</f>
+        <v>2</v>
+      </c>
+      <c r="BG2" s="7">
+        <f>ROW()</f>
+        <v>2</v>
+      </c>
+      <c r="BH2" s="7">
+        <f>ROW()</f>
+        <v>2</v>
+      </c>
+      <c r="BI2" s="7">
+        <f>ROW()</f>
+        <v>2</v>
+      </c>
+      <c r="BJ2" s="7">
+        <f>ROW()</f>
+        <v>2</v>
+      </c>
+      <c r="BK2" s="7">
+        <f>ROW()</f>
+        <v>2</v>
+      </c>
+      <c r="BL2" s="7">
+        <f>ROW()</f>
+        <v>2</v>
+      </c>
+      <c r="BM2" s="7">
+        <f>ROW()</f>
+        <v>2</v>
+      </c>
+      <c r="BN2" s="7">
+        <f>ROW()</f>
+        <v>2</v>
+      </c>
+      <c r="BO2" s="7">
+        <f>ROW()</f>
+        <v>2</v>
+      </c>
+      <c r="BP2" s="7">
+        <f>ROW()</f>
+        <v>2</v>
+      </c>
+      <c r="BQ2" s="7">
+        <f>ROW()</f>
+        <v>2</v>
+      </c>
+      <c r="BR2" s="7">
+        <f>ROW()</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <f>ROW()</f>
         <v>3</v>
       </c>
-      <c r="B3" s="3" t="n">
-        <f aca="false">ROW()</f>
+      <c r="B3" s="3">
+        <f>ROW()</f>
         <v>3</v>
       </c>
-      <c r="C3" s="3" t="n">
-        <f aca="false">ROW()</f>
+      <c r="C3" s="3">
+        <f>ROW()</f>
         <v>3</v>
       </c>
-      <c r="D3" s="4" t="n">
-        <f aca="false">ROW()</f>
+      <c r="D3" s="4">
+        <f>ROW()</f>
         <v>3</v>
       </c>
-      <c r="E3" s="4" t="n">
-        <f aca="false">ROW()</f>
+      <c r="E3" s="4">
+        <f>ROW()</f>
         <v>3</v>
       </c>
-      <c r="F3" s="4" t="n">
-        <f aca="false">ROW()</f>
+      <c r="F3" s="4">
+        <f>ROW()</f>
         <v>3</v>
       </c>
-      <c r="G3" s="4" t="n">
-        <f aca="false">ROW()</f>
+      <c r="G3" s="4">
+        <f>ROW()</f>
         <v>3</v>
       </c>
-      <c r="H3" s="4" t="n">
-        <f aca="false">ROW()</f>
+      <c r="H3" s="4">
+        <f>ROW()</f>
         <v>3</v>
       </c>
-      <c r="I3" s="4" t="n">
-        <f aca="false">ROW()</f>
+      <c r="I3" s="4">
+        <f>ROW()</f>
         <v>3</v>
       </c>
-      <c r="J3" s="4" t="n">
-        <f aca="false">ROW()</f>
+      <c r="J3" s="4">
+        <f>ROW()</f>
         <v>3</v>
       </c>
-      <c r="K3" s="3" t="n">
-        <f aca="false">ROW()</f>
+      <c r="K3" s="3">
+        <f>ROW()</f>
         <v>3</v>
       </c>
-      <c r="L3" s="3" t="n">
-        <f aca="false">ROW()</f>
+      <c r="L3" s="3">
+        <f>ROW()</f>
         <v>3</v>
       </c>
-      <c r="M3" s="3" t="n">
-        <f aca="false">ROW()</f>
+      <c r="M3" s="3">
+        <f>ROW()</f>
         <v>3</v>
       </c>
-      <c r="N3" s="5" t="n">
-        <f aca="false">ROW()</f>
+      <c r="N3" s="5">
+        <f>ROW()</f>
         <v>3</v>
       </c>
-      <c r="O3" s="5" t="n">
-        <f aca="false">ROW()</f>
+      <c r="O3" s="5">
+        <f>ROW()</f>
         <v>3</v>
       </c>
-      <c r="P3" s="3" t="n">
-        <f aca="false">ROW()</f>
+      <c r="P3" s="3">
+        <f>ROW()</f>
         <v>3</v>
       </c>
-      <c r="Q3" s="4" t="n">
-        <f aca="false">ROW()</f>
+      <c r="Q3" s="4">
+        <f>ROW()</f>
         <v>3</v>
       </c>
-      <c r="R3" s="3" t="n">
-        <f aca="false">ROW()</f>
+      <c r="R3" s="3">
+        <f>ROW()</f>
         <v>3</v>
       </c>
-      <c r="S3" s="4" t="n">
-        <f aca="false">ROW()</f>
+      <c r="S3" s="4">
+        <f>ROW()</f>
         <v>3</v>
       </c>
-      <c r="T3" s="4" t="n">
-        <f aca="false">ROW()</f>
+      <c r="T3" s="4">
+        <f>ROW()</f>
         <v>3</v>
       </c>
-      <c r="U3" s="4" t="n">
-        <f aca="false">ROW()</f>
+      <c r="U3" s="4">
+        <f>ROW()</f>
         <v>3</v>
       </c>
-      <c r="V3" s="4" t="n">
-        <f aca="false">ROW()</f>
+      <c r="V3" s="4">
+        <f>ROW()</f>
         <v>3</v>
       </c>
-      <c r="W3" s="4" t="n">
-        <f aca="false">ROW()</f>
+      <c r="W3" s="4">
+        <f>ROW()</f>
         <v>3</v>
       </c>
-      <c r="X3" s="4" t="n">
-        <f aca="false">ROW()</f>
+      <c r="X3" s="4">
+        <f>ROW()</f>
         <v>3</v>
       </c>
-      <c r="Y3" s="4" t="n">
-        <f aca="false">ROW()</f>
+      <c r="Y3" s="4">
+        <f>ROW()</f>
         <v>3</v>
       </c>
-      <c r="Z3" s="3" t="n">
-        <f aca="false">ROW()</f>
+      <c r="Z3" s="3">
+        <f>ROW()</f>
         <v>3</v>
       </c>
-      <c r="AA3" s="4" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AA3" s="4">
+        <f>ROW()</f>
         <v>3</v>
       </c>
-      <c r="AB3" s="3" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AB3" s="3">
+        <f>ROW()</f>
         <v>3</v>
       </c>
       <c r="AC3" s="6"/>
-      <c r="AD3" s="7" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AD3" s="7">
+        <f>ROW()</f>
         <v>3</v>
       </c>
-      <c r="AE3" s="8" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AE3" s="8">
+        <f>ROW()</f>
         <v>3</v>
       </c>
-      <c r="AF3" s="8" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AF3" s="8">
+        <f>ROW()</f>
         <v>3</v>
       </c>
-      <c r="AG3" s="8" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AG3" s="8">
+        <f>ROW()</f>
         <v>3</v>
       </c>
-      <c r="AH3" s="8" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AH3" s="8">
+        <f>ROW()</f>
         <v>3</v>
       </c>
-      <c r="AI3" s="8" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AI3" s="8">
+        <f>ROW()</f>
         <v>3</v>
       </c>
-      <c r="AJ3" s="8" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AJ3" s="8">
+        <f>ROW()</f>
         <v>3</v>
       </c>
-      <c r="AK3" s="8" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AK3" s="8">
+        <f>ROW()</f>
         <v>3</v>
       </c>
-      <c r="AL3" s="8" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AL3" s="8">
+        <f>ROW()</f>
         <v>3</v>
       </c>
-      <c r="AM3" s="8" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AM3" s="8">
+        <f>ROW()</f>
         <v>3</v>
       </c>
-      <c r="AN3" s="8" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AN3" s="8">
+        <f>ROW()</f>
         <v>3</v>
       </c>
-      <c r="AO3" s="8" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AO3" s="8">
+        <f>ROW()</f>
         <v>3</v>
       </c>
-      <c r="AP3" s="7" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AP3" s="7">
+        <f>ROW()</f>
         <v>3</v>
       </c>
-      <c r="AQ3" s="9" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AQ3" s="9">
+        <f>ROW()</f>
         <v>3</v>
       </c>
-      <c r="AR3" s="7" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AR3" s="7">
+        <f>ROW()</f>
         <v>3</v>
       </c>
-      <c r="AS3" s="8" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AS3" s="8">
+        <f>ROW()</f>
         <v>3</v>
       </c>
-      <c r="AT3" s="8" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AT3" s="8">
+        <f>ROW()</f>
         <v>3</v>
       </c>
-      <c r="AU3" s="8" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AU3" s="8">
+        <f>ROW()</f>
         <v>3</v>
       </c>
-      <c r="AV3" s="8" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AV3" s="8">
+        <f>ROW()</f>
         <v>3</v>
       </c>
-      <c r="AW3" s="8" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AW3" s="8">
+        <f>ROW()</f>
         <v>3</v>
       </c>
-      <c r="AX3" s="8" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AX3" s="8">
+        <f>ROW()</f>
         <v>3</v>
       </c>
-      <c r="AY3" s="8" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AY3" s="8">
+        <f>ROW()</f>
         <v>3</v>
       </c>
-      <c r="AZ3" s="8" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AZ3" s="8">
+        <f>ROW()</f>
         <v>3</v>
       </c>
-      <c r="BA3" s="8" t="n">
-        <f aca="false">ROW()</f>
+      <c r="BA3" s="8">
+        <f>ROW()</f>
         <v>3</v>
       </c>
-      <c r="BB3" s="8" t="n">
-        <f aca="false">ROW()</f>
+      <c r="BB3" s="8">
+        <f>ROW()</f>
         <v>3</v>
       </c>
-      <c r="BC3" s="8" t="n">
-        <f aca="false">ROW()</f>
+      <c r="BC3" s="8">
+        <f>ROW()</f>
         <v>3</v>
       </c>
-      <c r="BD3" s="7" t="n">
-        <f aca="false">ROW()</f>
+      <c r="BD3" s="7">
+        <f>ROW()</f>
         <v>3</v>
       </c>
-      <c r="BE3" s="9" t="n">
-        <f aca="false">ROW()</f>
+      <c r="BE3" s="9">
+        <f>ROW()</f>
         <v>3</v>
       </c>
-      <c r="BF3" s="7" t="n">
-        <f aca="false">ROW()</f>
+      <c r="BF3" s="7">
+        <f>ROW()</f>
         <v>3</v>
       </c>
-      <c r="BG3" s="7" t="n">
-        <f aca="false">ROW()</f>
+      <c r="BG3" s="7">
+        <f>ROW()</f>
         <v>3</v>
       </c>
-      <c r="BH3" s="7" t="n">
-        <f aca="false">ROW()</f>
+      <c r="BH3" s="7">
+        <f>ROW()</f>
         <v>3</v>
       </c>
-      <c r="BI3" s="7" t="n">
-        <f aca="false">ROW()</f>
+      <c r="BI3" s="7">
+        <f>ROW()</f>
         <v>3</v>
       </c>
-      <c r="BJ3" s="7" t="n">
-        <f aca="false">ROW()</f>
+      <c r="BJ3" s="7">
+        <f>ROW()</f>
         <v>3</v>
       </c>
-      <c r="BK3" s="7" t="n">
-        <f aca="false">ROW()</f>
+      <c r="BK3" s="7">
+        <f>ROW()</f>
         <v>3</v>
       </c>
-      <c r="BL3" s="7" t="n">
-        <f aca="false">ROW()</f>
+      <c r="BL3" s="7">
+        <f>ROW()</f>
         <v>3</v>
       </c>
-      <c r="BM3" s="8" t="n">
-        <f aca="false">ROW()</f>
+      <c r="BM3" s="8">
+        <f>ROW()</f>
         <v>3</v>
       </c>
-      <c r="BN3" s="7" t="n">
-        <f aca="false">ROW()</f>
+      <c r="BN3" s="7">
+        <f>ROW()</f>
         <v>3</v>
       </c>
-      <c r="BO3" s="7" t="n">
-        <f aca="false">ROW()</f>
+      <c r="BO3" s="7">
+        <f>ROW()</f>
         <v>3</v>
       </c>
-      <c r="BP3" s="7" t="n">
-        <f aca="false">ROW()</f>
+      <c r="BP3" s="7">
+        <f>ROW()</f>
         <v>3</v>
       </c>
-      <c r="BQ3" s="7" t="n">
-        <f aca="false">ROW()</f>
+      <c r="BQ3" s="7">
+        <f>ROW()</f>
         <v>3</v>
       </c>
-      <c r="BR3" s="7" t="n">
-        <f aca="false">ROW()</f>
+      <c r="BR3" s="7">
+        <f>ROW()</f>
         <v>3</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="n">
-        <f aca="false">ROW()</f>
+    <row r="4" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <f>ROW()</f>
         <v>4</v>
       </c>
-      <c r="B4" s="3" t="n">
-        <f aca="false">ROW()</f>
+      <c r="B4" s="3">
+        <f>ROW()</f>
         <v>4</v>
       </c>
-      <c r="C4" s="4" t="n">
-        <f aca="false">ROW()</f>
+      <c r="C4" s="4">
+        <f>ROW()</f>
         <v>4</v>
       </c>
-      <c r="D4" s="4" t="n">
-        <f aca="false">ROW()</f>
+      <c r="D4" s="4">
+        <f>ROW()</f>
         <v>4</v>
       </c>
-      <c r="E4" s="3" t="n">
-        <f aca="false">ROW()</f>
+      <c r="E4" s="3">
+        <f>ROW()</f>
         <v>4</v>
       </c>
-      <c r="F4" s="4" t="n">
-        <f aca="false">ROW()</f>
+      <c r="F4" s="4">
+        <f>ROW()</f>
         <v>4</v>
       </c>
-      <c r="G4" s="4" t="n">
-        <f aca="false">ROW()</f>
+      <c r="G4" s="4">
+        <f>ROW()</f>
         <v>4</v>
       </c>
-      <c r="H4" s="4" t="n">
-        <f aca="false">ROW()</f>
+      <c r="H4" s="4">
+        <f>ROW()</f>
         <v>4</v>
       </c>
-      <c r="I4" s="3" t="n">
-        <f aca="false">ROW()</f>
+      <c r="I4" s="3">
+        <f>ROW()</f>
         <v>4</v>
       </c>
-      <c r="J4" s="4" t="n">
-        <f aca="false">ROW()</f>
+      <c r="J4" s="4">
+        <f>ROW()</f>
         <v>4</v>
       </c>
-      <c r="K4" s="4" t="n">
-        <f aca="false">ROW()</f>
+      <c r="K4" s="4">
+        <f>ROW()</f>
         <v>4</v>
       </c>
-      <c r="L4" s="3" t="n">
-        <f aca="false">ROW()</f>
+      <c r="L4" s="3">
+        <f>ROW()</f>
         <v>4</v>
       </c>
-      <c r="M4" s="3" t="n">
-        <f aca="false">ROW()</f>
+      <c r="M4" s="3">
+        <f>ROW()</f>
         <v>4</v>
       </c>
-      <c r="N4" s="5" t="n">
-        <f aca="false">ROW()</f>
+      <c r="N4" s="5">
+        <f>ROW()</f>
         <v>4</v>
       </c>
-      <c r="O4" s="5" t="n">
-        <f aca="false">ROW()</f>
+      <c r="O4" s="5">
+        <f>ROW()</f>
         <v>4</v>
       </c>
-      <c r="P4" s="3" t="n">
-        <f aca="false">ROW()</f>
+      <c r="P4" s="3">
+        <f>ROW()</f>
         <v>4</v>
       </c>
-      <c r="Q4" s="4" t="n">
-        <f aca="false">ROW()</f>
+      <c r="Q4" s="4">
+        <f>ROW()</f>
         <v>4</v>
       </c>
-      <c r="R4" s="4" t="n">
-        <f aca="false">ROW()</f>
+      <c r="R4" s="4">
+        <f>ROW()</f>
         <v>4</v>
       </c>
-      <c r="S4" s="4" t="n">
-        <f aca="false">ROW()</f>
+      <c r="S4" s="4">
+        <f>ROW()</f>
         <v>4</v>
       </c>
-      <c r="T4" s="3" t="n">
-        <f aca="false">ROW()</f>
+      <c r="T4" s="3">
+        <f>ROW()</f>
         <v>4</v>
       </c>
-      <c r="U4" s="4" t="n">
-        <f aca="false">ROW()</f>
+      <c r="U4" s="4">
+        <f>ROW()</f>
         <v>4</v>
       </c>
-      <c r="V4" s="4" t="n">
-        <f aca="false">ROW()</f>
+      <c r="V4" s="4">
+        <f>ROW()</f>
         <v>4</v>
       </c>
-      <c r="W4" s="4" t="n">
-        <f aca="false">ROW()</f>
+      <c r="W4" s="4">
+        <f>ROW()</f>
         <v>4</v>
       </c>
-      <c r="X4" s="3" t="n">
-        <f aca="false">ROW()</f>
+      <c r="X4" s="3">
+        <f>ROW()</f>
         <v>4</v>
       </c>
-      <c r="Y4" s="4" t="n">
-        <f aca="false">ROW()</f>
+      <c r="Y4" s="4">
+        <f>ROW()</f>
         <v>4</v>
       </c>
-      <c r="Z4" s="4" t="n">
-        <f aca="false">ROW()</f>
+      <c r="Z4" s="4">
+        <f>ROW()</f>
         <v>4</v>
       </c>
-      <c r="AA4" s="4" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AA4" s="4">
+        <f>ROW()</f>
         <v>4</v>
       </c>
-      <c r="AB4" s="3" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AB4" s="3">
+        <f>ROW()</f>
         <v>4</v>
       </c>
       <c r="AC4" s="6"/>
-      <c r="AD4" s="7" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AD4" s="7">
+        <f>ROW()</f>
         <v>4</v>
       </c>
-      <c r="AE4" s="8" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AE4" s="8">
+        <f>ROW()</f>
         <v>4</v>
       </c>
-      <c r="AF4" s="8" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AF4" s="8">
+        <f>ROW()</f>
         <v>4</v>
       </c>
-      <c r="AG4" s="7" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AG4" s="7">
+        <f>ROW()</f>
         <v>4</v>
       </c>
-      <c r="AH4" s="7" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AH4" s="7">
+        <f>ROW()</f>
         <v>4</v>
       </c>
-      <c r="AI4" s="8" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AI4" s="8">
+        <f>ROW()</f>
         <v>4</v>
       </c>
-      <c r="AJ4" s="8" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AJ4" s="8">
+        <f>ROW()</f>
         <v>4</v>
       </c>
-      <c r="AK4" s="8" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AK4" s="8">
+        <f>ROW()</f>
         <v>4</v>
       </c>
-      <c r="AL4" s="7" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AL4" s="7">
+        <f>ROW()</f>
         <v>4</v>
       </c>
-      <c r="AM4" s="7" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AM4" s="7">
+        <f>ROW()</f>
         <v>4</v>
       </c>
-      <c r="AN4" s="8" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AN4" s="8">
+        <f>ROW()</f>
         <v>4</v>
       </c>
-      <c r="AO4" s="8" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AO4" s="8">
+        <f>ROW()</f>
         <v>4</v>
       </c>
-      <c r="AP4" s="7" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AP4" s="7">
+        <f>ROW()</f>
         <v>4</v>
       </c>
-      <c r="AQ4" s="9" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AQ4" s="9">
+        <f>ROW()</f>
         <v>4</v>
       </c>
-      <c r="AR4" s="7" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AR4" s="7">
+        <f>ROW()</f>
         <v>4</v>
       </c>
-      <c r="AS4" s="8" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AS4" s="8">
+        <f>ROW()</f>
         <v>4</v>
       </c>
-      <c r="AT4" s="8" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AT4" s="8">
+        <f>ROW()</f>
         <v>4</v>
       </c>
-      <c r="AU4" s="7" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AU4" s="7">
+        <f>ROW()</f>
         <v>4</v>
       </c>
-      <c r="AV4" s="7" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AV4" s="7">
+        <f>ROW()</f>
         <v>4</v>
       </c>
-      <c r="AW4" s="8" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AW4" s="8">
+        <f>ROW()</f>
         <v>4</v>
       </c>
-      <c r="AX4" s="8" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AX4" s="8">
+        <f>ROW()</f>
         <v>4</v>
       </c>
-      <c r="AY4" s="8" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AY4" s="8">
+        <f>ROW()</f>
         <v>4</v>
       </c>
-      <c r="AZ4" s="7" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AZ4" s="7">
+        <f>ROW()</f>
         <v>4</v>
       </c>
-      <c r="BA4" s="7" t="n">
-        <f aca="false">ROW()</f>
+      <c r="BA4" s="7">
+        <f>ROW()</f>
         <v>4</v>
       </c>
-      <c r="BB4" s="8" t="n">
-        <f aca="false">ROW()</f>
+      <c r="BB4" s="8">
+        <f>ROW()</f>
         <v>4</v>
       </c>
-      <c r="BC4" s="8" t="n">
-        <f aca="false">ROW()</f>
+      <c r="BC4" s="8">
+        <f>ROW()</f>
         <v>4</v>
       </c>
-      <c r="BD4" s="7" t="n">
-        <f aca="false">ROW()</f>
+      <c r="BD4" s="7">
+        <f>ROW()</f>
         <v>4</v>
       </c>
-      <c r="BE4" s="9" t="n">
-        <f aca="false">ROW()</f>
+      <c r="BE4" s="9">
+        <f>ROW()</f>
         <v>4</v>
       </c>
-      <c r="BF4" s="7" t="n">
-        <f aca="false">ROW()</f>
+      <c r="BF4" s="7">
+        <f>ROW()</f>
         <v>4</v>
       </c>
-      <c r="BG4" s="7" t="n">
-        <f aca="false">ROW()</f>
+      <c r="BG4" s="7">
+        <f>ROW()</f>
         <v>4</v>
       </c>
-      <c r="BH4" s="8" t="n">
-        <f aca="false">ROW()</f>
+      <c r="BH4" s="8">
+        <f>ROW()</f>
         <v>4</v>
       </c>
-      <c r="BI4" s="7" t="n">
-        <f aca="false">ROW()</f>
+      <c r="BI4" s="7">
+        <f>ROW()</f>
         <v>4</v>
       </c>
-      <c r="BJ4" s="7" t="n">
-        <f aca="false">ROW()</f>
+      <c r="BJ4" s="7">
+        <f>ROW()</f>
         <v>4</v>
       </c>
-      <c r="BK4" s="7" t="n">
-        <f aca="false">ROW()</f>
+      <c r="BK4" s="7">
+        <f>ROW()</f>
         <v>4</v>
       </c>
-      <c r="BL4" s="8" t="n">
-        <f aca="false">ROW()</f>
+      <c r="BL4" s="8">
+        <f>ROW()</f>
         <v>4</v>
       </c>
-      <c r="BM4" s="7" t="n">
-        <f aca="false">ROW()</f>
+      <c r="BM4" s="7">
+        <f>ROW()</f>
         <v>4</v>
       </c>
-      <c r="BN4" s="8" t="n">
-        <f aca="false">ROW()</f>
+      <c r="BN4" s="8">
+        <f>ROW()</f>
         <v>4</v>
       </c>
-      <c r="BO4" s="7" t="n">
-        <f aca="false">ROW()</f>
+      <c r="BO4" s="7">
+        <f>ROW()</f>
         <v>4</v>
       </c>
-      <c r="BP4" s="8" t="n">
-        <f aca="false">ROW()</f>
+      <c r="BP4" s="8">
+        <f>ROW()</f>
         <v>4</v>
       </c>
-      <c r="BQ4" s="7" t="n">
-        <f aca="false">ROW()</f>
+      <c r="BQ4" s="7">
+        <f>ROW()</f>
         <v>4</v>
       </c>
-      <c r="BR4" s="7" t="n">
-        <f aca="false">ROW()</f>
+      <c r="BR4" s="7">
+        <f>ROW()</f>
         <v>4</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="n">
-        <f aca="false">ROW()</f>
+    <row r="5" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <f>ROW()</f>
         <v>5</v>
       </c>
-      <c r="B5" s="4" t="n">
-        <f aca="false">ROW()</f>
+      <c r="B5" s="4">
+        <f>ROW()</f>
         <v>5</v>
       </c>
-      <c r="C5" s="4" t="n">
-        <f aca="false">ROW()</f>
+      <c r="C5" s="4">
+        <f>ROW()</f>
         <v>5</v>
       </c>
-      <c r="D5" s="4" t="n">
-        <f aca="false">ROW()</f>
+      <c r="D5" s="4">
+        <f>ROW()</f>
         <v>5</v>
       </c>
-      <c r="E5" s="4" t="n">
-        <f aca="false">ROW()</f>
+      <c r="E5" s="4">
+        <f>ROW()</f>
         <v>5</v>
       </c>
-      <c r="F5" s="4" t="n">
-        <f aca="false">ROW()</f>
+      <c r="F5" s="4">
+        <f>ROW()</f>
         <v>5</v>
       </c>
-      <c r="G5" s="4" t="n">
-        <f aca="false">ROW()</f>
+      <c r="G5" s="4">
+        <f>ROW()</f>
         <v>5</v>
       </c>
-      <c r="H5" s="4" t="n">
-        <f aca="false">ROW()</f>
+      <c r="H5" s="4">
+        <f>ROW()</f>
         <v>5</v>
       </c>
-      <c r="I5" s="4" t="n">
-        <f aca="false">ROW()</f>
+      <c r="I5" s="4">
+        <f>ROW()</f>
         <v>5</v>
       </c>
-      <c r="J5" s="4" t="n">
-        <f aca="false">ROW()</f>
+      <c r="J5" s="4">
+        <f>ROW()</f>
         <v>5</v>
       </c>
-      <c r="K5" s="4" t="n">
-        <f aca="false">ROW()</f>
+      <c r="K5" s="4">
+        <f>ROW()</f>
         <v>5</v>
       </c>
-      <c r="L5" s="4" t="n">
-        <f aca="false">ROW()</f>
+      <c r="L5" s="4">
+        <f>ROW()</f>
         <v>5</v>
       </c>
-      <c r="M5" s="3" t="n">
-        <f aca="false">ROW()</f>
+      <c r="M5" s="3">
+        <f>ROW()</f>
         <v>5</v>
       </c>
-      <c r="N5" s="5" t="n">
-        <f aca="false">ROW()</f>
+      <c r="N5" s="5">
+        <f>ROW()</f>
         <v>5</v>
       </c>
-      <c r="O5" s="5" t="n">
-        <f aca="false">ROW()</f>
+      <c r="O5" s="5">
+        <f>ROW()</f>
         <v>5</v>
       </c>
-      <c r="P5" s="3" t="n">
-        <f aca="false">ROW()</f>
+      <c r="P5" s="3">
+        <f>ROW()</f>
         <v>5</v>
       </c>
-      <c r="Q5" s="4" t="n">
-        <f aca="false">ROW()</f>
+      <c r="Q5" s="4">
+        <f>ROW()</f>
         <v>5</v>
       </c>
-      <c r="R5" s="4" t="n">
-        <f aca="false">ROW()</f>
+      <c r="R5" s="4">
+        <f>ROW()</f>
         <v>5</v>
       </c>
-      <c r="S5" s="4" t="n">
-        <f aca="false">ROW()</f>
+      <c r="S5" s="4">
+        <f>ROW()</f>
         <v>5</v>
       </c>
-      <c r="T5" s="4" t="n">
-        <f aca="false">ROW()</f>
+      <c r="T5" s="4">
+        <f>ROW()</f>
         <v>5</v>
       </c>
-      <c r="U5" s="4" t="n">
-        <f aca="false">ROW()</f>
+      <c r="U5" s="4">
+        <f>ROW()</f>
         <v>5</v>
       </c>
-      <c r="V5" s="4" t="n">
-        <f aca="false">ROW()</f>
+      <c r="V5" s="4">
+        <f>ROW()</f>
         <v>5</v>
       </c>
-      <c r="W5" s="4" t="n">
-        <f aca="false">ROW()</f>
+      <c r="W5" s="4">
+        <f>ROW()</f>
         <v>5</v>
       </c>
-      <c r="X5" s="4" t="n">
-        <f aca="false">ROW()</f>
+      <c r="X5" s="4">
+        <f>ROW()</f>
         <v>5</v>
       </c>
-      <c r="Y5" s="4" t="n">
-        <f aca="false">ROW()</f>
+      <c r="Y5" s="4">
+        <f>ROW()</f>
         <v>5</v>
       </c>
-      <c r="Z5" s="4" t="n">
-        <f aca="false">ROW()</f>
+      <c r="Z5" s="4">
+        <f>ROW()</f>
         <v>5</v>
       </c>
-      <c r="AA5" s="4" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AA5" s="4">
+        <f>ROW()</f>
         <v>5</v>
       </c>
-      <c r="AB5" s="3" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AB5" s="3">
+        <f>ROW()</f>
         <v>5</v>
       </c>
       <c r="AC5" s="6"/>
-      <c r="AD5" s="7" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AD5" s="7">
+        <f>ROW()</f>
         <v>5</v>
       </c>
-      <c r="AE5" s="8" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AE5" s="8">
+        <f>ROW()</f>
         <v>5</v>
       </c>
-      <c r="AF5" s="8" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AF5" s="8">
+        <f>ROW()</f>
         <v>5</v>
       </c>
-      <c r="AG5" s="8" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AG5" s="8">
+        <f>ROW()</f>
         <v>5</v>
       </c>
-      <c r="AH5" s="8" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AH5" s="8">
+        <f>ROW()</f>
         <v>5</v>
       </c>
-      <c r="AI5" s="8" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AI5" s="8">
+        <f>ROW()</f>
         <v>5</v>
       </c>
-      <c r="AJ5" s="8" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AJ5" s="8">
+        <f>ROW()</f>
         <v>5</v>
       </c>
-      <c r="AK5" s="8" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AK5" s="8">
+        <f>ROW()</f>
         <v>5</v>
       </c>
-      <c r="AL5" s="8" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AL5" s="8">
+        <f>ROW()</f>
         <v>5</v>
       </c>
-      <c r="AM5" s="8" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AM5" s="8">
+        <f>ROW()</f>
         <v>5</v>
       </c>
-      <c r="AN5" s="8" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AN5" s="8">
+        <f>ROW()</f>
         <v>5</v>
       </c>
-      <c r="AO5" s="8" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AO5" s="8">
+        <f>ROW()</f>
         <v>5</v>
       </c>
-      <c r="AP5" s="7" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AP5" s="7">
+        <f>ROW()</f>
         <v>5</v>
       </c>
-      <c r="AQ5" s="9" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AQ5" s="9">
+        <f>ROW()</f>
         <v>5</v>
       </c>
-      <c r="AR5" s="7" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AR5" s="7">
+        <f>ROW()</f>
         <v>5</v>
       </c>
-      <c r="AS5" s="8" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AS5" s="8">
+        <f>ROW()</f>
         <v>5</v>
       </c>
-      <c r="AT5" s="8" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AT5" s="8">
+        <f>ROW()</f>
         <v>5</v>
       </c>
-      <c r="AU5" s="8" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AU5" s="8">
+        <f>ROW()</f>
         <v>5</v>
       </c>
-      <c r="AV5" s="8" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AV5" s="8">
+        <f>ROW()</f>
         <v>5</v>
       </c>
-      <c r="AW5" s="8" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AW5" s="8">
+        <f>ROW()</f>
         <v>5</v>
       </c>
-      <c r="AX5" s="8" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AX5" s="8">
+        <f>ROW()</f>
         <v>5</v>
       </c>
-      <c r="AY5" s="8" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AY5" s="8">
+        <f>ROW()</f>
         <v>5</v>
       </c>
-      <c r="AZ5" s="8" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AZ5" s="8">
+        <f>ROW()</f>
         <v>5</v>
       </c>
-      <c r="BA5" s="8" t="n">
-        <f aca="false">ROW()</f>
+      <c r="BA5" s="8">
+        <f>ROW()</f>
         <v>5</v>
       </c>
-      <c r="BB5" s="8" t="n">
-        <f aca="false">ROW()</f>
+      <c r="BB5" s="8">
+        <f>ROW()</f>
         <v>5</v>
       </c>
-      <c r="BC5" s="8" t="n">
-        <f aca="false">ROW()</f>
+      <c r="BC5" s="8">
+        <f>ROW()</f>
         <v>5</v>
       </c>
-      <c r="BD5" s="7" t="n">
-        <f aca="false">ROW()</f>
+      <c r="BD5" s="7">
+        <f>ROW()</f>
         <v>5</v>
       </c>
-      <c r="BE5" s="9" t="n">
-        <f aca="false">ROW()</f>
+      <c r="BE5" s="9">
+        <f>ROW()</f>
         <v>5</v>
       </c>
-      <c r="BF5" s="7" t="n">
-        <f aca="false">ROW()</f>
+      <c r="BF5" s="7">
+        <f>ROW()</f>
         <v>5</v>
       </c>
-      <c r="BG5" s="10" t="n">
-        <f aca="false">ROW()</f>
+      <c r="BG5" s="10">
+        <f>ROW()</f>
         <v>5</v>
       </c>
-      <c r="BH5" s="7" t="n">
-        <f aca="false">ROW()</f>
+      <c r="BH5" s="7">
+        <f>ROW()</f>
         <v>5</v>
       </c>
-      <c r="BI5" s="8" t="n">
-        <f aca="false">ROW()</f>
+      <c r="BI5" s="8">
+        <f>ROW()</f>
         <v>5</v>
       </c>
-      <c r="BJ5" s="7" t="n">
-        <f aca="false">ROW()</f>
+      <c r="BJ5" s="7">
+        <f>ROW()</f>
         <v>5</v>
       </c>
-      <c r="BK5" s="8" t="n">
-        <f aca="false">ROW()</f>
+      <c r="BK5" s="8">
+        <f>ROW()</f>
         <v>5</v>
       </c>
-      <c r="BL5" s="7" t="n">
-        <f aca="false">ROW()</f>
+      <c r="BL5" s="7">
+        <f>ROW()</f>
         <v>5</v>
       </c>
-      <c r="BM5" s="7" t="n">
-        <f aca="false">ROW()</f>
+      <c r="BM5" s="7">
+        <f>ROW()</f>
         <v>5</v>
       </c>
-      <c r="BN5" s="7" t="n">
-        <f aca="false">ROW()</f>
+      <c r="BN5" s="7">
+        <f>ROW()</f>
         <v>5</v>
       </c>
-      <c r="BO5" s="8" t="n">
-        <f aca="false">ROW()</f>
+      <c r="BO5" s="8">
+        <f>ROW()</f>
         <v>5</v>
       </c>
-      <c r="BP5" s="7" t="n">
-        <f aca="false">ROW()</f>
+      <c r="BP5" s="7">
+        <f>ROW()</f>
         <v>5</v>
       </c>
-      <c r="BQ5" s="10" t="n">
-        <f aca="false">ROW()</f>
+      <c r="BQ5" s="10">
+        <f>ROW()</f>
         <v>5</v>
       </c>
-      <c r="BR5" s="7" t="n">
-        <f aca="false">ROW()</f>
+      <c r="BR5" s="7">
+        <f>ROW()</f>
         <v>5</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="n">
-        <f aca="false">ROW()</f>
+    <row r="6" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <f>ROW()</f>
         <v>6</v>
       </c>
-      <c r="B6" s="4" t="n">
-        <f aca="false">ROW()</f>
+      <c r="B6" s="4">
+        <f>ROW()</f>
         <v>6</v>
       </c>
-      <c r="C6" s="3" t="n">
-        <f aca="false">ROW()</f>
+      <c r="C6" s="3">
+        <f>ROW()</f>
         <v>6</v>
       </c>
-      <c r="D6" s="4" t="n">
-        <f aca="false">ROW()</f>
+      <c r="D6" s="4">
+        <f>ROW()</f>
         <v>6</v>
       </c>
-      <c r="E6" s="4" t="n">
-        <f aca="false">ROW()</f>
+      <c r="E6" s="4">
+        <f>ROW()</f>
         <v>6</v>
       </c>
-      <c r="F6" s="4" t="n">
-        <f aca="false">ROW()</f>
+      <c r="F6" s="4">
+        <f>ROW()</f>
         <v>6</v>
       </c>
-      <c r="G6" s="4" t="n">
-        <f aca="false">ROW()</f>
+      <c r="G6" s="4">
+        <f>ROW()</f>
         <v>6</v>
       </c>
-      <c r="H6" s="4" t="n">
-        <f aca="false">ROW()</f>
+      <c r="H6" s="4">
+        <f>ROW()</f>
         <v>6</v>
       </c>
-      <c r="I6" s="4" t="n">
-        <f aca="false">ROW()</f>
+      <c r="I6" s="4">
+        <f>ROW()</f>
         <v>6</v>
       </c>
-      <c r="J6" s="4" t="n">
-        <f aca="false">ROW()</f>
+      <c r="J6" s="4">
+        <f>ROW()</f>
         <v>6</v>
       </c>
-      <c r="K6" s="3" t="n">
-        <f aca="false">ROW()</f>
+      <c r="K6" s="3">
+        <f>ROW()</f>
         <v>6</v>
       </c>
-      <c r="L6" s="4" t="n">
-        <f aca="false">ROW()</f>
+      <c r="L6" s="4">
+        <f>ROW()</f>
         <v>6</v>
       </c>
-      <c r="M6" s="3" t="n">
-        <f aca="false">ROW()</f>
+      <c r="M6" s="3">
+        <f>ROW()</f>
         <v>6</v>
       </c>
-      <c r="N6" s="5" t="n">
-        <f aca="false">ROW()</f>
+      <c r="N6" s="5">
+        <f>ROW()</f>
         <v>6</v>
       </c>
-      <c r="O6" s="5" t="n">
-        <f aca="false">ROW()</f>
+      <c r="O6" s="5">
+        <f>ROW()</f>
         <v>6</v>
       </c>
-      <c r="P6" s="3" t="n">
-        <f aca="false">ROW()</f>
+      <c r="P6" s="3">
+        <f>ROW()</f>
         <v>6</v>
       </c>
-      <c r="Q6" s="3" t="n">
-        <f aca="false">ROW()</f>
+      <c r="Q6" s="3">
+        <f>ROW()</f>
         <v>6</v>
       </c>
-      <c r="R6" s="4" t="n">
-        <f aca="false">ROW()</f>
+      <c r="R6" s="4">
+        <f>ROW()</f>
         <v>6</v>
       </c>
-      <c r="S6" s="4" t="n">
-        <f aca="false">ROW()</f>
+      <c r="S6" s="4">
+        <f>ROW()</f>
         <v>6</v>
       </c>
-      <c r="T6" s="4" t="n">
-        <f aca="false">ROW()</f>
+      <c r="T6" s="4">
+        <f>ROW()</f>
         <v>6</v>
       </c>
-      <c r="U6" s="4" t="n">
-        <f aca="false">ROW()</f>
+      <c r="U6" s="4">
+        <f>ROW()</f>
         <v>6</v>
       </c>
-      <c r="V6" s="4" t="n">
-        <f aca="false">ROW()</f>
+      <c r="V6" s="4">
+        <f>ROW()</f>
         <v>6</v>
       </c>
-      <c r="W6" s="4" t="n">
-        <f aca="false">ROW()</f>
+      <c r="W6" s="4">
+        <f>ROW()</f>
         <v>6</v>
       </c>
-      <c r="X6" s="4" t="n">
-        <f aca="false">ROW()</f>
+      <c r="X6" s="4">
+        <f>ROW()</f>
         <v>6</v>
       </c>
-      <c r="Y6" s="4" t="n">
-        <f aca="false">ROW()</f>
+      <c r="Y6" s="4">
+        <f>ROW()</f>
         <v>6</v>
       </c>
-      <c r="Z6" s="4" t="n">
-        <f aca="false">ROW()</f>
+      <c r="Z6" s="4">
+        <f>ROW()</f>
         <v>6</v>
       </c>
-      <c r="AA6" s="3" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AA6" s="3">
+        <f>ROW()</f>
         <v>6</v>
       </c>
-      <c r="AB6" s="3" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AB6" s="3">
+        <f>ROW()</f>
         <v>6</v>
       </c>
       <c r="AC6" s="6"/>
-      <c r="AD6" s="7" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AD6" s="7">
+        <f>ROW()</f>
         <v>6</v>
       </c>
-      <c r="AE6" s="7" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AE6" s="7">
+        <f>ROW()</f>
         <v>6</v>
       </c>
-      <c r="AF6" s="7" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AF6" s="7">
+        <f>ROW()</f>
         <v>6</v>
       </c>
-      <c r="AG6" s="8" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AG6" s="8">
+        <f>ROW()</f>
         <v>6</v>
       </c>
-      <c r="AH6" s="8" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AH6" s="8">
+        <f>ROW()</f>
         <v>6</v>
       </c>
-      <c r="AI6" s="7" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AI6" s="7">
+        <f>ROW()</f>
         <v>6</v>
       </c>
-      <c r="AJ6" s="7" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AJ6" s="7">
+        <f>ROW()</f>
         <v>6</v>
       </c>
-      <c r="AK6" s="7" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AK6" s="7">
+        <f>ROW()</f>
         <v>6</v>
       </c>
-      <c r="AL6" s="8" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AL6" s="8">
+        <f>ROW()</f>
         <v>6</v>
       </c>
-      <c r="AM6" s="8" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AM6" s="8">
+        <f>ROW()</f>
         <v>6</v>
       </c>
-      <c r="AN6" s="7" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AN6" s="7">
+        <f>ROW()</f>
         <v>6</v>
       </c>
-      <c r="AO6" s="7" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AO6" s="7">
+        <f>ROW()</f>
         <v>6</v>
       </c>
-      <c r="AP6" s="7" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AP6" s="7">
+        <f>ROW()</f>
         <v>6</v>
       </c>
-      <c r="AQ6" s="9" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AQ6" s="9">
+        <f>ROW()</f>
         <v>6</v>
       </c>
-      <c r="AR6" s="7" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AR6" s="7">
+        <f>ROW()</f>
         <v>6</v>
       </c>
-      <c r="AS6" s="7" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AS6" s="7">
+        <f>ROW()</f>
         <v>6</v>
       </c>
-      <c r="AT6" s="7" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AT6" s="7">
+        <f>ROW()</f>
         <v>6</v>
       </c>
-      <c r="AU6" s="8" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AU6" s="8">
+        <f>ROW()</f>
         <v>6</v>
       </c>
-      <c r="AV6" s="8" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AV6" s="8">
+        <f>ROW()</f>
         <v>6</v>
       </c>
-      <c r="AW6" s="7" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AW6" s="7">
+        <f>ROW()</f>
         <v>6</v>
       </c>
-      <c r="AX6" s="7" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AX6" s="7">
+        <f>ROW()</f>
         <v>6</v>
       </c>
-      <c r="AY6" s="7" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AY6" s="7">
+        <f>ROW()</f>
         <v>6</v>
       </c>
-      <c r="AZ6" s="8" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AZ6" s="8">
+        <f>ROW()</f>
         <v>6</v>
       </c>
-      <c r="BA6" s="8" t="n">
-        <f aca="false">ROW()</f>
+      <c r="BA6" s="8">
+        <f>ROW()</f>
         <v>6</v>
       </c>
-      <c r="BB6" s="7" t="n">
-        <f aca="false">ROW()</f>
+      <c r="BB6" s="7">
+        <f>ROW()</f>
         <v>6</v>
       </c>
-      <c r="BC6" s="7" t="n">
-        <f aca="false">ROW()</f>
+      <c r="BC6" s="7">
+        <f>ROW()</f>
         <v>6</v>
       </c>
-      <c r="BD6" s="7" t="n">
-        <f aca="false">ROW()</f>
+      <c r="BD6" s="7">
+        <f>ROW()</f>
         <v>6</v>
       </c>
-      <c r="BE6" s="9" t="n">
-        <f aca="false">ROW()</f>
+      <c r="BE6" s="9">
+        <f>ROW()</f>
         <v>6</v>
       </c>
-      <c r="BF6" s="7" t="n">
-        <f aca="false">ROW()</f>
+      <c r="BF6" s="7">
+        <f>ROW()</f>
         <v>6</v>
       </c>
-      <c r="BG6" s="7" t="n">
-        <f aca="false">ROW()</f>
+      <c r="BG6" s="7">
+        <f>ROW()</f>
         <v>6</v>
       </c>
-      <c r="BH6" s="7" t="n">
-        <f aca="false">ROW()</f>
+      <c r="BH6" s="7">
+        <f>ROW()</f>
         <v>6</v>
       </c>
-      <c r="BI6" s="7" t="n">
-        <f aca="false">ROW()</f>
+      <c r="BI6" s="7">
+        <f>ROW()</f>
         <v>6</v>
       </c>
-      <c r="BJ6" s="8" t="n">
-        <f aca="false">ROW()</f>
+      <c r="BJ6" s="8">
+        <f>ROW()</f>
         <v>6</v>
       </c>
-      <c r="BK6" s="7" t="n">
-        <f aca="false">ROW()</f>
+      <c r="BK6" s="7">
+        <f>ROW()</f>
         <v>6</v>
       </c>
-      <c r="BL6" s="7" t="n">
-        <f aca="false">ROW()</f>
+      <c r="BL6" s="7">
+        <f>ROW()</f>
         <v>6</v>
       </c>
-      <c r="BM6" s="7" t="n">
-        <f aca="false">ROW()</f>
+      <c r="BM6" s="7">
+        <f>ROW()</f>
         <v>6</v>
       </c>
-      <c r="BN6" s="7" t="n">
-        <f aca="false">ROW()</f>
+      <c r="BN6" s="7">
+        <f>ROW()</f>
         <v>6</v>
       </c>
-      <c r="BO6" s="7" t="n">
-        <f aca="false">ROW()</f>
+      <c r="BO6" s="7">
+        <f>ROW()</f>
         <v>6</v>
       </c>
-      <c r="BP6" s="7" t="n">
-        <f aca="false">ROW()</f>
+      <c r="BP6" s="7">
+        <f>ROW()</f>
         <v>6</v>
       </c>
-      <c r="BQ6" s="7" t="n">
-        <f aca="false">ROW()</f>
+      <c r="BQ6" s="7">
+        <f>ROW()</f>
         <v>6</v>
       </c>
-      <c r="BR6" s="7" t="n">
-        <f aca="false">ROW()</f>
+      <c r="BR6" s="7">
+        <f>ROW()</f>
         <v>6</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="n">
-        <f aca="false">ROW()</f>
+    <row r="7" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <f>ROW()</f>
         <v>7</v>
       </c>
-      <c r="B7" s="4" t="n">
-        <f aca="false">ROW()</f>
+      <c r="B7" s="4">
+        <f>ROW()</f>
         <v>7</v>
       </c>
-      <c r="C7" s="3" t="n">
-        <f aca="false">ROW()</f>
+      <c r="C7" s="3">
+        <f>ROW()</f>
         <v>7</v>
       </c>
-      <c r="D7" s="4" t="n">
-        <f aca="false">ROW()</f>
+      <c r="D7" s="4">
+        <f>ROW()</f>
         <v>7</v>
       </c>
-      <c r="E7" s="3" t="n">
-        <f aca="false">ROW()</f>
+      <c r="E7" s="3">
+        <f>ROW()</f>
         <v>7</v>
       </c>
-      <c r="F7" s="3" t="n">
-        <f aca="false">ROW()</f>
+      <c r="F7" s="3">
+        <f>ROW()</f>
         <v>7</v>
       </c>
-      <c r="G7" s="3" t="n">
-        <f aca="false">ROW()</f>
+      <c r="G7" s="3">
+        <f>ROW()</f>
         <v>7</v>
       </c>
-      <c r="H7" s="3" t="n">
-        <f aca="false">ROW()</f>
+      <c r="H7" s="3">
+        <f>ROW()</f>
         <v>7</v>
       </c>
-      <c r="I7" s="3" t="n">
-        <f aca="false">ROW()</f>
+      <c r="I7" s="3">
+        <f>ROW()</f>
         <v>7</v>
       </c>
-      <c r="J7" s="4" t="n">
-        <f aca="false">ROW()</f>
+      <c r="J7" s="4">
+        <f>ROW()</f>
         <v>7</v>
       </c>
-      <c r="K7" s="3" t="n">
-        <f aca="false">ROW()</f>
+      <c r="K7" s="3">
+        <f>ROW()</f>
         <v>7</v>
       </c>
-      <c r="L7" s="4" t="n">
-        <f aca="false">ROW()</f>
+      <c r="L7" s="4">
+        <f>ROW()</f>
         <v>7</v>
       </c>
-      <c r="M7" s="3" t="n">
-        <f aca="false">ROW()</f>
+      <c r="M7" s="3">
+        <f>ROW()</f>
         <v>7</v>
       </c>
-      <c r="N7" s="5" t="n">
-        <f aca="false">ROW()</f>
+      <c r="N7" s="5">
+        <f>ROW()</f>
         <v>7</v>
       </c>
-      <c r="O7" s="5" t="n">
-        <f aca="false">ROW()</f>
+      <c r="O7" s="5">
+        <f>ROW()</f>
         <v>7</v>
       </c>
-      <c r="P7" s="3" t="n">
-        <f aca="false">ROW()</f>
+      <c r="P7" s="3">
+        <f>ROW()</f>
         <v>7</v>
       </c>
-      <c r="Q7" s="3" t="n">
-        <f aca="false">ROW()</f>
+      <c r="Q7" s="3">
+        <f>ROW()</f>
         <v>7</v>
       </c>
-      <c r="R7" s="3" t="n">
-        <f aca="false">ROW()</f>
+      <c r="R7" s="3">
+        <f>ROW()</f>
         <v>7</v>
       </c>
-      <c r="S7" s="4" t="n">
-        <f aca="false">ROW()</f>
+      <c r="S7" s="4">
+        <f>ROW()</f>
         <v>7</v>
       </c>
-      <c r="T7" s="3" t="n">
-        <f aca="false">ROW()</f>
+      <c r="T7" s="3">
+        <f>ROW()</f>
         <v>7</v>
       </c>
-      <c r="U7" s="3" t="n">
-        <f aca="false">ROW()</f>
+      <c r="U7" s="3">
+        <f>ROW()</f>
         <v>7</v>
       </c>
-      <c r="V7" s="3" t="n">
-        <f aca="false">ROW()</f>
+      <c r="V7" s="3">
+        <f>ROW()</f>
         <v>7</v>
       </c>
-      <c r="W7" s="3" t="n">
-        <f aca="false">ROW()</f>
+      <c r="W7" s="3">
+        <f>ROW()</f>
         <v>7</v>
       </c>
-      <c r="X7" s="3" t="n">
-        <f aca="false">ROW()</f>
+      <c r="X7" s="3">
+        <f>ROW()</f>
         <v>7</v>
       </c>
-      <c r="Y7" s="4" t="n">
-        <f aca="false">ROW()</f>
+      <c r="Y7" s="4">
+        <f>ROW()</f>
         <v>7</v>
       </c>
-      <c r="Z7" s="3" t="n">
-        <f aca="false">ROW()</f>
+      <c r="Z7" s="3">
+        <f>ROW()</f>
         <v>7</v>
       </c>
-      <c r="AA7" s="3" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AA7" s="3">
+        <f>ROW()</f>
         <v>7</v>
       </c>
-      <c r="AB7" s="3" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AB7" s="3">
+        <f>ROW()</f>
         <v>7</v>
       </c>
-      <c r="AD7" s="7" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AD7" s="7">
+        <f>ROW()</f>
         <v>7</v>
       </c>
-      <c r="AE7" s="7" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AE7" s="7">
+        <f>ROW()</f>
         <v>7</v>
       </c>
-      <c r="AF7" s="8" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AF7" s="8">
+        <f>ROW()</f>
         <v>7</v>
       </c>
-      <c r="AG7" s="7" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AG7" s="7">
+        <f>ROW()</f>
         <v>7</v>
       </c>
-      <c r="AH7" s="7" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AH7" s="7">
+        <f>ROW()</f>
         <v>7</v>
       </c>
-      <c r="AI7" s="8" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AI7" s="8">
+        <f>ROW()</f>
         <v>7</v>
       </c>
-      <c r="AJ7" s="8" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AJ7" s="8">
+        <f>ROW()</f>
         <v>7</v>
       </c>
-      <c r="AK7" s="8" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AK7" s="8">
+        <f>ROW()</f>
         <v>7</v>
       </c>
-      <c r="AL7" s="7" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AL7" s="7">
+        <f>ROW()</f>
         <v>7</v>
       </c>
-      <c r="AM7" s="7" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AM7" s="7">
+        <f>ROW()</f>
         <v>7</v>
       </c>
-      <c r="AN7" s="8" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AN7" s="8">
+        <f>ROW()</f>
         <v>7</v>
       </c>
-      <c r="AO7" s="7" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AO7" s="7">
+        <f>ROW()</f>
         <v>7</v>
       </c>
-      <c r="AP7" s="7" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AP7" s="7">
+        <f>ROW()</f>
         <v>7</v>
       </c>
-      <c r="AQ7" s="9" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AQ7" s="9">
+        <f>ROW()</f>
         <v>7</v>
       </c>
-      <c r="AR7" s="7" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AR7" s="7">
+        <f>ROW()</f>
         <v>7</v>
       </c>
-      <c r="AS7" s="7" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AS7" s="7">
+        <f>ROW()</f>
         <v>7</v>
       </c>
-      <c r="AT7" s="8" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AT7" s="8">
+        <f>ROW()</f>
         <v>7</v>
       </c>
-      <c r="AU7" s="7" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AU7" s="7">
+        <f>ROW()</f>
         <v>7</v>
       </c>
-      <c r="AV7" s="7" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AV7" s="7">
+        <f>ROW()</f>
         <v>7</v>
       </c>
-      <c r="AW7" s="8" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AW7" s="8">
+        <f>ROW()</f>
         <v>7</v>
       </c>
-      <c r="AX7" s="8" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AX7" s="8">
+        <f>ROW()</f>
         <v>7</v>
       </c>
-      <c r="AY7" s="8" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AY7" s="8">
+        <f>ROW()</f>
         <v>7</v>
       </c>
-      <c r="AZ7" s="7" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AZ7" s="7">
+        <f>ROW()</f>
         <v>7</v>
       </c>
-      <c r="BA7" s="7" t="n">
-        <f aca="false">ROW()</f>
+      <c r="BA7" s="7">
+        <f>ROW()</f>
         <v>7</v>
       </c>
-      <c r="BB7" s="8" t="n">
-        <f aca="false">ROW()</f>
+      <c r="BB7" s="8">
+        <f>ROW()</f>
         <v>7</v>
       </c>
-      <c r="BC7" s="7" t="n">
-        <f aca="false">ROW()</f>
+      <c r="BC7" s="7">
+        <f>ROW()</f>
         <v>7</v>
       </c>
-      <c r="BD7" s="7" t="n">
-        <f aca="false">ROW()</f>
+      <c r="BD7" s="7">
+        <f>ROW()</f>
         <v>7</v>
       </c>
-      <c r="BE7" s="9" t="n">
-        <f aca="false">ROW()</f>
+      <c r="BE7" s="9">
+        <f>ROW()</f>
         <v>7</v>
       </c>
-      <c r="BF7" s="7" t="n">
-        <f aca="false">ROW()</f>
+      <c r="BF7" s="7">
+        <f>ROW()</f>
         <v>7</v>
       </c>
-      <c r="BG7" s="7" t="n">
-        <f aca="false">ROW()</f>
+      <c r="BG7" s="7">
+        <f>ROW()</f>
         <v>7</v>
       </c>
-      <c r="BH7" s="7" t="n">
-        <f aca="false">ROW()</f>
+      <c r="BH7" s="7">
+        <f>ROW()</f>
         <v>7</v>
       </c>
-      <c r="BI7" s="7" t="n">
-        <f aca="false">ROW()</f>
+      <c r="BI7" s="7">
+        <f>ROW()</f>
         <v>7</v>
       </c>
-      <c r="BJ7" s="7" t="n">
-        <f aca="false">ROW()</f>
+      <c r="BJ7" s="7">
+        <f>ROW()</f>
         <v>7</v>
       </c>
-      <c r="BK7" s="7" t="n">
-        <f aca="false">ROW()</f>
+      <c r="BK7" s="7">
+        <f>ROW()</f>
         <v>7</v>
       </c>
-      <c r="BL7" s="7" t="n">
-        <f aca="false">ROW()</f>
+      <c r="BL7" s="7">
+        <f>ROW()</f>
         <v>7</v>
       </c>
-      <c r="BM7" s="7" t="n">
-        <f aca="false">ROW()</f>
+      <c r="BM7" s="7">
+        <f>ROW()</f>
         <v>7</v>
       </c>
-      <c r="BN7" s="7" t="n">
-        <f aca="false">ROW()</f>
+      <c r="BN7" s="7">
+        <f>ROW()</f>
         <v>7</v>
       </c>
-      <c r="BO7" s="7" t="n">
-        <f aca="false">ROW()</f>
+      <c r="BO7" s="7">
+        <f>ROW()</f>
         <v>7</v>
       </c>
-      <c r="BP7" s="7" t="n">
-        <f aca="false">ROW()</f>
+      <c r="BP7" s="7">
+        <f>ROW()</f>
         <v>7</v>
       </c>
-      <c r="BQ7" s="7" t="n">
-        <f aca="false">ROW()</f>
+      <c r="BQ7" s="7">
+        <f>ROW()</f>
         <v>7</v>
       </c>
-      <c r="BR7" s="7" t="n">
-        <f aca="false">ROW()</f>
+      <c r="BR7" s="7">
+        <f>ROW()</f>
         <v>7</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="n">
-        <f aca="false">ROW()</f>
+    <row r="8" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <f>ROW()</f>
         <v>8</v>
       </c>
-      <c r="B8" s="3" t="n">
-        <f aca="false">ROW()</f>
+      <c r="B8" s="3">
+        <f>ROW()</f>
         <v>8</v>
       </c>
-      <c r="C8" s="3" t="n">
-        <f aca="false">ROW()</f>
+      <c r="C8" s="3">
+        <f>ROW()</f>
         <v>8</v>
       </c>
-      <c r="D8" s="3" t="n">
-        <f aca="false">ROW()</f>
+      <c r="D8" s="3">
+        <f>ROW()</f>
         <v>8</v>
       </c>
-      <c r="E8" s="4" t="n">
-        <f aca="false">ROW()</f>
+      <c r="E8" s="4">
+        <f>ROW()</f>
         <v>8</v>
       </c>
-      <c r="F8" s="4" t="n">
-        <f aca="false">ROW()</f>
+      <c r="F8" s="4">
+        <f>ROW()</f>
         <v>8</v>
       </c>
-      <c r="G8" s="3" t="n">
-        <f aca="false">ROW()</f>
+      <c r="G8" s="3">
+        <f>ROW()</f>
         <v>8</v>
       </c>
-      <c r="H8" s="4" t="n">
-        <f aca="false">ROW()</f>
+      <c r="H8" s="4">
+        <f>ROW()</f>
         <v>8</v>
       </c>
-      <c r="I8" s="4" t="n">
-        <f aca="false">ROW()</f>
+      <c r="I8" s="4">
+        <f>ROW()</f>
         <v>8</v>
       </c>
-      <c r="J8" s="3" t="n">
-        <f aca="false">ROW()</f>
+      <c r="J8" s="3">
+        <f>ROW()</f>
         <v>8</v>
       </c>
-      <c r="K8" s="3" t="n">
-        <f aca="false">ROW()</f>
+      <c r="K8" s="3">
+        <f>ROW()</f>
         <v>8</v>
       </c>
-      <c r="L8" s="3" t="n">
-        <f aca="false">ROW()</f>
+      <c r="L8" s="3">
+        <f>ROW()</f>
         <v>8</v>
       </c>
-      <c r="M8" s="3" t="n">
-        <f aca="false">ROW()</f>
+      <c r="M8" s="3">
+        <f>ROW()</f>
         <v>8</v>
       </c>
-      <c r="N8" s="5" t="n">
-        <f aca="false">ROW()</f>
+      <c r="N8" s="5">
+        <f>ROW()</f>
         <v>8</v>
       </c>
-      <c r="O8" s="5" t="n">
-        <f aca="false">ROW()</f>
+      <c r="O8" s="5">
+        <f>ROW()</f>
         <v>8</v>
       </c>
-      <c r="P8" s="3" t="n">
-        <f aca="false">ROW()</f>
+      <c r="P8" s="3">
+        <f>ROW()</f>
         <v>8</v>
       </c>
-      <c r="Q8" s="3" t="n">
-        <f aca="false">ROW()</f>
+      <c r="Q8" s="3">
+        <f>ROW()</f>
         <v>8</v>
       </c>
-      <c r="R8" s="4" t="n">
-        <f aca="false">ROW()</f>
+      <c r="R8" s="4">
+        <f>ROW()</f>
         <v>8</v>
       </c>
-      <c r="S8" s="3" t="n">
-        <f aca="false">ROW()</f>
+      <c r="S8" s="3">
+        <f>ROW()</f>
         <v>8</v>
       </c>
-      <c r="T8" s="3" t="n">
-        <f aca="false">ROW()</f>
+      <c r="T8" s="3">
+        <f>ROW()</f>
         <v>8</v>
       </c>
-      <c r="U8" s="3" t="n">
-        <f aca="false">ROW()</f>
+      <c r="U8" s="3">
+        <f>ROW()</f>
         <v>8</v>
       </c>
-      <c r="V8" s="3" t="n">
-        <f aca="false">ROW()</f>
+      <c r="V8" s="3">
+        <f>ROW()</f>
         <v>8</v>
       </c>
-      <c r="W8" s="3" t="n">
-        <f aca="false">ROW()</f>
+      <c r="W8" s="3">
+        <f>ROW()</f>
         <v>8</v>
       </c>
-      <c r="X8" s="3" t="n">
-        <f aca="false">ROW()</f>
+      <c r="X8" s="3">
+        <f>ROW()</f>
         <v>8</v>
       </c>
-      <c r="Y8" s="3" t="n">
-        <f aca="false">ROW()</f>
+      <c r="Y8" s="3">
+        <f>ROW()</f>
         <v>8</v>
       </c>
-      <c r="Z8" s="4" t="n">
-        <f aca="false">ROW()</f>
+      <c r="Z8" s="4">
+        <f>ROW()</f>
         <v>8</v>
       </c>
-      <c r="AA8" s="3" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AA8" s="3">
+        <f>ROW()</f>
         <v>8</v>
       </c>
-      <c r="AB8" s="3" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AB8" s="3">
+        <f>ROW()</f>
         <v>8</v>
       </c>
-      <c r="AD8" s="7" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AD8" s="7">
+        <f>ROW()</f>
         <v>8</v>
       </c>
-      <c r="AE8" s="7" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AE8" s="7">
+        <f>ROW()</f>
         <v>8</v>
       </c>
-      <c r="AF8" s="7" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AF8" s="7">
+        <f>ROW()</f>
         <v>8</v>
       </c>
-      <c r="AG8" s="8" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AG8" s="8">
+        <f>ROW()</f>
         <v>8</v>
       </c>
-      <c r="AH8" s="7" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AH8" s="7">
+        <f>ROW()</f>
         <v>8</v>
       </c>
-      <c r="AI8" s="7" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AI8" s="7">
+        <f>ROW()</f>
         <v>8</v>
       </c>
-      <c r="AJ8" s="7" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AJ8" s="7">
+        <f>ROW()</f>
         <v>8</v>
       </c>
-      <c r="AK8" s="7" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AK8" s="7">
+        <f>ROW()</f>
         <v>8</v>
       </c>
-      <c r="AL8" s="7" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AL8" s="7">
+        <f>ROW()</f>
         <v>8</v>
       </c>
-      <c r="AM8" s="8" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AM8" s="8">
+        <f>ROW()</f>
         <v>8</v>
       </c>
-      <c r="AN8" s="7" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AN8" s="7">
+        <f>ROW()</f>
         <v>8</v>
       </c>
-      <c r="AO8" s="7" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AO8" s="7">
+        <f>ROW()</f>
         <v>8</v>
       </c>
-      <c r="AP8" s="7" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AP8" s="7">
+        <f>ROW()</f>
         <v>8</v>
       </c>
-      <c r="AQ8" s="9" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AQ8" s="9">
+        <f>ROW()</f>
         <v>8</v>
       </c>
-      <c r="AR8" s="7" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AR8" s="7">
+        <f>ROW()</f>
         <v>8</v>
       </c>
-      <c r="AS8" s="8" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AS8" s="8">
+        <f>ROW()</f>
         <v>8</v>
       </c>
-      <c r="AT8" s="7" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AT8" s="7">
+        <f>ROW()</f>
         <v>8</v>
       </c>
-      <c r="AU8" s="7" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AU8" s="7">
+        <f>ROW()</f>
         <v>8</v>
       </c>
-      <c r="AV8" s="7" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AV8" s="7">
+        <f>ROW()</f>
         <v>8</v>
       </c>
-      <c r="AW8" s="7" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AW8" s="7">
+        <f>ROW()</f>
         <v>8</v>
       </c>
-      <c r="AX8" s="7" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AX8" s="7">
+        <f>ROW()</f>
         <v>8</v>
       </c>
-      <c r="AY8" s="7" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AY8" s="7">
+        <f>ROW()</f>
         <v>8</v>
       </c>
-      <c r="AZ8" s="7" t="n">
-        <f aca="false">ROW()</f>
+      <c r="AZ8" s="7">
+        <f>ROW()</f>
         <v>8</v>
       </c>
-      <c r="BA8" s="7" t="n">
-        <f aca="false">ROW()</f>
+      <c r="BA8" s="7">
+        <f>ROW()</f>
         <v>8</v>
       </c>
-      <c r="BB8" s="7" t="n">
-        <f aca="false">ROW()</f>
+      <c r="BB8" s="7">
+        <f>ROW()</f>
         <v>8</v>
       </c>
-      <c r="BC8" s="8" t="n">
-        <f aca="false">ROW()</f>
+      <c r="BC8" s="8">
+        <f>ROW()</f>
         <v>8</v>
       </c>
-      <c r="BD8" s="7" t="n">
-        <f aca="false">ROW()</f>
+      <c r="BD8" s="7">
+        <f>ROW()</f>
         <v>8</v>
       </c>
-      <c r="BE8" s="9" t="n">
-        <f aca="false">ROW()</f>
+      <c r="BE8" s="9">
+        <f>ROW()</f>
         <v>8</v>
       </c>
-      <c r="BF8" s="7" t="n">
-        <f aca="false">ROW()</f>
+      <c r="BF8" s="7">
+        <f>ROW()</f>
         <v>8</v>
       </c>
-      <c r="BG8" s="7" t="n">
-        <f aca="false">ROW()</f>
+      <c r="BG8" s="7">
+        <f>ROW()</f>
         <v>8</v>
       </c>
-      <c r="BH8" s="7" t="n">
-        <f aca="false">ROW()</f>
+      <c r="BH8" s="7">
+        <f>ROW()</f>
         <v>8</v>
       </c>
-      <c r="BI8" s="7" t="n">
-        <f aca="false">ROW()</f>
+      <c r="BI8" s="7">
+        <f>ROW()</f>
         <v>8</v>
       </c>
-      <c r="BJ8" s="7" t="n">
-        <f aca="false">ROW()</f>
+      <c r="BJ8" s="7">
+        <f>ROW()</f>
         <v>8</v>
       </c>
-      <c r="BK8" s="7" t="n">
-        <f aca="false">ROW()</f>
+      <c r="BK8" s="7">
+        <f>ROW()</f>
         <v>8</v>
       </c>
-      <c r="BL8" s="7" t="n">
-        <f aca="false">ROW()</f>
+      <c r="BL8" s="7">
+        <f>ROW()</f>
         <v>8</v>
       </c>
-      <c r="BM8" s="7" t="n">
-        <f aca="false">ROW()</f>
+      <c r="BM8" s="7">
+        <f>ROW()</f>
         <v>8</v>
       </c>
-      <c r="BN8" s="7" t="n">
-        <f aca="false">ROW()</f>
+      <c r="BN8" s="7">
+        <f>ROW()</f>
         <v>8</v>
       </c>
-      <c r="BO8" s="7" t="n">
-        <f aca="false">ROW()</f>
+      <c r="BO8" s="7">
+        <f>ROW()</f>
         <v>8</v>
       </c>
-      <c r="BP8" s="7" t="n">
-        <f aca="false">ROW()</f>
+      <c r="BP8" s="7">
+        <f>ROW()</f>
         <v>8</v>
       </c>
-      <c r="BQ8" s="7" t="n">
-        <f aca="false">ROW()</f>
+      <c r="BQ8" s="7">
+        <f>ROW()</f>
         <v>8</v>
       </c>
-      <c r="BR8" s="7" t="n">
-        <f aca="false">ROW()</f>
+      <c r="BR8" s="7">
+        <f>ROW()</f>
         <v>8</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="B9" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="C9" s="11" t="n">
+    <row r="9" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
+        <v>1</v>
+      </c>
+      <c r="B9" s="11">
+        <v>2</v>
+      </c>
+      <c r="C9" s="11">
         <v>3</v>
       </c>
-      <c r="D9" s="11" t="n">
+      <c r="D9" s="11">
         <v>4</v>
       </c>
-      <c r="E9" s="11" t="n">
+      <c r="E9" s="11">
         <v>5</v>
       </c>
-      <c r="F9" s="11" t="n">
+      <c r="F9" s="11">
         <v>6</v>
       </c>
-      <c r="G9" s="12" t="n">
+      <c r="G9" s="12">
         <v>7</v>
       </c>
-      <c r="H9" s="11" t="n">
+      <c r="H9" s="11">
         <v>6</v>
       </c>
-      <c r="I9" s="11" t="n">
+      <c r="I9" s="11">
         <v>5</v>
       </c>
-      <c r="J9" s="11" t="n">
+      <c r="J9" s="11">
         <v>4</v>
       </c>
-      <c r="K9" s="11" t="n">
+      <c r="K9" s="11">
         <v>3</v>
       </c>
-      <c r="L9" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="M9" s="11" t="n">
+      <c r="L9" s="11">
+        <v>2</v>
+      </c>
+      <c r="M9" s="11">
         <v>1</v>
       </c>
       <c r="N9" s="6"/>
       <c r="O9" s="6"/>
-      <c r="P9" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="R9" s="14" t="n">
+      <c r="P9" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="13">
+        <v>2</v>
+      </c>
+      <c r="R9" s="14">
         <v>8</v>
       </c>
-      <c r="S9" s="13" t="n">
+      <c r="S9" s="13">
         <v>4</v>
       </c>
-      <c r="T9" s="14" t="n">
+      <c r="T9" s="14">
         <v>9</v>
       </c>
-      <c r="U9" s="14" t="n">
+      <c r="U9" s="14">
         <v>7</v>
       </c>
-      <c r="V9" s="14" t="n">
+      <c r="V9" s="14">
         <v>7</v>
       </c>
-      <c r="W9" s="14" t="n">
+      <c r="W9" s="14">
         <v>7</v>
       </c>
-      <c r="X9" s="14" t="n">
+      <c r="X9" s="14">
         <v>9</v>
       </c>
-      <c r="Y9" s="13" t="n">
+      <c r="Y9" s="13">
         <v>4</v>
       </c>
-      <c r="Z9" s="14" t="n">
+      <c r="Z9" s="14">
         <v>8</v>
       </c>
-      <c r="AA9" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="AB9" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD9" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE9" s="12" t="n">
+      <c r="AA9" s="13">
+        <v>2</v>
+      </c>
+      <c r="AB9" s="13">
+        <v>1</v>
+      </c>
+      <c r="AD9" s="11">
+        <v>1</v>
+      </c>
+      <c r="AE9" s="12">
         <v>10</v>
       </c>
-      <c r="AF9" s="12" t="n">
+      <c r="AF9" s="12">
         <v>11</v>
       </c>
-      <c r="AG9" s="12" t="n">
+      <c r="AG9" s="12">
         <v>12</v>
       </c>
-      <c r="AH9" s="12" t="n">
+      <c r="AH9" s="12">
         <v>13</v>
       </c>
-      <c r="AI9" s="12" t="n">
+      <c r="AI9" s="12">
         <v>14</v>
       </c>
-      <c r="AJ9" s="12" t="n">
+      <c r="AJ9" s="12">
         <v>14</v>
       </c>
-      <c r="AK9" s="12" t="n">
+      <c r="AK9" s="12">
         <v>14</v>
       </c>
-      <c r="AL9" s="12" t="n">
+      <c r="AL9" s="12">
         <v>13</v>
       </c>
-      <c r="AM9" s="12" t="n">
+      <c r="AM9" s="12">
         <v>12</v>
       </c>
-      <c r="AN9" s="12" t="n">
+      <c r="AN9" s="12">
         <v>11</v>
       </c>
-      <c r="AO9" s="12" t="n">
+      <c r="AO9" s="12">
         <v>10</v>
       </c>
-      <c r="AP9" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR9" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS9" s="12" t="n">
+      <c r="AP9" s="11">
+        <v>1</v>
+      </c>
+      <c r="AR9" s="11">
+        <v>1</v>
+      </c>
+      <c r="AS9" s="12">
         <v>15</v>
       </c>
-      <c r="AT9" s="12" t="n">
+      <c r="AT9" s="12">
         <v>11</v>
       </c>
-      <c r="AU9" s="12" t="n">
+      <c r="AU9" s="12">
         <v>13</v>
       </c>
-      <c r="AV9" s="12" t="n">
+      <c r="AV9" s="12">
         <v>13</v>
       </c>
-      <c r="AW9" s="12" t="n">
+      <c r="AW9" s="12">
         <v>14</v>
       </c>
-      <c r="AX9" s="12" t="n">
+      <c r="AX9" s="12">
         <v>14</v>
       </c>
-      <c r="AY9" s="12" t="n">
+      <c r="AY9" s="12">
         <v>14</v>
       </c>
-      <c r="AZ9" s="12" t="n">
+      <c r="AZ9" s="12">
         <v>13</v>
       </c>
-      <c r="BA9" s="12" t="n">
+      <c r="BA9" s="12">
         <v>13</v>
       </c>
-      <c r="BB9" s="12" t="n">
+      <c r="BB9" s="12">
         <v>11</v>
       </c>
-      <c r="BC9" s="12" t="n">
+      <c r="BC9" s="12">
         <v>15</v>
       </c>
-      <c r="BD9" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF9" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG9" s="12" t="n">
+      <c r="BD9" s="11">
+        <v>1</v>
+      </c>
+      <c r="BF9" s="11">
+        <v>1</v>
+      </c>
+      <c r="BG9" s="12">
         <v>18</v>
       </c>
-      <c r="BH9" s="12" t="n">
+      <c r="BH9" s="12">
         <v>16</v>
       </c>
-      <c r="BI9" s="12" t="n">
+      <c r="BI9" s="12">
         <v>16</v>
       </c>
-      <c r="BJ9" s="12" t="n">
+      <c r="BJ9" s="12">
         <v>17</v>
       </c>
-      <c r="BK9" s="12" t="n">
+      <c r="BK9" s="12">
         <v>16</v>
       </c>
-      <c r="BL9" s="12" t="n">
+      <c r="BL9" s="12">
         <v>16</v>
       </c>
-      <c r="BM9" s="12" t="n">
+      <c r="BM9" s="12">
         <v>17</v>
       </c>
-      <c r="BN9" s="12" t="n">
+      <c r="BN9" s="12">
         <v>16</v>
       </c>
-      <c r="BO9" s="12" t="n">
+      <c r="BO9" s="12">
         <v>16</v>
       </c>
-      <c r="BP9" s="12" t="n">
+      <c r="BP9" s="12">
         <v>16</v>
       </c>
-      <c r="BQ9" s="12" t="n">
+      <c r="BQ9" s="12">
         <v>18</v>
       </c>
-      <c r="BR9" s="11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="BR9" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -2888,393 +3128,385 @@
       <c r="O10" s="6"/>
       <c r="AD10" s="6"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="E11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B12" s="14" t="n">
-        <f aca="false">COUNTIF($9:$9,A12)</f>
+    <row r="12" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" s="14">
+        <f t="shared" ref="B12:B29" si="0">COUNTIF($9:$9,A12)</f>
         <v>10</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12">
         <v>0.5</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="D12">
         <v>0.5</v>
       </c>
-      <c r="E12" s="0" t="n">
-        <f aca="false">(C12+D12)*B12-D12</f>
+      <c r="E12">
+        <f t="shared" ref="E12:E29" si="1">(C12+D12)*B12-D12</f>
         <v>9.5</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B13" s="14" t="n">
-        <f aca="false">COUNTIF($9:$9,A13)</f>
+    <row r="13" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13" s="14">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13">
         <v>0.5</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="D13">
         <v>0.5</v>
       </c>
-      <c r="E13" s="0" t="n">
-        <f aca="false">(C13+D13)*B13-D13</f>
+      <c r="E13">
+        <f t="shared" si="1"/>
         <v>3.5</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+    <row r="14" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>3</v>
       </c>
-      <c r="B14" s="14" t="n">
-        <f aca="false">COUNTIF($9:$9,A14)</f>
-        <v>2</v>
-      </c>
-      <c r="C14" s="0" t="n">
+      <c r="B14" s="14">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C14">
         <v>0.5</v>
       </c>
-      <c r="D14" s="0" t="n">
+      <c r="D14">
         <v>0.5</v>
       </c>
-      <c r="E14" s="0" t="n">
-        <f aca="false">(C14+D14)*B14-D14</f>
+      <c r="E14">
+        <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+    <row r="15" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>4</v>
       </c>
-      <c r="B15" s="14" t="n">
-        <f aca="false">COUNTIF($9:$9,A15)</f>
+      <c r="B15" s="14">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="C15">
         <v>0.5</v>
       </c>
-      <c r="D15" s="0" t="n">
+      <c r="D15">
         <v>0.5</v>
       </c>
-      <c r="E15" s="0" t="n">
-        <f aca="false">(C15+D15)*B15-D15</f>
+      <c r="E15">
+        <f t="shared" si="1"/>
         <v>3.5</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+    <row r="16" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>5</v>
       </c>
-      <c r="B16" s="14" t="n">
-        <f aca="false">COUNTIF($9:$9,A16)</f>
-        <v>2</v>
-      </c>
-      <c r="C16" s="0" t="n">
+      <c r="B16" s="14">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C16">
         <v>0.5</v>
       </c>
-      <c r="D16" s="0" t="n">
+      <c r="D16">
         <v>0.5</v>
       </c>
-      <c r="E16" s="0" t="n">
-        <f aca="false">(C16+D16)*B16-D16</f>
+      <c r="E16">
+        <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>6</v>
       </c>
-      <c r="B17" s="14" t="n">
-        <f aca="false">COUNTIF($9:$9,A17)</f>
-        <v>2</v>
-      </c>
-      <c r="C17" s="0" t="n">
+      <c r="B17" s="14">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C17">
         <v>0.5</v>
       </c>
-      <c r="D17" s="0" t="n">
+      <c r="D17">
         <v>0.5</v>
       </c>
-      <c r="E17" s="0" t="n">
-        <f aca="false">(C17+D17)*B17-D17</f>
+      <c r="E17">
+        <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>7</v>
       </c>
-      <c r="B18" s="14" t="n">
-        <f aca="false">COUNTIF($9:$9,A18)</f>
+      <c r="B18" s="14">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="C18">
         <v>0.5</v>
       </c>
-      <c r="D18" s="0" t="n">
+      <c r="D18">
         <v>0.5</v>
       </c>
-      <c r="E18" s="0" t="n">
-        <f aca="false">(C18+D18)*B18-D18</f>
+      <c r="E18">
+        <f t="shared" si="1"/>
         <v>3.5</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>8</v>
       </c>
-      <c r="B19" s="14" t="n">
-        <f aca="false">COUNTIF($9:$9,A19)</f>
-        <v>2</v>
-      </c>
-      <c r="C19" s="0" t="n">
+      <c r="B19" s="14">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C19">
         <v>0.5</v>
       </c>
-      <c r="D19" s="0" t="n">
+      <c r="D19">
         <v>0.5</v>
       </c>
-      <c r="E19" s="0" t="n">
-        <f aca="false">(C19+D19)*B19-D19</f>
+      <c r="E19">
+        <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>9</v>
       </c>
-      <c r="B20" s="14" t="n">
-        <f aca="false">COUNTIF($9:$9,A20)</f>
-        <v>2</v>
-      </c>
-      <c r="C20" s="0" t="n">
+      <c r="B20" s="14">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C20">
         <v>0.5</v>
       </c>
-      <c r="D20" s="0" t="n">
+      <c r="D20">
         <v>0.5</v>
       </c>
-      <c r="E20" s="0" t="n">
-        <f aca="false">(C20+D20)*B20-D20</f>
+      <c r="E20">
+        <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>10</v>
       </c>
-      <c r="B21" s="14" t="n">
-        <f aca="false">COUNTIF($9:$9,A21)</f>
-        <v>2</v>
-      </c>
-      <c r="C21" s="0" t="n">
+      <c r="B21" s="14">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C21">
         <v>0.5</v>
       </c>
-      <c r="D21" s="0" t="n">
+      <c r="D21">
         <v>0.5</v>
       </c>
-      <c r="E21" s="0" t="n">
-        <f aca="false">(C21+D21)*B21-D21</f>
+      <c r="E21">
+        <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>11</v>
       </c>
-      <c r="B22" s="14" t="n">
-        <f aca="false">COUNTIF($9:$9,A22)</f>
+      <c r="B22" s="14">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C22" s="0" t="n">
+      <c r="C22">
         <v>0.5</v>
       </c>
-      <c r="D22" s="0" t="n">
+      <c r="D22">
         <v>0.5</v>
       </c>
-      <c r="E22" s="0" t="n">
-        <f aca="false">(C22+D22)*B22-D22</f>
+      <c r="E22">
+        <f t="shared" si="1"/>
         <v>3.5</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>12</v>
       </c>
-      <c r="B23" s="14" t="n">
-        <f aca="false">COUNTIF($9:$9,A23)</f>
-        <v>2</v>
-      </c>
-      <c r="C23" s="0" t="n">
+      <c r="B23" s="14">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C23">
         <v>0.5</v>
       </c>
-      <c r="D23" s="0" t="n">
+      <c r="D23">
         <v>0.5</v>
       </c>
-      <c r="E23" s="0" t="n">
-        <f aca="false">(C23+D23)*B23-D23</f>
+      <c r="E23">
+        <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="n">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>13</v>
       </c>
-      <c r="B24" s="14" t="n">
-        <f aca="false">COUNTIF($9:$9,A24)</f>
+      <c r="B24" s="14">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C24" s="0" t="n">
+      <c r="C24">
         <v>0.5</v>
       </c>
-      <c r="D24" s="0" t="n">
+      <c r="D24">
         <v>0.5</v>
       </c>
-      <c r="E24" s="0" t="n">
-        <f aca="false">(C24+D24)*B24-D24</f>
+      <c r="E24">
+        <f t="shared" si="1"/>
         <v>5.5</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="n">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
         <v>14</v>
       </c>
-      <c r="B25" s="14" t="n">
-        <f aca="false">COUNTIF($9:$9,A25)</f>
+      <c r="B25" s="14">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C25" s="0" t="n">
+      <c r="C25">
         <v>0.5</v>
       </c>
-      <c r="D25" s="0" t="n">
+      <c r="D25">
         <v>0.5</v>
       </c>
-      <c r="E25" s="0" t="n">
-        <f aca="false">(C25+D25)*B25-D25</f>
+      <c r="E25">
+        <f t="shared" si="1"/>
         <v>5.5</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="n">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
         <v>15</v>
       </c>
-      <c r="B26" s="14" t="n">
-        <f aca="false">COUNTIF($9:$9,A26)</f>
-        <v>2</v>
-      </c>
-      <c r="C26" s="0" t="n">
+      <c r="B26" s="14">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C26">
         <v>0.5</v>
       </c>
-      <c r="D26" s="0" t="n">
+      <c r="D26">
         <v>0.5</v>
       </c>
-      <c r="E26" s="0" t="n">
-        <f aca="false">(C26+D26)*B26-D26</f>
+      <c r="E26">
+        <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="n">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
         <v>16</v>
       </c>
-      <c r="B27" s="14" t="n">
-        <f aca="false">COUNTIF($9:$9,A27)</f>
+      <c r="B27" s="14">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C27" s="0" t="n">
+      <c r="C27">
         <v>0.5</v>
       </c>
-      <c r="D27" s="0" t="n">
+      <c r="D27">
         <v>0.5</v>
       </c>
-      <c r="E27" s="0" t="n">
-        <f aca="false">(C27+D27)*B27-D27</f>
+      <c r="E27">
+        <f t="shared" si="1"/>
         <v>6.5</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="n">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
         <v>17</v>
       </c>
-      <c r="B28" s="14" t="n">
-        <f aca="false">COUNTIF($9:$9,A28)</f>
-        <v>2</v>
-      </c>
-      <c r="C28" s="0" t="n">
+      <c r="B28" s="14">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C28">
         <v>0.5</v>
       </c>
-      <c r="D28" s="0" t="n">
+      <c r="D28">
         <v>0.5</v>
       </c>
-      <c r="E28" s="0" t="n">
-        <f aca="false">(C28+D28)*B28-D28</f>
+      <c r="E28">
+        <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="n">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
         <v>18</v>
       </c>
-      <c r="B29" s="14" t="n">
-        <f aca="false">COUNTIF($9:$9,A29)</f>
-        <v>2</v>
-      </c>
-      <c r="C29" s="0" t="n">
+      <c r="B29" s="14">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C29">
         <v>0.5</v>
       </c>
-      <c r="D29" s="0" t="n">
+      <c r="D29">
         <v>0.5</v>
       </c>
-      <c r="E29" s="0" t="n">
-        <f aca="false">(C29+D29)*B29-D29</f>
+      <c r="E29">
+        <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="AS:AS A1"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCellId="1" sqref="AS1:AS1048576 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="1" style="0" width="5.71"/>
+    <col min="1" max="16" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15"/>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -3292,7 +3524,7 @@
       <c r="O1" s="15"/>
       <c r="P1" s="15"/>
     </row>
-    <row r="2" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15"/>
       <c r="B2" s="16"/>
       <c r="C2" s="15"/>
@@ -3310,7 +3542,7 @@
       <c r="O2" s="15"/>
       <c r="P2" s="15"/>
     </row>
-    <row r="3" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15"/>
       <c r="B3" s="16"/>
       <c r="C3" s="15"/>
@@ -3328,7 +3560,7 @@
       <c r="O3" s="15"/>
       <c r="P3" s="15"/>
     </row>
-    <row r="4" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
@@ -3346,7 +3578,7 @@
       <c r="O4" s="15"/>
       <c r="P4" s="15"/>
     </row>
-    <row r="5" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
@@ -3364,7 +3596,7 @@
       <c r="O5" s="15"/>
       <c r="P5" s="15"/>
     </row>
-    <row r="6" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15"/>
       <c r="B6" s="15"/>
       <c r="C6" s="16"/>
@@ -3382,7 +3614,7 @@
       <c r="O6" s="15"/>
       <c r="P6" s="15"/>
     </row>
-    <row r="7" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
@@ -3400,7 +3632,7 @@
       <c r="O7" s="15"/>
       <c r="P7" s="15"/>
     </row>
-    <row r="8" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15"/>
       <c r="B8" s="15"/>
       <c r="C8" s="16"/>
@@ -3418,7 +3650,7 @@
       <c r="O8" s="15"/>
       <c r="P8" s="15"/>
     </row>
-    <row r="9" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15"/>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
@@ -3436,7 +3668,7 @@
       <c r="O9" s="15"/>
       <c r="P9" s="15"/>
     </row>
-    <row r="10" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15"/>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
@@ -3454,7 +3686,7 @@
       <c r="O10" s="15"/>
       <c r="P10" s="15"/>
     </row>
-    <row r="11" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15"/>
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
@@ -3472,7 +3704,7 @@
       <c r="O11" s="15"/>
       <c r="P11" s="15"/>
     </row>
-    <row r="12" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15"/>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
@@ -3490,7 +3722,7 @@
       <c r="O12" s="15"/>
       <c r="P12" s="15"/>
     </row>
-    <row r="13" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15"/>
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
@@ -3508,7 +3740,7 @@
       <c r="O13" s="15"/>
       <c r="P13" s="15"/>
     </row>
-    <row r="14" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15"/>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
@@ -3526,7 +3758,7 @@
       <c r="O14" s="15"/>
       <c r="P14" s="15"/>
     </row>
-    <row r="15" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15"/>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
@@ -3544,7 +3776,7 @@
       <c r="O15" s="15"/>
       <c r="P15" s="15"/>
     </row>
-    <row r="16" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15"/>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
@@ -3563,33 +3795,25 @@
       <c r="P16" s="15"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="AS:AS A1"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCellId="1" sqref="AS1:AS1048576 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="1" style="0" width="5.71"/>
+    <col min="1" max="16" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15"/>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -3607,7 +3831,7 @@
       <c r="O1" s="15"/>
       <c r="P1" s="15"/>
     </row>
-    <row r="2" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15"/>
       <c r="B2" s="15"/>
       <c r="C2" s="16"/>
@@ -3625,7 +3849,7 @@
       <c r="O2" s="15"/>
       <c r="P2" s="15"/>
     </row>
-    <row r="3" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -3643,7 +3867,7 @@
       <c r="O3" s="15"/>
       <c r="P3" s="15"/>
     </row>
-    <row r="4" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
@@ -3661,7 +3885,7 @@
       <c r="O4" s="15"/>
       <c r="P4" s="15"/>
     </row>
-    <row r="5" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
@@ -3679,7 +3903,7 @@
       <c r="O5" s="15"/>
       <c r="P5" s="15"/>
     </row>
-    <row r="6" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15"/>
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
@@ -3697,7 +3921,7 @@
       <c r="O6" s="15"/>
       <c r="P6" s="15"/>
     </row>
-    <row r="7" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
       <c r="C7" s="16"/>
@@ -3715,7 +3939,7 @@
       <c r="O7" s="15"/>
       <c r="P7" s="15"/>
     </row>
-    <row r="8" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15"/>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
@@ -3733,7 +3957,7 @@
       <c r="O8" s="15"/>
       <c r="P8" s="15"/>
     </row>
-    <row r="9" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15"/>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
@@ -3751,7 +3975,7 @@
       <c r="O9" s="15"/>
       <c r="P9" s="15"/>
     </row>
-    <row r="10" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15"/>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
@@ -3769,7 +3993,7 @@
       <c r="O10" s="15"/>
       <c r="P10" s="15"/>
     </row>
-    <row r="11" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15"/>
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
@@ -3787,7 +4011,7 @@
       <c r="O11" s="15"/>
       <c r="P11" s="15"/>
     </row>
-    <row r="12" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15"/>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
@@ -3805,7 +4029,7 @@
       <c r="O12" s="15"/>
       <c r="P12" s="15"/>
     </row>
-    <row r="13" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15"/>
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
@@ -3823,7 +4047,7 @@
       <c r="O13" s="15"/>
       <c r="P13" s="15"/>
     </row>
-    <row r="14" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15"/>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
@@ -3841,7 +4065,7 @@
       <c r="O14" s="15"/>
       <c r="P14" s="15"/>
     </row>
-    <row r="15" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15"/>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
@@ -3859,7 +4083,7 @@
       <c r="O15" s="15"/>
       <c r="P15" s="15"/>
     </row>
-    <row r="16" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15"/>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
@@ -3878,33 +4102,25 @@
       <c r="P16" s="15"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="AS:AS A1"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCellId="1" sqref="AS1:AS1048576 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="1" style="0" width="5.71"/>
+    <col min="1" max="16" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15"/>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -3922,7 +4138,7 @@
       <c r="O1" s="15"/>
       <c r="P1" s="15"/>
     </row>
-    <row r="2" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15"/>
       <c r="B2" s="15"/>
       <c r="C2" s="16"/>
@@ -3940,7 +4156,7 @@
       <c r="O2" s="15"/>
       <c r="P2" s="15"/>
     </row>
-    <row r="3" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -3958,7 +4174,7 @@
       <c r="O3" s="15"/>
       <c r="P3" s="15"/>
     </row>
-    <row r="4" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
@@ -3976,7 +4192,7 @@
       <c r="O4" s="15"/>
       <c r="P4" s="15"/>
     </row>
-    <row r="5" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
@@ -3994,7 +4210,7 @@
       <c r="O5" s="15"/>
       <c r="P5" s="15"/>
     </row>
-    <row r="6" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15"/>
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
@@ -4012,7 +4228,7 @@
       <c r="O6" s="15"/>
       <c r="P6" s="15"/>
     </row>
-    <row r="7" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
       <c r="C7" s="16"/>
@@ -4030,7 +4246,7 @@
       <c r="O7" s="15"/>
       <c r="P7" s="15"/>
     </row>
-    <row r="8" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="15"/>
@@ -4048,7 +4264,7 @@
       <c r="O8" s="15"/>
       <c r="P8" s="15"/>
     </row>
-    <row r="9" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15"/>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
@@ -4066,7 +4282,7 @@
       <c r="O9" s="15"/>
       <c r="P9" s="15"/>
     </row>
-    <row r="10" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15"/>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
@@ -4084,7 +4300,7 @@
       <c r="O10" s="15"/>
       <c r="P10" s="15"/>
     </row>
-    <row r="11" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15"/>
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
@@ -4102,7 +4318,7 @@
       <c r="O11" s="15"/>
       <c r="P11" s="15"/>
     </row>
-    <row r="12" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15"/>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
@@ -4120,7 +4336,7 @@
       <c r="O12" s="15"/>
       <c r="P12" s="15"/>
     </row>
-    <row r="13" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15"/>
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
@@ -4138,7 +4354,7 @@
       <c r="O13" s="15"/>
       <c r="P13" s="15"/>
     </row>
-    <row r="14" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15"/>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
@@ -4156,7 +4372,7 @@
       <c r="O14" s="15"/>
       <c r="P14" s="15"/>
     </row>
-    <row r="15" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15"/>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
@@ -4174,7 +4390,7 @@
       <c r="O15" s="15"/>
       <c r="P15" s="15"/>
     </row>
-    <row r="16" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15"/>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
@@ -4193,33 +4409,25 @@
       <c r="P16" s="15"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="AS:AS A1"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCellId="1" sqref="AS1:AS1048576 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="1" style="0" width="5.71"/>
+    <col min="1" max="10" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15"/>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -4231,7 +4439,7 @@
       <c r="I1" s="15"/>
       <c r="J1" s="15"/>
     </row>
-    <row r="2" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -4243,7 +4451,7 @@
       <c r="I2" s="15"/>
       <c r="J2" s="15"/>
     </row>
-    <row r="3" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15"/>
       <c r="B3" s="15"/>
       <c r="C3" s="15"/>
@@ -4255,7 +4463,7 @@
       <c r="I3" s="15"/>
       <c r="J3" s="15"/>
     </row>
-    <row r="4" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15"/>
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
@@ -4267,7 +4475,7 @@
       <c r="I4" s="16"/>
       <c r="J4" s="15"/>
     </row>
-    <row r="5" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="15"/>
@@ -4279,7 +4487,7 @@
       <c r="I5" s="15"/>
       <c r="J5" s="15"/>
     </row>
-    <row r="6" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15"/>
       <c r="B6" s="15"/>
       <c r="C6" s="16"/>
@@ -4291,7 +4499,7 @@
       <c r="I6" s="15"/>
       <c r="J6" s="15"/>
     </row>
-    <row r="7" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
@@ -4303,7 +4511,7 @@
       <c r="I7" s="15"/>
       <c r="J7" s="15"/>
     </row>
-    <row r="8" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15"/>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
@@ -4315,40 +4523,32 @@
       <c r="I8" s="15"/>
       <c r="J8" s="15"/>
     </row>
-    <row r="9" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="9" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AMJ24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P9" activeCellId="1" sqref="AS:AS P9"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="P9" activeCellId="1" sqref="AS1:AS1048576 P9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.71484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" s="16" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="2" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="3" s="16" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="4" s="18" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="5" s="18" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="6" s="18" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="7" s="18" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="8" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="9" s="15" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:1024" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:1024" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:1024" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:1024" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:1024" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:1024" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:1024" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:1024" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:1024" s="15" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D9" s="16"/>
       <c r="J9" s="16"/>
       <c r="Q9" s="16"/>
@@ -4469,200 +4669,200 @@
       <c r="AEH9" s="16"/>
       <c r="AEI9" s="16"/>
       <c r="AEJ9" s="16"/>
-      <c r="AFA9" s="0"/>
-      <c r="AFB9" s="0"/>
-      <c r="AFC9" s="0"/>
-      <c r="AFD9" s="0"/>
-      <c r="AFE9" s="0"/>
-      <c r="AFF9" s="0"/>
-      <c r="AFG9" s="0"/>
-      <c r="AFH9" s="0"/>
-      <c r="AFI9" s="0"/>
-      <c r="AFJ9" s="0"/>
-      <c r="AFK9" s="0"/>
-      <c r="AFL9" s="0"/>
-      <c r="AFM9" s="0"/>
-      <c r="AFN9" s="0"/>
-      <c r="AFO9" s="0"/>
-      <c r="AFP9" s="0"/>
-      <c r="AFQ9" s="0"/>
-      <c r="AFR9" s="0"/>
-      <c r="AFS9" s="0"/>
-      <c r="AFT9" s="0"/>
-      <c r="AFU9" s="0"/>
-      <c r="AFV9" s="0"/>
-      <c r="AFW9" s="0"/>
-      <c r="AFX9" s="0"/>
-      <c r="AFY9" s="0"/>
-      <c r="AFZ9" s="0"/>
-      <c r="AGA9" s="0"/>
-      <c r="AGB9" s="0"/>
-      <c r="AGC9" s="0"/>
-      <c r="AGD9" s="0"/>
-      <c r="AGE9" s="0"/>
-      <c r="AGF9" s="0"/>
-      <c r="AGG9" s="0"/>
-      <c r="AGH9" s="0"/>
-      <c r="AGI9" s="0"/>
-      <c r="AGJ9" s="0"/>
-      <c r="AGK9" s="0"/>
-      <c r="AGL9" s="0"/>
-      <c r="AGM9" s="0"/>
-      <c r="AGN9" s="0"/>
-      <c r="AGO9" s="0"/>
-      <c r="AGP9" s="0"/>
-      <c r="AGQ9" s="0"/>
-      <c r="AGR9" s="0"/>
-      <c r="AGS9" s="0"/>
-      <c r="AGT9" s="0"/>
-      <c r="AGU9" s="0"/>
-      <c r="AGV9" s="0"/>
-      <c r="AGW9" s="0"/>
-      <c r="AGX9" s="0"/>
-      <c r="AGY9" s="0"/>
-      <c r="AGZ9" s="0"/>
-      <c r="AHA9" s="0"/>
-      <c r="AHB9" s="0"/>
-      <c r="AHC9" s="0"/>
-      <c r="AHD9" s="0"/>
-      <c r="AHE9" s="0"/>
-      <c r="AHF9" s="0"/>
-      <c r="AHG9" s="0"/>
-      <c r="AHH9" s="0"/>
-      <c r="AHI9" s="0"/>
-      <c r="AHJ9" s="0"/>
-      <c r="AHK9" s="0"/>
-      <c r="AHL9" s="0"/>
-      <c r="AHM9" s="0"/>
-      <c r="AHN9" s="0"/>
-      <c r="AHO9" s="0"/>
-      <c r="AHP9" s="0"/>
-      <c r="AHQ9" s="0"/>
-      <c r="AHR9" s="0"/>
-      <c r="AHS9" s="0"/>
-      <c r="AHT9" s="0"/>
-      <c r="AHU9" s="0"/>
-      <c r="AHV9" s="0"/>
-      <c r="AHW9" s="0"/>
-      <c r="AHX9" s="0"/>
-      <c r="AHY9" s="0"/>
-      <c r="AHZ9" s="0"/>
-      <c r="AIA9" s="0"/>
-      <c r="AIB9" s="0"/>
-      <c r="AIC9" s="0"/>
-      <c r="AID9" s="0"/>
-      <c r="AIE9" s="0"/>
-      <c r="AIF9" s="0"/>
-      <c r="AIG9" s="0"/>
-      <c r="AIH9" s="0"/>
-      <c r="AII9" s="0"/>
-      <c r="AIJ9" s="0"/>
-      <c r="AIK9" s="0"/>
-      <c r="AIL9" s="0"/>
-      <c r="AIM9" s="0"/>
-      <c r="AIN9" s="0"/>
-      <c r="AIO9" s="0"/>
-      <c r="AIP9" s="0"/>
-      <c r="AIQ9" s="0"/>
-      <c r="AIR9" s="0"/>
-      <c r="AIS9" s="0"/>
-      <c r="AIT9" s="0"/>
-      <c r="AIU9" s="0"/>
-      <c r="AIV9" s="0"/>
-      <c r="AIW9" s="0"/>
-      <c r="AIX9" s="0"/>
-      <c r="AIY9" s="0"/>
-      <c r="AIZ9" s="0"/>
-      <c r="AJA9" s="0"/>
-      <c r="AJB9" s="0"/>
-      <c r="AJC9" s="0"/>
-      <c r="AJD9" s="0"/>
-      <c r="AJE9" s="0"/>
-      <c r="AJF9" s="0"/>
-      <c r="AJG9" s="0"/>
-      <c r="AJH9" s="0"/>
-      <c r="AJI9" s="0"/>
-      <c r="AJJ9" s="0"/>
-      <c r="AJK9" s="0"/>
-      <c r="AJL9" s="0"/>
-      <c r="AJM9" s="0"/>
-      <c r="AJN9" s="0"/>
-      <c r="AJO9" s="0"/>
-      <c r="AJP9" s="0"/>
-      <c r="AJQ9" s="0"/>
-      <c r="AJR9" s="0"/>
-      <c r="AJS9" s="0"/>
-      <c r="AJT9" s="0"/>
-      <c r="AJU9" s="0"/>
-      <c r="AJV9" s="0"/>
-      <c r="AJW9" s="0"/>
-      <c r="AJX9" s="0"/>
-      <c r="AJY9" s="0"/>
-      <c r="AJZ9" s="0"/>
-      <c r="AKA9" s="0"/>
-      <c r="AKB9" s="0"/>
-      <c r="AKC9" s="0"/>
-      <c r="AKD9" s="0"/>
-      <c r="AKE9" s="0"/>
-      <c r="AKF9" s="0"/>
-      <c r="AKG9" s="0"/>
-      <c r="AKH9" s="0"/>
-      <c r="AKI9" s="0"/>
-      <c r="AKJ9" s="0"/>
-      <c r="AKK9" s="0"/>
-      <c r="AKL9" s="0"/>
-      <c r="AKM9" s="0"/>
-      <c r="AKN9" s="0"/>
-      <c r="AKO9" s="0"/>
-      <c r="AKP9" s="0"/>
-      <c r="AKQ9" s="0"/>
-      <c r="AKR9" s="0"/>
-      <c r="AKS9" s="0"/>
-      <c r="AKT9" s="0"/>
-      <c r="AKU9" s="0"/>
-      <c r="AKV9" s="0"/>
-      <c r="AKW9" s="0"/>
-      <c r="AKX9" s="0"/>
-      <c r="AKY9" s="0"/>
-      <c r="AKZ9" s="0"/>
-      <c r="ALA9" s="0"/>
-      <c r="ALB9" s="0"/>
-      <c r="ALC9" s="0"/>
-      <c r="ALD9" s="0"/>
-      <c r="ALE9" s="0"/>
-      <c r="ALF9" s="0"/>
-      <c r="ALG9" s="0"/>
-      <c r="ALH9" s="0"/>
-      <c r="ALI9" s="0"/>
-      <c r="ALJ9" s="0"/>
-      <c r="ALK9" s="0"/>
-      <c r="ALL9" s="0"/>
-      <c r="ALM9" s="0"/>
-      <c r="ALN9" s="0"/>
-      <c r="ALO9" s="0"/>
-      <c r="ALP9" s="0"/>
-      <c r="ALQ9" s="0"/>
-      <c r="ALR9" s="0"/>
-      <c r="ALS9" s="0"/>
-      <c r="ALT9" s="0"/>
-      <c r="ALU9" s="0"/>
-      <c r="ALV9" s="0"/>
-      <c r="ALW9" s="0"/>
-      <c r="ALX9" s="0"/>
-      <c r="ALY9" s="0"/>
-      <c r="ALZ9" s="0"/>
-      <c r="AMA9" s="0"/>
-      <c r="AMB9" s="0"/>
-      <c r="AMC9" s="0"/>
-      <c r="AMD9" s="0"/>
-      <c r="AME9" s="0"/>
-      <c r="AMF9" s="0"/>
-      <c r="AMG9" s="0"/>
-      <c r="AMH9" s="0"/>
-      <c r="AMI9" s="0"/>
-      <c r="AMJ9" s="0"/>
-    </row>
-    <row r="10" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AFA9"/>
+      <c r="AFB9"/>
+      <c r="AFC9"/>
+      <c r="AFD9"/>
+      <c r="AFE9"/>
+      <c r="AFF9"/>
+      <c r="AFG9"/>
+      <c r="AFH9"/>
+      <c r="AFI9"/>
+      <c r="AFJ9"/>
+      <c r="AFK9"/>
+      <c r="AFL9"/>
+      <c r="AFM9"/>
+      <c r="AFN9"/>
+      <c r="AFO9"/>
+      <c r="AFP9"/>
+      <c r="AFQ9"/>
+      <c r="AFR9"/>
+      <c r="AFS9"/>
+      <c r="AFT9"/>
+      <c r="AFU9"/>
+      <c r="AFV9"/>
+      <c r="AFW9"/>
+      <c r="AFX9"/>
+      <c r="AFY9"/>
+      <c r="AFZ9"/>
+      <c r="AGA9"/>
+      <c r="AGB9"/>
+      <c r="AGC9"/>
+      <c r="AGD9"/>
+      <c r="AGE9"/>
+      <c r="AGF9"/>
+      <c r="AGG9"/>
+      <c r="AGH9"/>
+      <c r="AGI9"/>
+      <c r="AGJ9"/>
+      <c r="AGK9"/>
+      <c r="AGL9"/>
+      <c r="AGM9"/>
+      <c r="AGN9"/>
+      <c r="AGO9"/>
+      <c r="AGP9"/>
+      <c r="AGQ9"/>
+      <c r="AGR9"/>
+      <c r="AGS9"/>
+      <c r="AGT9"/>
+      <c r="AGU9"/>
+      <c r="AGV9"/>
+      <c r="AGW9"/>
+      <c r="AGX9"/>
+      <c r="AGY9"/>
+      <c r="AGZ9"/>
+      <c r="AHA9"/>
+      <c r="AHB9"/>
+      <c r="AHC9"/>
+      <c r="AHD9"/>
+      <c r="AHE9"/>
+      <c r="AHF9"/>
+      <c r="AHG9"/>
+      <c r="AHH9"/>
+      <c r="AHI9"/>
+      <c r="AHJ9"/>
+      <c r="AHK9"/>
+      <c r="AHL9"/>
+      <c r="AHM9"/>
+      <c r="AHN9"/>
+      <c r="AHO9"/>
+      <c r="AHP9"/>
+      <c r="AHQ9"/>
+      <c r="AHR9"/>
+      <c r="AHS9"/>
+      <c r="AHT9"/>
+      <c r="AHU9"/>
+      <c r="AHV9"/>
+      <c r="AHW9"/>
+      <c r="AHX9"/>
+      <c r="AHY9"/>
+      <c r="AHZ9"/>
+      <c r="AIA9"/>
+      <c r="AIB9"/>
+      <c r="AIC9"/>
+      <c r="AID9"/>
+      <c r="AIE9"/>
+      <c r="AIF9"/>
+      <c r="AIG9"/>
+      <c r="AIH9"/>
+      <c r="AII9"/>
+      <c r="AIJ9"/>
+      <c r="AIK9"/>
+      <c r="AIL9"/>
+      <c r="AIM9"/>
+      <c r="AIN9"/>
+      <c r="AIO9"/>
+      <c r="AIP9"/>
+      <c r="AIQ9"/>
+      <c r="AIR9"/>
+      <c r="AIS9"/>
+      <c r="AIT9"/>
+      <c r="AIU9"/>
+      <c r="AIV9"/>
+      <c r="AIW9"/>
+      <c r="AIX9"/>
+      <c r="AIY9"/>
+      <c r="AIZ9"/>
+      <c r="AJA9"/>
+      <c r="AJB9"/>
+      <c r="AJC9"/>
+      <c r="AJD9"/>
+      <c r="AJE9"/>
+      <c r="AJF9"/>
+      <c r="AJG9"/>
+      <c r="AJH9"/>
+      <c r="AJI9"/>
+      <c r="AJJ9"/>
+      <c r="AJK9"/>
+      <c r="AJL9"/>
+      <c r="AJM9"/>
+      <c r="AJN9"/>
+      <c r="AJO9"/>
+      <c r="AJP9"/>
+      <c r="AJQ9"/>
+      <c r="AJR9"/>
+      <c r="AJS9"/>
+      <c r="AJT9"/>
+      <c r="AJU9"/>
+      <c r="AJV9"/>
+      <c r="AJW9"/>
+      <c r="AJX9"/>
+      <c r="AJY9"/>
+      <c r="AJZ9"/>
+      <c r="AKA9"/>
+      <c r="AKB9"/>
+      <c r="AKC9"/>
+      <c r="AKD9"/>
+      <c r="AKE9"/>
+      <c r="AKF9"/>
+      <c r="AKG9"/>
+      <c r="AKH9"/>
+      <c r="AKI9"/>
+      <c r="AKJ9"/>
+      <c r="AKK9"/>
+      <c r="AKL9"/>
+      <c r="AKM9"/>
+      <c r="AKN9"/>
+      <c r="AKO9"/>
+      <c r="AKP9"/>
+      <c r="AKQ9"/>
+      <c r="AKR9"/>
+      <c r="AKS9"/>
+      <c r="AKT9"/>
+      <c r="AKU9"/>
+      <c r="AKV9"/>
+      <c r="AKW9"/>
+      <c r="AKX9"/>
+      <c r="AKY9"/>
+      <c r="AKZ9"/>
+      <c r="ALA9"/>
+      <c r="ALB9"/>
+      <c r="ALC9"/>
+      <c r="ALD9"/>
+      <c r="ALE9"/>
+      <c r="ALF9"/>
+      <c r="ALG9"/>
+      <c r="ALH9"/>
+      <c r="ALI9"/>
+      <c r="ALJ9"/>
+      <c r="ALK9"/>
+      <c r="ALL9"/>
+      <c r="ALM9"/>
+      <c r="ALN9"/>
+      <c r="ALO9"/>
+      <c r="ALP9"/>
+      <c r="ALQ9"/>
+      <c r="ALR9"/>
+      <c r="ALS9"/>
+      <c r="ALT9"/>
+      <c r="ALU9"/>
+      <c r="ALV9"/>
+      <c r="ALW9"/>
+      <c r="ALX9"/>
+      <c r="ALY9"/>
+      <c r="ALZ9"/>
+      <c r="AMA9"/>
+      <c r="AMB9"/>
+      <c r="AMC9"/>
+      <c r="AMD9"/>
+      <c r="AME9"/>
+      <c r="AMF9"/>
+      <c r="AMG9"/>
+      <c r="AMH9"/>
+      <c r="AMI9"/>
+      <c r="AMJ9"/>
+    </row>
+    <row r="10" spans="1:1024" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E10" s="16"/>
       <c r="I10" s="16"/>
       <c r="O10" s="16"/>
@@ -4831,200 +5031,200 @@
       <c r="AEI10" s="16"/>
       <c r="AEJ10" s="16"/>
       <c r="AEK10" s="16"/>
-      <c r="AFA10" s="0"/>
-      <c r="AFB10" s="0"/>
-      <c r="AFC10" s="0"/>
-      <c r="AFD10" s="0"/>
-      <c r="AFE10" s="0"/>
-      <c r="AFF10" s="0"/>
-      <c r="AFG10" s="0"/>
-      <c r="AFH10" s="0"/>
-      <c r="AFI10" s="0"/>
-      <c r="AFJ10" s="0"/>
-      <c r="AFK10" s="0"/>
-      <c r="AFL10" s="0"/>
-      <c r="AFM10" s="0"/>
-      <c r="AFN10" s="0"/>
-      <c r="AFO10" s="0"/>
-      <c r="AFP10" s="0"/>
-      <c r="AFQ10" s="0"/>
-      <c r="AFR10" s="0"/>
-      <c r="AFS10" s="0"/>
-      <c r="AFT10" s="0"/>
-      <c r="AFU10" s="0"/>
-      <c r="AFV10" s="0"/>
-      <c r="AFW10" s="0"/>
-      <c r="AFX10" s="0"/>
-      <c r="AFY10" s="0"/>
-      <c r="AFZ10" s="0"/>
-      <c r="AGA10" s="0"/>
-      <c r="AGB10" s="0"/>
-      <c r="AGC10" s="0"/>
-      <c r="AGD10" s="0"/>
-      <c r="AGE10" s="0"/>
-      <c r="AGF10" s="0"/>
-      <c r="AGG10" s="0"/>
-      <c r="AGH10" s="0"/>
-      <c r="AGI10" s="0"/>
-      <c r="AGJ10" s="0"/>
-      <c r="AGK10" s="0"/>
-      <c r="AGL10" s="0"/>
-      <c r="AGM10" s="0"/>
-      <c r="AGN10" s="0"/>
-      <c r="AGO10" s="0"/>
-      <c r="AGP10" s="0"/>
-      <c r="AGQ10" s="0"/>
-      <c r="AGR10" s="0"/>
-      <c r="AGS10" s="0"/>
-      <c r="AGT10" s="0"/>
-      <c r="AGU10" s="0"/>
-      <c r="AGV10" s="0"/>
-      <c r="AGW10" s="0"/>
-      <c r="AGX10" s="0"/>
-      <c r="AGY10" s="0"/>
-      <c r="AGZ10" s="0"/>
-      <c r="AHA10" s="0"/>
-      <c r="AHB10" s="0"/>
-      <c r="AHC10" s="0"/>
-      <c r="AHD10" s="0"/>
-      <c r="AHE10" s="0"/>
-      <c r="AHF10" s="0"/>
-      <c r="AHG10" s="0"/>
-      <c r="AHH10" s="0"/>
-      <c r="AHI10" s="0"/>
-      <c r="AHJ10" s="0"/>
-      <c r="AHK10" s="0"/>
-      <c r="AHL10" s="0"/>
-      <c r="AHM10" s="0"/>
-      <c r="AHN10" s="0"/>
-      <c r="AHO10" s="0"/>
-      <c r="AHP10" s="0"/>
-      <c r="AHQ10" s="0"/>
-      <c r="AHR10" s="0"/>
-      <c r="AHS10" s="0"/>
-      <c r="AHT10" s="0"/>
-      <c r="AHU10" s="0"/>
-      <c r="AHV10" s="0"/>
-      <c r="AHW10" s="0"/>
-      <c r="AHX10" s="0"/>
-      <c r="AHY10" s="0"/>
-      <c r="AHZ10" s="0"/>
-      <c r="AIA10" s="0"/>
-      <c r="AIB10" s="0"/>
-      <c r="AIC10" s="0"/>
-      <c r="AID10" s="0"/>
-      <c r="AIE10" s="0"/>
-      <c r="AIF10" s="0"/>
-      <c r="AIG10" s="0"/>
-      <c r="AIH10" s="0"/>
-      <c r="AII10" s="0"/>
-      <c r="AIJ10" s="0"/>
-      <c r="AIK10" s="0"/>
-      <c r="AIL10" s="0"/>
-      <c r="AIM10" s="0"/>
-      <c r="AIN10" s="0"/>
-      <c r="AIO10" s="0"/>
-      <c r="AIP10" s="0"/>
-      <c r="AIQ10" s="0"/>
-      <c r="AIR10" s="0"/>
-      <c r="AIS10" s="0"/>
-      <c r="AIT10" s="0"/>
-      <c r="AIU10" s="0"/>
-      <c r="AIV10" s="0"/>
-      <c r="AIW10" s="0"/>
-      <c r="AIX10" s="0"/>
-      <c r="AIY10" s="0"/>
-      <c r="AIZ10" s="0"/>
-      <c r="AJA10" s="0"/>
-      <c r="AJB10" s="0"/>
-      <c r="AJC10" s="0"/>
-      <c r="AJD10" s="0"/>
-      <c r="AJE10" s="0"/>
-      <c r="AJF10" s="0"/>
-      <c r="AJG10" s="0"/>
-      <c r="AJH10" s="0"/>
-      <c r="AJI10" s="0"/>
-      <c r="AJJ10" s="0"/>
-      <c r="AJK10" s="0"/>
-      <c r="AJL10" s="0"/>
-      <c r="AJM10" s="0"/>
-      <c r="AJN10" s="0"/>
-      <c r="AJO10" s="0"/>
-      <c r="AJP10" s="0"/>
-      <c r="AJQ10" s="0"/>
-      <c r="AJR10" s="0"/>
-      <c r="AJS10" s="0"/>
-      <c r="AJT10" s="0"/>
-      <c r="AJU10" s="0"/>
-      <c r="AJV10" s="0"/>
-      <c r="AJW10" s="0"/>
-      <c r="AJX10" s="0"/>
-      <c r="AJY10" s="0"/>
-      <c r="AJZ10" s="0"/>
-      <c r="AKA10" s="0"/>
-      <c r="AKB10" s="0"/>
-      <c r="AKC10" s="0"/>
-      <c r="AKD10" s="0"/>
-      <c r="AKE10" s="0"/>
-      <c r="AKF10" s="0"/>
-      <c r="AKG10" s="0"/>
-      <c r="AKH10" s="0"/>
-      <c r="AKI10" s="0"/>
-      <c r="AKJ10" s="0"/>
-      <c r="AKK10" s="0"/>
-      <c r="AKL10" s="0"/>
-      <c r="AKM10" s="0"/>
-      <c r="AKN10" s="0"/>
-      <c r="AKO10" s="0"/>
-      <c r="AKP10" s="0"/>
-      <c r="AKQ10" s="0"/>
-      <c r="AKR10" s="0"/>
-      <c r="AKS10" s="0"/>
-      <c r="AKT10" s="0"/>
-      <c r="AKU10" s="0"/>
-      <c r="AKV10" s="0"/>
-      <c r="AKW10" s="0"/>
-      <c r="AKX10" s="0"/>
-      <c r="AKY10" s="0"/>
-      <c r="AKZ10" s="0"/>
-      <c r="ALA10" s="0"/>
-      <c r="ALB10" s="0"/>
-      <c r="ALC10" s="0"/>
-      <c r="ALD10" s="0"/>
-      <c r="ALE10" s="0"/>
-      <c r="ALF10" s="0"/>
-      <c r="ALG10" s="0"/>
-      <c r="ALH10" s="0"/>
-      <c r="ALI10" s="0"/>
-      <c r="ALJ10" s="0"/>
-      <c r="ALK10" s="0"/>
-      <c r="ALL10" s="0"/>
-      <c r="ALM10" s="0"/>
-      <c r="ALN10" s="0"/>
-      <c r="ALO10" s="0"/>
-      <c r="ALP10" s="0"/>
-      <c r="ALQ10" s="0"/>
-      <c r="ALR10" s="0"/>
-      <c r="ALS10" s="0"/>
-      <c r="ALT10" s="0"/>
-      <c r="ALU10" s="0"/>
-      <c r="ALV10" s="0"/>
-      <c r="ALW10" s="0"/>
-      <c r="ALX10" s="0"/>
-      <c r="ALY10" s="0"/>
-      <c r="ALZ10" s="0"/>
-      <c r="AMA10" s="0"/>
-      <c r="AMB10" s="0"/>
-      <c r="AMC10" s="0"/>
-      <c r="AMD10" s="0"/>
-      <c r="AME10" s="0"/>
-      <c r="AMF10" s="0"/>
-      <c r="AMG10" s="0"/>
-      <c r="AMH10" s="0"/>
-      <c r="AMI10" s="0"/>
-      <c r="AMJ10" s="0"/>
-    </row>
-    <row r="11" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AFA10"/>
+      <c r="AFB10"/>
+      <c r="AFC10"/>
+      <c r="AFD10"/>
+      <c r="AFE10"/>
+      <c r="AFF10"/>
+      <c r="AFG10"/>
+      <c r="AFH10"/>
+      <c r="AFI10"/>
+      <c r="AFJ10"/>
+      <c r="AFK10"/>
+      <c r="AFL10"/>
+      <c r="AFM10"/>
+      <c r="AFN10"/>
+      <c r="AFO10"/>
+      <c r="AFP10"/>
+      <c r="AFQ10"/>
+      <c r="AFR10"/>
+      <c r="AFS10"/>
+      <c r="AFT10"/>
+      <c r="AFU10"/>
+      <c r="AFV10"/>
+      <c r="AFW10"/>
+      <c r="AFX10"/>
+      <c r="AFY10"/>
+      <c r="AFZ10"/>
+      <c r="AGA10"/>
+      <c r="AGB10"/>
+      <c r="AGC10"/>
+      <c r="AGD10"/>
+      <c r="AGE10"/>
+      <c r="AGF10"/>
+      <c r="AGG10"/>
+      <c r="AGH10"/>
+      <c r="AGI10"/>
+      <c r="AGJ10"/>
+      <c r="AGK10"/>
+      <c r="AGL10"/>
+      <c r="AGM10"/>
+      <c r="AGN10"/>
+      <c r="AGO10"/>
+      <c r="AGP10"/>
+      <c r="AGQ10"/>
+      <c r="AGR10"/>
+      <c r="AGS10"/>
+      <c r="AGT10"/>
+      <c r="AGU10"/>
+      <c r="AGV10"/>
+      <c r="AGW10"/>
+      <c r="AGX10"/>
+      <c r="AGY10"/>
+      <c r="AGZ10"/>
+      <c r="AHA10"/>
+      <c r="AHB10"/>
+      <c r="AHC10"/>
+      <c r="AHD10"/>
+      <c r="AHE10"/>
+      <c r="AHF10"/>
+      <c r="AHG10"/>
+      <c r="AHH10"/>
+      <c r="AHI10"/>
+      <c r="AHJ10"/>
+      <c r="AHK10"/>
+      <c r="AHL10"/>
+      <c r="AHM10"/>
+      <c r="AHN10"/>
+      <c r="AHO10"/>
+      <c r="AHP10"/>
+      <c r="AHQ10"/>
+      <c r="AHR10"/>
+      <c r="AHS10"/>
+      <c r="AHT10"/>
+      <c r="AHU10"/>
+      <c r="AHV10"/>
+      <c r="AHW10"/>
+      <c r="AHX10"/>
+      <c r="AHY10"/>
+      <c r="AHZ10"/>
+      <c r="AIA10"/>
+      <c r="AIB10"/>
+      <c r="AIC10"/>
+      <c r="AID10"/>
+      <c r="AIE10"/>
+      <c r="AIF10"/>
+      <c r="AIG10"/>
+      <c r="AIH10"/>
+      <c r="AII10"/>
+      <c r="AIJ10"/>
+      <c r="AIK10"/>
+      <c r="AIL10"/>
+      <c r="AIM10"/>
+      <c r="AIN10"/>
+      <c r="AIO10"/>
+      <c r="AIP10"/>
+      <c r="AIQ10"/>
+      <c r="AIR10"/>
+      <c r="AIS10"/>
+      <c r="AIT10"/>
+      <c r="AIU10"/>
+      <c r="AIV10"/>
+      <c r="AIW10"/>
+      <c r="AIX10"/>
+      <c r="AIY10"/>
+      <c r="AIZ10"/>
+      <c r="AJA10"/>
+      <c r="AJB10"/>
+      <c r="AJC10"/>
+      <c r="AJD10"/>
+      <c r="AJE10"/>
+      <c r="AJF10"/>
+      <c r="AJG10"/>
+      <c r="AJH10"/>
+      <c r="AJI10"/>
+      <c r="AJJ10"/>
+      <c r="AJK10"/>
+      <c r="AJL10"/>
+      <c r="AJM10"/>
+      <c r="AJN10"/>
+      <c r="AJO10"/>
+      <c r="AJP10"/>
+      <c r="AJQ10"/>
+      <c r="AJR10"/>
+      <c r="AJS10"/>
+      <c r="AJT10"/>
+      <c r="AJU10"/>
+      <c r="AJV10"/>
+      <c r="AJW10"/>
+      <c r="AJX10"/>
+      <c r="AJY10"/>
+      <c r="AJZ10"/>
+      <c r="AKA10"/>
+      <c r="AKB10"/>
+      <c r="AKC10"/>
+      <c r="AKD10"/>
+      <c r="AKE10"/>
+      <c r="AKF10"/>
+      <c r="AKG10"/>
+      <c r="AKH10"/>
+      <c r="AKI10"/>
+      <c r="AKJ10"/>
+      <c r="AKK10"/>
+      <c r="AKL10"/>
+      <c r="AKM10"/>
+      <c r="AKN10"/>
+      <c r="AKO10"/>
+      <c r="AKP10"/>
+      <c r="AKQ10"/>
+      <c r="AKR10"/>
+      <c r="AKS10"/>
+      <c r="AKT10"/>
+      <c r="AKU10"/>
+      <c r="AKV10"/>
+      <c r="AKW10"/>
+      <c r="AKX10"/>
+      <c r="AKY10"/>
+      <c r="AKZ10"/>
+      <c r="ALA10"/>
+      <c r="ALB10"/>
+      <c r="ALC10"/>
+      <c r="ALD10"/>
+      <c r="ALE10"/>
+      <c r="ALF10"/>
+      <c r="ALG10"/>
+      <c r="ALH10"/>
+      <c r="ALI10"/>
+      <c r="ALJ10"/>
+      <c r="ALK10"/>
+      <c r="ALL10"/>
+      <c r="ALM10"/>
+      <c r="ALN10"/>
+      <c r="ALO10"/>
+      <c r="ALP10"/>
+      <c r="ALQ10"/>
+      <c r="ALR10"/>
+      <c r="ALS10"/>
+      <c r="ALT10"/>
+      <c r="ALU10"/>
+      <c r="ALV10"/>
+      <c r="ALW10"/>
+      <c r="ALX10"/>
+      <c r="ALY10"/>
+      <c r="ALZ10"/>
+      <c r="AMA10"/>
+      <c r="AMB10"/>
+      <c r="AMC10"/>
+      <c r="AMD10"/>
+      <c r="AME10"/>
+      <c r="AMF10"/>
+      <c r="AMG10"/>
+      <c r="AMH10"/>
+      <c r="AMI10"/>
+      <c r="AMJ10"/>
+    </row>
+    <row r="11" spans="1:1024" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D11" s="16"/>
       <c r="E11" s="16"/>
       <c r="F11" s="16"/>
@@ -5393,200 +5593,200 @@
       <c r="AEK11" s="16"/>
       <c r="AEL11" s="16"/>
       <c r="AEU11" s="16"/>
-      <c r="AFA11" s="0"/>
-      <c r="AFB11" s="0"/>
-      <c r="AFC11" s="0"/>
-      <c r="AFD11" s="0"/>
-      <c r="AFE11" s="0"/>
-      <c r="AFF11" s="0"/>
-      <c r="AFG11" s="0"/>
-      <c r="AFH11" s="0"/>
-      <c r="AFI11" s="0"/>
-      <c r="AFJ11" s="0"/>
-      <c r="AFK11" s="0"/>
-      <c r="AFL11" s="0"/>
-      <c r="AFM11" s="0"/>
-      <c r="AFN11" s="0"/>
-      <c r="AFO11" s="0"/>
-      <c r="AFP11" s="0"/>
-      <c r="AFQ11" s="0"/>
-      <c r="AFR11" s="0"/>
-      <c r="AFS11" s="0"/>
-      <c r="AFT11" s="0"/>
-      <c r="AFU11" s="0"/>
-      <c r="AFV11" s="0"/>
-      <c r="AFW11" s="0"/>
-      <c r="AFX11" s="0"/>
-      <c r="AFY11" s="0"/>
-      <c r="AFZ11" s="0"/>
-      <c r="AGA11" s="0"/>
-      <c r="AGB11" s="0"/>
-      <c r="AGC11" s="0"/>
-      <c r="AGD11" s="0"/>
-      <c r="AGE11" s="0"/>
-      <c r="AGF11" s="0"/>
-      <c r="AGG11" s="0"/>
-      <c r="AGH11" s="0"/>
-      <c r="AGI11" s="0"/>
-      <c r="AGJ11" s="0"/>
-      <c r="AGK11" s="0"/>
-      <c r="AGL11" s="0"/>
-      <c r="AGM11" s="0"/>
-      <c r="AGN11" s="0"/>
-      <c r="AGO11" s="0"/>
-      <c r="AGP11" s="0"/>
-      <c r="AGQ11" s="0"/>
-      <c r="AGR11" s="0"/>
-      <c r="AGS11" s="0"/>
-      <c r="AGT11" s="0"/>
-      <c r="AGU11" s="0"/>
-      <c r="AGV11" s="0"/>
-      <c r="AGW11" s="0"/>
-      <c r="AGX11" s="0"/>
-      <c r="AGY11" s="0"/>
-      <c r="AGZ11" s="0"/>
-      <c r="AHA11" s="0"/>
-      <c r="AHB11" s="0"/>
-      <c r="AHC11" s="0"/>
-      <c r="AHD11" s="0"/>
-      <c r="AHE11" s="0"/>
-      <c r="AHF11" s="0"/>
-      <c r="AHG11" s="0"/>
-      <c r="AHH11" s="0"/>
-      <c r="AHI11" s="0"/>
-      <c r="AHJ11" s="0"/>
-      <c r="AHK11" s="0"/>
-      <c r="AHL11" s="0"/>
-      <c r="AHM11" s="0"/>
-      <c r="AHN11" s="0"/>
-      <c r="AHO11" s="0"/>
-      <c r="AHP11" s="0"/>
-      <c r="AHQ11" s="0"/>
-      <c r="AHR11" s="0"/>
-      <c r="AHS11" s="0"/>
-      <c r="AHT11" s="0"/>
-      <c r="AHU11" s="0"/>
-      <c r="AHV11" s="0"/>
-      <c r="AHW11" s="0"/>
-      <c r="AHX11" s="0"/>
-      <c r="AHY11" s="0"/>
-      <c r="AHZ11" s="0"/>
-      <c r="AIA11" s="0"/>
-      <c r="AIB11" s="0"/>
-      <c r="AIC11" s="0"/>
-      <c r="AID11" s="0"/>
-      <c r="AIE11" s="0"/>
-      <c r="AIF11" s="0"/>
-      <c r="AIG11" s="0"/>
-      <c r="AIH11" s="0"/>
-      <c r="AII11" s="0"/>
-      <c r="AIJ11" s="0"/>
-      <c r="AIK11" s="0"/>
-      <c r="AIL11" s="0"/>
-      <c r="AIM11" s="0"/>
-      <c r="AIN11" s="0"/>
-      <c r="AIO11" s="0"/>
-      <c r="AIP11" s="0"/>
-      <c r="AIQ11" s="0"/>
-      <c r="AIR11" s="0"/>
-      <c r="AIS11" s="0"/>
-      <c r="AIT11" s="0"/>
-      <c r="AIU11" s="0"/>
-      <c r="AIV11" s="0"/>
-      <c r="AIW11" s="0"/>
-      <c r="AIX11" s="0"/>
-      <c r="AIY11" s="0"/>
-      <c r="AIZ11" s="0"/>
-      <c r="AJA11" s="0"/>
-      <c r="AJB11" s="0"/>
-      <c r="AJC11" s="0"/>
-      <c r="AJD11" s="0"/>
-      <c r="AJE11" s="0"/>
-      <c r="AJF11" s="0"/>
-      <c r="AJG11" s="0"/>
-      <c r="AJH11" s="0"/>
-      <c r="AJI11" s="0"/>
-      <c r="AJJ11" s="0"/>
-      <c r="AJK11" s="0"/>
-      <c r="AJL11" s="0"/>
-      <c r="AJM11" s="0"/>
-      <c r="AJN11" s="0"/>
-      <c r="AJO11" s="0"/>
-      <c r="AJP11" s="0"/>
-      <c r="AJQ11" s="0"/>
-      <c r="AJR11" s="0"/>
-      <c r="AJS11" s="0"/>
-      <c r="AJT11" s="0"/>
-      <c r="AJU11" s="0"/>
-      <c r="AJV11" s="0"/>
-      <c r="AJW11" s="0"/>
-      <c r="AJX11" s="0"/>
-      <c r="AJY11" s="0"/>
-      <c r="AJZ11" s="0"/>
-      <c r="AKA11" s="0"/>
-      <c r="AKB11" s="0"/>
-      <c r="AKC11" s="0"/>
-      <c r="AKD11" s="0"/>
-      <c r="AKE11" s="0"/>
-      <c r="AKF11" s="0"/>
-      <c r="AKG11" s="0"/>
-      <c r="AKH11" s="0"/>
-      <c r="AKI11" s="0"/>
-      <c r="AKJ11" s="0"/>
-      <c r="AKK11" s="0"/>
-      <c r="AKL11" s="0"/>
-      <c r="AKM11" s="0"/>
-      <c r="AKN11" s="0"/>
-      <c r="AKO11" s="0"/>
-      <c r="AKP11" s="0"/>
-      <c r="AKQ11" s="0"/>
-      <c r="AKR11" s="0"/>
-      <c r="AKS11" s="0"/>
-      <c r="AKT11" s="0"/>
-      <c r="AKU11" s="0"/>
-      <c r="AKV11" s="0"/>
-      <c r="AKW11" s="0"/>
-      <c r="AKX11" s="0"/>
-      <c r="AKY11" s="0"/>
-      <c r="AKZ11" s="0"/>
-      <c r="ALA11" s="0"/>
-      <c r="ALB11" s="0"/>
-      <c r="ALC11" s="0"/>
-      <c r="ALD11" s="0"/>
-      <c r="ALE11" s="0"/>
-      <c r="ALF11" s="0"/>
-      <c r="ALG11" s="0"/>
-      <c r="ALH11" s="0"/>
-      <c r="ALI11" s="0"/>
-      <c r="ALJ11" s="0"/>
-      <c r="ALK11" s="0"/>
-      <c r="ALL11" s="0"/>
-      <c r="ALM11" s="0"/>
-      <c r="ALN11" s="0"/>
-      <c r="ALO11" s="0"/>
-      <c r="ALP11" s="0"/>
-      <c r="ALQ11" s="0"/>
-      <c r="ALR11" s="0"/>
-      <c r="ALS11" s="0"/>
-      <c r="ALT11" s="0"/>
-      <c r="ALU11" s="0"/>
-      <c r="ALV11" s="0"/>
-      <c r="ALW11" s="0"/>
-      <c r="ALX11" s="0"/>
-      <c r="ALY11" s="0"/>
-      <c r="ALZ11" s="0"/>
-      <c r="AMA11" s="0"/>
-      <c r="AMB11" s="0"/>
-      <c r="AMC11" s="0"/>
-      <c r="AMD11" s="0"/>
-      <c r="AME11" s="0"/>
-      <c r="AMF11" s="0"/>
-      <c r="AMG11" s="0"/>
-      <c r="AMH11" s="0"/>
-      <c r="AMI11" s="0"/>
-      <c r="AMJ11" s="0"/>
-    </row>
-    <row r="12" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AFA11"/>
+      <c r="AFB11"/>
+      <c r="AFC11"/>
+      <c r="AFD11"/>
+      <c r="AFE11"/>
+      <c r="AFF11"/>
+      <c r="AFG11"/>
+      <c r="AFH11"/>
+      <c r="AFI11"/>
+      <c r="AFJ11"/>
+      <c r="AFK11"/>
+      <c r="AFL11"/>
+      <c r="AFM11"/>
+      <c r="AFN11"/>
+      <c r="AFO11"/>
+      <c r="AFP11"/>
+      <c r="AFQ11"/>
+      <c r="AFR11"/>
+      <c r="AFS11"/>
+      <c r="AFT11"/>
+      <c r="AFU11"/>
+      <c r="AFV11"/>
+      <c r="AFW11"/>
+      <c r="AFX11"/>
+      <c r="AFY11"/>
+      <c r="AFZ11"/>
+      <c r="AGA11"/>
+      <c r="AGB11"/>
+      <c r="AGC11"/>
+      <c r="AGD11"/>
+      <c r="AGE11"/>
+      <c r="AGF11"/>
+      <c r="AGG11"/>
+      <c r="AGH11"/>
+      <c r="AGI11"/>
+      <c r="AGJ11"/>
+      <c r="AGK11"/>
+      <c r="AGL11"/>
+      <c r="AGM11"/>
+      <c r="AGN11"/>
+      <c r="AGO11"/>
+      <c r="AGP11"/>
+      <c r="AGQ11"/>
+      <c r="AGR11"/>
+      <c r="AGS11"/>
+      <c r="AGT11"/>
+      <c r="AGU11"/>
+      <c r="AGV11"/>
+      <c r="AGW11"/>
+      <c r="AGX11"/>
+      <c r="AGY11"/>
+      <c r="AGZ11"/>
+      <c r="AHA11"/>
+      <c r="AHB11"/>
+      <c r="AHC11"/>
+      <c r="AHD11"/>
+      <c r="AHE11"/>
+      <c r="AHF11"/>
+      <c r="AHG11"/>
+      <c r="AHH11"/>
+      <c r="AHI11"/>
+      <c r="AHJ11"/>
+      <c r="AHK11"/>
+      <c r="AHL11"/>
+      <c r="AHM11"/>
+      <c r="AHN11"/>
+      <c r="AHO11"/>
+      <c r="AHP11"/>
+      <c r="AHQ11"/>
+      <c r="AHR11"/>
+      <c r="AHS11"/>
+      <c r="AHT11"/>
+      <c r="AHU11"/>
+      <c r="AHV11"/>
+      <c r="AHW11"/>
+      <c r="AHX11"/>
+      <c r="AHY11"/>
+      <c r="AHZ11"/>
+      <c r="AIA11"/>
+      <c r="AIB11"/>
+      <c r="AIC11"/>
+      <c r="AID11"/>
+      <c r="AIE11"/>
+      <c r="AIF11"/>
+      <c r="AIG11"/>
+      <c r="AIH11"/>
+      <c r="AII11"/>
+      <c r="AIJ11"/>
+      <c r="AIK11"/>
+      <c r="AIL11"/>
+      <c r="AIM11"/>
+      <c r="AIN11"/>
+      <c r="AIO11"/>
+      <c r="AIP11"/>
+      <c r="AIQ11"/>
+      <c r="AIR11"/>
+      <c r="AIS11"/>
+      <c r="AIT11"/>
+      <c r="AIU11"/>
+      <c r="AIV11"/>
+      <c r="AIW11"/>
+      <c r="AIX11"/>
+      <c r="AIY11"/>
+      <c r="AIZ11"/>
+      <c r="AJA11"/>
+      <c r="AJB11"/>
+      <c r="AJC11"/>
+      <c r="AJD11"/>
+      <c r="AJE11"/>
+      <c r="AJF11"/>
+      <c r="AJG11"/>
+      <c r="AJH11"/>
+      <c r="AJI11"/>
+      <c r="AJJ11"/>
+      <c r="AJK11"/>
+      <c r="AJL11"/>
+      <c r="AJM11"/>
+      <c r="AJN11"/>
+      <c r="AJO11"/>
+      <c r="AJP11"/>
+      <c r="AJQ11"/>
+      <c r="AJR11"/>
+      <c r="AJS11"/>
+      <c r="AJT11"/>
+      <c r="AJU11"/>
+      <c r="AJV11"/>
+      <c r="AJW11"/>
+      <c r="AJX11"/>
+      <c r="AJY11"/>
+      <c r="AJZ11"/>
+      <c r="AKA11"/>
+      <c r="AKB11"/>
+      <c r="AKC11"/>
+      <c r="AKD11"/>
+      <c r="AKE11"/>
+      <c r="AKF11"/>
+      <c r="AKG11"/>
+      <c r="AKH11"/>
+      <c r="AKI11"/>
+      <c r="AKJ11"/>
+      <c r="AKK11"/>
+      <c r="AKL11"/>
+      <c r="AKM11"/>
+      <c r="AKN11"/>
+      <c r="AKO11"/>
+      <c r="AKP11"/>
+      <c r="AKQ11"/>
+      <c r="AKR11"/>
+      <c r="AKS11"/>
+      <c r="AKT11"/>
+      <c r="AKU11"/>
+      <c r="AKV11"/>
+      <c r="AKW11"/>
+      <c r="AKX11"/>
+      <c r="AKY11"/>
+      <c r="AKZ11"/>
+      <c r="ALA11"/>
+      <c r="ALB11"/>
+      <c r="ALC11"/>
+      <c r="ALD11"/>
+      <c r="ALE11"/>
+      <c r="ALF11"/>
+      <c r="ALG11"/>
+      <c r="ALH11"/>
+      <c r="ALI11"/>
+      <c r="ALJ11"/>
+      <c r="ALK11"/>
+      <c r="ALL11"/>
+      <c r="ALM11"/>
+      <c r="ALN11"/>
+      <c r="ALO11"/>
+      <c r="ALP11"/>
+      <c r="ALQ11"/>
+      <c r="ALR11"/>
+      <c r="ALS11"/>
+      <c r="ALT11"/>
+      <c r="ALU11"/>
+      <c r="ALV11"/>
+      <c r="ALW11"/>
+      <c r="ALX11"/>
+      <c r="ALY11"/>
+      <c r="ALZ11"/>
+      <c r="AMA11"/>
+      <c r="AMB11"/>
+      <c r="AMC11"/>
+      <c r="AMD11"/>
+      <c r="AME11"/>
+      <c r="AMF11"/>
+      <c r="AMG11"/>
+      <c r="AMH11"/>
+      <c r="AMI11"/>
+      <c r="AMJ11"/>
+    </row>
+    <row r="12" spans="1:1024" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C12" s="16"/>
       <c r="D12" s="16"/>
       <c r="F12" s="16"/>
@@ -5995,200 +6195,200 @@
       <c r="AET12" s="16"/>
       <c r="AEV12" s="16"/>
       <c r="AEX12" s="16"/>
-      <c r="AFA12" s="0"/>
-      <c r="AFB12" s="0"/>
-      <c r="AFC12" s="0"/>
-      <c r="AFD12" s="0"/>
-      <c r="AFE12" s="0"/>
-      <c r="AFF12" s="0"/>
-      <c r="AFG12" s="0"/>
-      <c r="AFH12" s="0"/>
-      <c r="AFI12" s="0"/>
-      <c r="AFJ12" s="0"/>
-      <c r="AFK12" s="0"/>
-      <c r="AFL12" s="0"/>
-      <c r="AFM12" s="0"/>
-      <c r="AFN12" s="0"/>
-      <c r="AFO12" s="0"/>
-      <c r="AFP12" s="0"/>
-      <c r="AFQ12" s="0"/>
-      <c r="AFR12" s="0"/>
-      <c r="AFS12" s="0"/>
-      <c r="AFT12" s="0"/>
-      <c r="AFU12" s="0"/>
-      <c r="AFV12" s="0"/>
-      <c r="AFW12" s="0"/>
-      <c r="AFX12" s="0"/>
-      <c r="AFY12" s="0"/>
-      <c r="AFZ12" s="0"/>
-      <c r="AGA12" s="0"/>
-      <c r="AGB12" s="0"/>
-      <c r="AGC12" s="0"/>
-      <c r="AGD12" s="0"/>
-      <c r="AGE12" s="0"/>
-      <c r="AGF12" s="0"/>
-      <c r="AGG12" s="0"/>
-      <c r="AGH12" s="0"/>
-      <c r="AGI12" s="0"/>
-      <c r="AGJ12" s="0"/>
-      <c r="AGK12" s="0"/>
-      <c r="AGL12" s="0"/>
-      <c r="AGM12" s="0"/>
-      <c r="AGN12" s="0"/>
-      <c r="AGO12" s="0"/>
-      <c r="AGP12" s="0"/>
-      <c r="AGQ12" s="0"/>
-      <c r="AGR12" s="0"/>
-      <c r="AGS12" s="0"/>
-      <c r="AGT12" s="0"/>
-      <c r="AGU12" s="0"/>
-      <c r="AGV12" s="0"/>
-      <c r="AGW12" s="0"/>
-      <c r="AGX12" s="0"/>
-      <c r="AGY12" s="0"/>
-      <c r="AGZ12" s="0"/>
-      <c r="AHA12" s="0"/>
-      <c r="AHB12" s="0"/>
-      <c r="AHC12" s="0"/>
-      <c r="AHD12" s="0"/>
-      <c r="AHE12" s="0"/>
-      <c r="AHF12" s="0"/>
-      <c r="AHG12" s="0"/>
-      <c r="AHH12" s="0"/>
-      <c r="AHI12" s="0"/>
-      <c r="AHJ12" s="0"/>
-      <c r="AHK12" s="0"/>
-      <c r="AHL12" s="0"/>
-      <c r="AHM12" s="0"/>
-      <c r="AHN12" s="0"/>
-      <c r="AHO12" s="0"/>
-      <c r="AHP12" s="0"/>
-      <c r="AHQ12" s="0"/>
-      <c r="AHR12" s="0"/>
-      <c r="AHS12" s="0"/>
-      <c r="AHT12" s="0"/>
-      <c r="AHU12" s="0"/>
-      <c r="AHV12" s="0"/>
-      <c r="AHW12" s="0"/>
-      <c r="AHX12" s="0"/>
-      <c r="AHY12" s="0"/>
-      <c r="AHZ12" s="0"/>
-      <c r="AIA12" s="0"/>
-      <c r="AIB12" s="0"/>
-      <c r="AIC12" s="0"/>
-      <c r="AID12" s="0"/>
-      <c r="AIE12" s="0"/>
-      <c r="AIF12" s="0"/>
-      <c r="AIG12" s="0"/>
-      <c r="AIH12" s="0"/>
-      <c r="AII12" s="0"/>
-      <c r="AIJ12" s="0"/>
-      <c r="AIK12" s="0"/>
-      <c r="AIL12" s="0"/>
-      <c r="AIM12" s="0"/>
-      <c r="AIN12" s="0"/>
-      <c r="AIO12" s="0"/>
-      <c r="AIP12" s="0"/>
-      <c r="AIQ12" s="0"/>
-      <c r="AIR12" s="0"/>
-      <c r="AIS12" s="0"/>
-      <c r="AIT12" s="0"/>
-      <c r="AIU12" s="0"/>
-      <c r="AIV12" s="0"/>
-      <c r="AIW12" s="0"/>
-      <c r="AIX12" s="0"/>
-      <c r="AIY12" s="0"/>
-      <c r="AIZ12" s="0"/>
-      <c r="AJA12" s="0"/>
-      <c r="AJB12" s="0"/>
-      <c r="AJC12" s="0"/>
-      <c r="AJD12" s="0"/>
-      <c r="AJE12" s="0"/>
-      <c r="AJF12" s="0"/>
-      <c r="AJG12" s="0"/>
-      <c r="AJH12" s="0"/>
-      <c r="AJI12" s="0"/>
-      <c r="AJJ12" s="0"/>
-      <c r="AJK12" s="0"/>
-      <c r="AJL12" s="0"/>
-      <c r="AJM12" s="0"/>
-      <c r="AJN12" s="0"/>
-      <c r="AJO12" s="0"/>
-      <c r="AJP12" s="0"/>
-      <c r="AJQ12" s="0"/>
-      <c r="AJR12" s="0"/>
-      <c r="AJS12" s="0"/>
-      <c r="AJT12" s="0"/>
-      <c r="AJU12" s="0"/>
-      <c r="AJV12" s="0"/>
-      <c r="AJW12" s="0"/>
-      <c r="AJX12" s="0"/>
-      <c r="AJY12" s="0"/>
-      <c r="AJZ12" s="0"/>
-      <c r="AKA12" s="0"/>
-      <c r="AKB12" s="0"/>
-      <c r="AKC12" s="0"/>
-      <c r="AKD12" s="0"/>
-      <c r="AKE12" s="0"/>
-      <c r="AKF12" s="0"/>
-      <c r="AKG12" s="0"/>
-      <c r="AKH12" s="0"/>
-      <c r="AKI12" s="0"/>
-      <c r="AKJ12" s="0"/>
-      <c r="AKK12" s="0"/>
-      <c r="AKL12" s="0"/>
-      <c r="AKM12" s="0"/>
-      <c r="AKN12" s="0"/>
-      <c r="AKO12" s="0"/>
-      <c r="AKP12" s="0"/>
-      <c r="AKQ12" s="0"/>
-      <c r="AKR12" s="0"/>
-      <c r="AKS12" s="0"/>
-      <c r="AKT12" s="0"/>
-      <c r="AKU12" s="0"/>
-      <c r="AKV12" s="0"/>
-      <c r="AKW12" s="0"/>
-      <c r="AKX12" s="0"/>
-      <c r="AKY12" s="0"/>
-      <c r="AKZ12" s="0"/>
-      <c r="ALA12" s="0"/>
-      <c r="ALB12" s="0"/>
-      <c r="ALC12" s="0"/>
-      <c r="ALD12" s="0"/>
-      <c r="ALE12" s="0"/>
-      <c r="ALF12" s="0"/>
-      <c r="ALG12" s="0"/>
-      <c r="ALH12" s="0"/>
-      <c r="ALI12" s="0"/>
-      <c r="ALJ12" s="0"/>
-      <c r="ALK12" s="0"/>
-      <c r="ALL12" s="0"/>
-      <c r="ALM12" s="0"/>
-      <c r="ALN12" s="0"/>
-      <c r="ALO12" s="0"/>
-      <c r="ALP12" s="0"/>
-      <c r="ALQ12" s="0"/>
-      <c r="ALR12" s="0"/>
-      <c r="ALS12" s="0"/>
-      <c r="ALT12" s="0"/>
-      <c r="ALU12" s="0"/>
-      <c r="ALV12" s="0"/>
-      <c r="ALW12" s="0"/>
-      <c r="ALX12" s="0"/>
-      <c r="ALY12" s="0"/>
-      <c r="ALZ12" s="0"/>
-      <c r="AMA12" s="0"/>
-      <c r="AMB12" s="0"/>
-      <c r="AMC12" s="0"/>
-      <c r="AMD12" s="0"/>
-      <c r="AME12" s="0"/>
-      <c r="AMF12" s="0"/>
-      <c r="AMG12" s="0"/>
-      <c r="AMH12" s="0"/>
-      <c r="AMI12" s="0"/>
-      <c r="AMJ12" s="0"/>
-    </row>
-    <row r="13" s="16" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AFA12"/>
+      <c r="AFB12"/>
+      <c r="AFC12"/>
+      <c r="AFD12"/>
+      <c r="AFE12"/>
+      <c r="AFF12"/>
+      <c r="AFG12"/>
+      <c r="AFH12"/>
+      <c r="AFI12"/>
+      <c r="AFJ12"/>
+      <c r="AFK12"/>
+      <c r="AFL12"/>
+      <c r="AFM12"/>
+      <c r="AFN12"/>
+      <c r="AFO12"/>
+      <c r="AFP12"/>
+      <c r="AFQ12"/>
+      <c r="AFR12"/>
+      <c r="AFS12"/>
+      <c r="AFT12"/>
+      <c r="AFU12"/>
+      <c r="AFV12"/>
+      <c r="AFW12"/>
+      <c r="AFX12"/>
+      <c r="AFY12"/>
+      <c r="AFZ12"/>
+      <c r="AGA12"/>
+      <c r="AGB12"/>
+      <c r="AGC12"/>
+      <c r="AGD12"/>
+      <c r="AGE12"/>
+      <c r="AGF12"/>
+      <c r="AGG12"/>
+      <c r="AGH12"/>
+      <c r="AGI12"/>
+      <c r="AGJ12"/>
+      <c r="AGK12"/>
+      <c r="AGL12"/>
+      <c r="AGM12"/>
+      <c r="AGN12"/>
+      <c r="AGO12"/>
+      <c r="AGP12"/>
+      <c r="AGQ12"/>
+      <c r="AGR12"/>
+      <c r="AGS12"/>
+      <c r="AGT12"/>
+      <c r="AGU12"/>
+      <c r="AGV12"/>
+      <c r="AGW12"/>
+      <c r="AGX12"/>
+      <c r="AGY12"/>
+      <c r="AGZ12"/>
+      <c r="AHA12"/>
+      <c r="AHB12"/>
+      <c r="AHC12"/>
+      <c r="AHD12"/>
+      <c r="AHE12"/>
+      <c r="AHF12"/>
+      <c r="AHG12"/>
+      <c r="AHH12"/>
+      <c r="AHI12"/>
+      <c r="AHJ12"/>
+      <c r="AHK12"/>
+      <c r="AHL12"/>
+      <c r="AHM12"/>
+      <c r="AHN12"/>
+      <c r="AHO12"/>
+      <c r="AHP12"/>
+      <c r="AHQ12"/>
+      <c r="AHR12"/>
+      <c r="AHS12"/>
+      <c r="AHT12"/>
+      <c r="AHU12"/>
+      <c r="AHV12"/>
+      <c r="AHW12"/>
+      <c r="AHX12"/>
+      <c r="AHY12"/>
+      <c r="AHZ12"/>
+      <c r="AIA12"/>
+      <c r="AIB12"/>
+      <c r="AIC12"/>
+      <c r="AID12"/>
+      <c r="AIE12"/>
+      <c r="AIF12"/>
+      <c r="AIG12"/>
+      <c r="AIH12"/>
+      <c r="AII12"/>
+      <c r="AIJ12"/>
+      <c r="AIK12"/>
+      <c r="AIL12"/>
+      <c r="AIM12"/>
+      <c r="AIN12"/>
+      <c r="AIO12"/>
+      <c r="AIP12"/>
+      <c r="AIQ12"/>
+      <c r="AIR12"/>
+      <c r="AIS12"/>
+      <c r="AIT12"/>
+      <c r="AIU12"/>
+      <c r="AIV12"/>
+      <c r="AIW12"/>
+      <c r="AIX12"/>
+      <c r="AIY12"/>
+      <c r="AIZ12"/>
+      <c r="AJA12"/>
+      <c r="AJB12"/>
+      <c r="AJC12"/>
+      <c r="AJD12"/>
+      <c r="AJE12"/>
+      <c r="AJF12"/>
+      <c r="AJG12"/>
+      <c r="AJH12"/>
+      <c r="AJI12"/>
+      <c r="AJJ12"/>
+      <c r="AJK12"/>
+      <c r="AJL12"/>
+      <c r="AJM12"/>
+      <c r="AJN12"/>
+      <c r="AJO12"/>
+      <c r="AJP12"/>
+      <c r="AJQ12"/>
+      <c r="AJR12"/>
+      <c r="AJS12"/>
+      <c r="AJT12"/>
+      <c r="AJU12"/>
+      <c r="AJV12"/>
+      <c r="AJW12"/>
+      <c r="AJX12"/>
+      <c r="AJY12"/>
+      <c r="AJZ12"/>
+      <c r="AKA12"/>
+      <c r="AKB12"/>
+      <c r="AKC12"/>
+      <c r="AKD12"/>
+      <c r="AKE12"/>
+      <c r="AKF12"/>
+      <c r="AKG12"/>
+      <c r="AKH12"/>
+      <c r="AKI12"/>
+      <c r="AKJ12"/>
+      <c r="AKK12"/>
+      <c r="AKL12"/>
+      <c r="AKM12"/>
+      <c r="AKN12"/>
+      <c r="AKO12"/>
+      <c r="AKP12"/>
+      <c r="AKQ12"/>
+      <c r="AKR12"/>
+      <c r="AKS12"/>
+      <c r="AKT12"/>
+      <c r="AKU12"/>
+      <c r="AKV12"/>
+      <c r="AKW12"/>
+      <c r="AKX12"/>
+      <c r="AKY12"/>
+      <c r="AKZ12"/>
+      <c r="ALA12"/>
+      <c r="ALB12"/>
+      <c r="ALC12"/>
+      <c r="ALD12"/>
+      <c r="ALE12"/>
+      <c r="ALF12"/>
+      <c r="ALG12"/>
+      <c r="ALH12"/>
+      <c r="ALI12"/>
+      <c r="ALJ12"/>
+      <c r="ALK12"/>
+      <c r="ALL12"/>
+      <c r="ALM12"/>
+      <c r="ALN12"/>
+      <c r="ALO12"/>
+      <c r="ALP12"/>
+      <c r="ALQ12"/>
+      <c r="ALR12"/>
+      <c r="ALS12"/>
+      <c r="ALT12"/>
+      <c r="ALU12"/>
+      <c r="ALV12"/>
+      <c r="ALW12"/>
+      <c r="ALX12"/>
+      <c r="ALY12"/>
+      <c r="ALZ12"/>
+      <c r="AMA12"/>
+      <c r="AMB12"/>
+      <c r="AMC12"/>
+      <c r="AMD12"/>
+      <c r="AME12"/>
+      <c r="AMF12"/>
+      <c r="AMG12"/>
+      <c r="AMH12"/>
+      <c r="AMI12"/>
+      <c r="AMJ12"/>
+    </row>
+    <row r="13" spans="1:1024" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15"/>
       <c r="M13" s="15"/>
       <c r="N13" s="15"/>
@@ -6509,200 +6709,200 @@
       <c r="AEX13" s="15"/>
       <c r="AEY13" s="17"/>
       <c r="AEZ13" s="15"/>
-      <c r="AFA13" s="0"/>
-      <c r="AFB13" s="0"/>
-      <c r="AFC13" s="0"/>
-      <c r="AFD13" s="0"/>
-      <c r="AFE13" s="0"/>
-      <c r="AFF13" s="0"/>
-      <c r="AFG13" s="0"/>
-      <c r="AFH13" s="0"/>
-      <c r="AFI13" s="0"/>
-      <c r="AFJ13" s="0"/>
-      <c r="AFK13" s="0"/>
-      <c r="AFL13" s="0"/>
-      <c r="AFM13" s="0"/>
-      <c r="AFN13" s="0"/>
-      <c r="AFO13" s="0"/>
-      <c r="AFP13" s="0"/>
-      <c r="AFQ13" s="0"/>
-      <c r="AFR13" s="0"/>
-      <c r="AFS13" s="0"/>
-      <c r="AFT13" s="0"/>
-      <c r="AFU13" s="0"/>
-      <c r="AFV13" s="0"/>
-      <c r="AFW13" s="0"/>
-      <c r="AFX13" s="0"/>
-      <c r="AFY13" s="0"/>
-      <c r="AFZ13" s="0"/>
-      <c r="AGA13" s="0"/>
-      <c r="AGB13" s="0"/>
-      <c r="AGC13" s="0"/>
-      <c r="AGD13" s="0"/>
-      <c r="AGE13" s="0"/>
-      <c r="AGF13" s="0"/>
-      <c r="AGG13" s="0"/>
-      <c r="AGH13" s="0"/>
-      <c r="AGI13" s="0"/>
-      <c r="AGJ13" s="0"/>
-      <c r="AGK13" s="0"/>
-      <c r="AGL13" s="0"/>
-      <c r="AGM13" s="0"/>
-      <c r="AGN13" s="0"/>
-      <c r="AGO13" s="0"/>
-      <c r="AGP13" s="0"/>
-      <c r="AGQ13" s="0"/>
-      <c r="AGR13" s="0"/>
-      <c r="AGS13" s="0"/>
-      <c r="AGT13" s="0"/>
-      <c r="AGU13" s="0"/>
-      <c r="AGV13" s="0"/>
-      <c r="AGW13" s="0"/>
-      <c r="AGX13" s="0"/>
-      <c r="AGY13" s="0"/>
-      <c r="AGZ13" s="0"/>
-      <c r="AHA13" s="0"/>
-      <c r="AHB13" s="0"/>
-      <c r="AHC13" s="0"/>
-      <c r="AHD13" s="0"/>
-      <c r="AHE13" s="0"/>
-      <c r="AHF13" s="0"/>
-      <c r="AHG13" s="0"/>
-      <c r="AHH13" s="0"/>
-      <c r="AHI13" s="0"/>
-      <c r="AHJ13" s="0"/>
-      <c r="AHK13" s="0"/>
-      <c r="AHL13" s="0"/>
-      <c r="AHM13" s="0"/>
-      <c r="AHN13" s="0"/>
-      <c r="AHO13" s="0"/>
-      <c r="AHP13" s="0"/>
-      <c r="AHQ13" s="0"/>
-      <c r="AHR13" s="0"/>
-      <c r="AHS13" s="0"/>
-      <c r="AHT13" s="0"/>
-      <c r="AHU13" s="0"/>
-      <c r="AHV13" s="0"/>
-      <c r="AHW13" s="0"/>
-      <c r="AHX13" s="0"/>
-      <c r="AHY13" s="0"/>
-      <c r="AHZ13" s="0"/>
-      <c r="AIA13" s="0"/>
-      <c r="AIB13" s="0"/>
-      <c r="AIC13" s="0"/>
-      <c r="AID13" s="0"/>
-      <c r="AIE13" s="0"/>
-      <c r="AIF13" s="0"/>
-      <c r="AIG13" s="0"/>
-      <c r="AIH13" s="0"/>
-      <c r="AII13" s="0"/>
-      <c r="AIJ13" s="0"/>
-      <c r="AIK13" s="0"/>
-      <c r="AIL13" s="0"/>
-      <c r="AIM13" s="0"/>
-      <c r="AIN13" s="0"/>
-      <c r="AIO13" s="0"/>
-      <c r="AIP13" s="0"/>
-      <c r="AIQ13" s="0"/>
-      <c r="AIR13" s="0"/>
-      <c r="AIS13" s="0"/>
-      <c r="AIT13" s="0"/>
-      <c r="AIU13" s="0"/>
-      <c r="AIV13" s="0"/>
-      <c r="AIW13" s="0"/>
-      <c r="AIX13" s="0"/>
-      <c r="AIY13" s="0"/>
-      <c r="AIZ13" s="0"/>
-      <c r="AJA13" s="0"/>
-      <c r="AJB13" s="0"/>
-      <c r="AJC13" s="0"/>
-      <c r="AJD13" s="0"/>
-      <c r="AJE13" s="0"/>
-      <c r="AJF13" s="0"/>
-      <c r="AJG13" s="0"/>
-      <c r="AJH13" s="0"/>
-      <c r="AJI13" s="0"/>
-      <c r="AJJ13" s="0"/>
-      <c r="AJK13" s="0"/>
-      <c r="AJL13" s="0"/>
-      <c r="AJM13" s="0"/>
-      <c r="AJN13" s="0"/>
-      <c r="AJO13" s="0"/>
-      <c r="AJP13" s="0"/>
-      <c r="AJQ13" s="0"/>
-      <c r="AJR13" s="0"/>
-      <c r="AJS13" s="0"/>
-      <c r="AJT13" s="0"/>
-      <c r="AJU13" s="0"/>
-      <c r="AJV13" s="0"/>
-      <c r="AJW13" s="0"/>
-      <c r="AJX13" s="0"/>
-      <c r="AJY13" s="0"/>
-      <c r="AJZ13" s="0"/>
-      <c r="AKA13" s="0"/>
-      <c r="AKB13" s="0"/>
-      <c r="AKC13" s="0"/>
-      <c r="AKD13" s="0"/>
-      <c r="AKE13" s="0"/>
-      <c r="AKF13" s="0"/>
-      <c r="AKG13" s="0"/>
-      <c r="AKH13" s="0"/>
-      <c r="AKI13" s="0"/>
-      <c r="AKJ13" s="0"/>
-      <c r="AKK13" s="0"/>
-      <c r="AKL13" s="0"/>
-      <c r="AKM13" s="0"/>
-      <c r="AKN13" s="0"/>
-      <c r="AKO13" s="0"/>
-      <c r="AKP13" s="0"/>
-      <c r="AKQ13" s="0"/>
-      <c r="AKR13" s="0"/>
-      <c r="AKS13" s="0"/>
-      <c r="AKT13" s="0"/>
-      <c r="AKU13" s="0"/>
-      <c r="AKV13" s="0"/>
-      <c r="AKW13" s="0"/>
-      <c r="AKX13" s="0"/>
-      <c r="AKY13" s="0"/>
-      <c r="AKZ13" s="0"/>
-      <c r="ALA13" s="0"/>
-      <c r="ALB13" s="0"/>
-      <c r="ALC13" s="0"/>
-      <c r="ALD13" s="0"/>
-      <c r="ALE13" s="0"/>
-      <c r="ALF13" s="0"/>
-      <c r="ALG13" s="0"/>
-      <c r="ALH13" s="0"/>
-      <c r="ALI13" s="0"/>
-      <c r="ALJ13" s="0"/>
-      <c r="ALK13" s="0"/>
-      <c r="ALL13" s="0"/>
-      <c r="ALM13" s="0"/>
-      <c r="ALN13" s="0"/>
-      <c r="ALO13" s="0"/>
-      <c r="ALP13" s="0"/>
-      <c r="ALQ13" s="0"/>
-      <c r="ALR13" s="0"/>
-      <c r="ALS13" s="0"/>
-      <c r="ALT13" s="0"/>
-      <c r="ALU13" s="0"/>
-      <c r="ALV13" s="0"/>
-      <c r="ALW13" s="0"/>
-      <c r="ALX13" s="0"/>
-      <c r="ALY13" s="0"/>
-      <c r="ALZ13" s="0"/>
-      <c r="AMA13" s="0"/>
-      <c r="AMB13" s="0"/>
-      <c r="AMC13" s="0"/>
-      <c r="AMD13" s="0"/>
-      <c r="AME13" s="0"/>
-      <c r="AMF13" s="0"/>
-      <c r="AMG13" s="0"/>
-      <c r="AMH13" s="0"/>
-      <c r="AMI13" s="0"/>
-      <c r="AMJ13" s="0"/>
-    </row>
-    <row r="14" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AFA13"/>
+      <c r="AFB13"/>
+      <c r="AFC13"/>
+      <c r="AFD13"/>
+      <c r="AFE13"/>
+      <c r="AFF13"/>
+      <c r="AFG13"/>
+      <c r="AFH13"/>
+      <c r="AFI13"/>
+      <c r="AFJ13"/>
+      <c r="AFK13"/>
+      <c r="AFL13"/>
+      <c r="AFM13"/>
+      <c r="AFN13"/>
+      <c r="AFO13"/>
+      <c r="AFP13"/>
+      <c r="AFQ13"/>
+      <c r="AFR13"/>
+      <c r="AFS13"/>
+      <c r="AFT13"/>
+      <c r="AFU13"/>
+      <c r="AFV13"/>
+      <c r="AFW13"/>
+      <c r="AFX13"/>
+      <c r="AFY13"/>
+      <c r="AFZ13"/>
+      <c r="AGA13"/>
+      <c r="AGB13"/>
+      <c r="AGC13"/>
+      <c r="AGD13"/>
+      <c r="AGE13"/>
+      <c r="AGF13"/>
+      <c r="AGG13"/>
+      <c r="AGH13"/>
+      <c r="AGI13"/>
+      <c r="AGJ13"/>
+      <c r="AGK13"/>
+      <c r="AGL13"/>
+      <c r="AGM13"/>
+      <c r="AGN13"/>
+      <c r="AGO13"/>
+      <c r="AGP13"/>
+      <c r="AGQ13"/>
+      <c r="AGR13"/>
+      <c r="AGS13"/>
+      <c r="AGT13"/>
+      <c r="AGU13"/>
+      <c r="AGV13"/>
+      <c r="AGW13"/>
+      <c r="AGX13"/>
+      <c r="AGY13"/>
+      <c r="AGZ13"/>
+      <c r="AHA13"/>
+      <c r="AHB13"/>
+      <c r="AHC13"/>
+      <c r="AHD13"/>
+      <c r="AHE13"/>
+      <c r="AHF13"/>
+      <c r="AHG13"/>
+      <c r="AHH13"/>
+      <c r="AHI13"/>
+      <c r="AHJ13"/>
+      <c r="AHK13"/>
+      <c r="AHL13"/>
+      <c r="AHM13"/>
+      <c r="AHN13"/>
+      <c r="AHO13"/>
+      <c r="AHP13"/>
+      <c r="AHQ13"/>
+      <c r="AHR13"/>
+      <c r="AHS13"/>
+      <c r="AHT13"/>
+      <c r="AHU13"/>
+      <c r="AHV13"/>
+      <c r="AHW13"/>
+      <c r="AHX13"/>
+      <c r="AHY13"/>
+      <c r="AHZ13"/>
+      <c r="AIA13"/>
+      <c r="AIB13"/>
+      <c r="AIC13"/>
+      <c r="AID13"/>
+      <c r="AIE13"/>
+      <c r="AIF13"/>
+      <c r="AIG13"/>
+      <c r="AIH13"/>
+      <c r="AII13"/>
+      <c r="AIJ13"/>
+      <c r="AIK13"/>
+      <c r="AIL13"/>
+      <c r="AIM13"/>
+      <c r="AIN13"/>
+      <c r="AIO13"/>
+      <c r="AIP13"/>
+      <c r="AIQ13"/>
+      <c r="AIR13"/>
+      <c r="AIS13"/>
+      <c r="AIT13"/>
+      <c r="AIU13"/>
+      <c r="AIV13"/>
+      <c r="AIW13"/>
+      <c r="AIX13"/>
+      <c r="AIY13"/>
+      <c r="AIZ13"/>
+      <c r="AJA13"/>
+      <c r="AJB13"/>
+      <c r="AJC13"/>
+      <c r="AJD13"/>
+      <c r="AJE13"/>
+      <c r="AJF13"/>
+      <c r="AJG13"/>
+      <c r="AJH13"/>
+      <c r="AJI13"/>
+      <c r="AJJ13"/>
+      <c r="AJK13"/>
+      <c r="AJL13"/>
+      <c r="AJM13"/>
+      <c r="AJN13"/>
+      <c r="AJO13"/>
+      <c r="AJP13"/>
+      <c r="AJQ13"/>
+      <c r="AJR13"/>
+      <c r="AJS13"/>
+      <c r="AJT13"/>
+      <c r="AJU13"/>
+      <c r="AJV13"/>
+      <c r="AJW13"/>
+      <c r="AJX13"/>
+      <c r="AJY13"/>
+      <c r="AJZ13"/>
+      <c r="AKA13"/>
+      <c r="AKB13"/>
+      <c r="AKC13"/>
+      <c r="AKD13"/>
+      <c r="AKE13"/>
+      <c r="AKF13"/>
+      <c r="AKG13"/>
+      <c r="AKH13"/>
+      <c r="AKI13"/>
+      <c r="AKJ13"/>
+      <c r="AKK13"/>
+      <c r="AKL13"/>
+      <c r="AKM13"/>
+      <c r="AKN13"/>
+      <c r="AKO13"/>
+      <c r="AKP13"/>
+      <c r="AKQ13"/>
+      <c r="AKR13"/>
+      <c r="AKS13"/>
+      <c r="AKT13"/>
+      <c r="AKU13"/>
+      <c r="AKV13"/>
+      <c r="AKW13"/>
+      <c r="AKX13"/>
+      <c r="AKY13"/>
+      <c r="AKZ13"/>
+      <c r="ALA13"/>
+      <c r="ALB13"/>
+      <c r="ALC13"/>
+      <c r="ALD13"/>
+      <c r="ALE13"/>
+      <c r="ALF13"/>
+      <c r="ALG13"/>
+      <c r="ALH13"/>
+      <c r="ALI13"/>
+      <c r="ALJ13"/>
+      <c r="ALK13"/>
+      <c r="ALL13"/>
+      <c r="ALM13"/>
+      <c r="ALN13"/>
+      <c r="ALO13"/>
+      <c r="ALP13"/>
+      <c r="ALQ13"/>
+      <c r="ALR13"/>
+      <c r="ALS13"/>
+      <c r="ALT13"/>
+      <c r="ALU13"/>
+      <c r="ALV13"/>
+      <c r="ALW13"/>
+      <c r="ALX13"/>
+      <c r="ALY13"/>
+      <c r="ALZ13"/>
+      <c r="AMA13"/>
+      <c r="AMB13"/>
+      <c r="AMC13"/>
+      <c r="AMD13"/>
+      <c r="AME13"/>
+      <c r="AMF13"/>
+      <c r="AMG13"/>
+      <c r="AMH13"/>
+      <c r="AMI13"/>
+      <c r="AMJ13"/>
+    </row>
+    <row r="14" spans="1:1024" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="16"/>
       <c r="D14" s="16"/>
       <c r="E14" s="16"/>
@@ -7047,200 +7247,200 @@
       <c r="AEI14" s="16"/>
       <c r="AEJ14" s="16"/>
       <c r="AER14" s="16"/>
-      <c r="AFA14" s="0"/>
-      <c r="AFB14" s="0"/>
-      <c r="AFC14" s="0"/>
-      <c r="AFD14" s="0"/>
-      <c r="AFE14" s="0"/>
-      <c r="AFF14" s="0"/>
-      <c r="AFG14" s="0"/>
-      <c r="AFH14" s="0"/>
-      <c r="AFI14" s="0"/>
-      <c r="AFJ14" s="0"/>
-      <c r="AFK14" s="0"/>
-      <c r="AFL14" s="0"/>
-      <c r="AFM14" s="0"/>
-      <c r="AFN14" s="0"/>
-      <c r="AFO14" s="0"/>
-      <c r="AFP14" s="0"/>
-      <c r="AFQ14" s="0"/>
-      <c r="AFR14" s="0"/>
-      <c r="AFS14" s="0"/>
-      <c r="AFT14" s="0"/>
-      <c r="AFU14" s="0"/>
-      <c r="AFV14" s="0"/>
-      <c r="AFW14" s="0"/>
-      <c r="AFX14" s="0"/>
-      <c r="AFY14" s="0"/>
-      <c r="AFZ14" s="0"/>
-      <c r="AGA14" s="0"/>
-      <c r="AGB14" s="0"/>
-      <c r="AGC14" s="0"/>
-      <c r="AGD14" s="0"/>
-      <c r="AGE14" s="0"/>
-      <c r="AGF14" s="0"/>
-      <c r="AGG14" s="0"/>
-      <c r="AGH14" s="0"/>
-      <c r="AGI14" s="0"/>
-      <c r="AGJ14" s="0"/>
-      <c r="AGK14" s="0"/>
-      <c r="AGL14" s="0"/>
-      <c r="AGM14" s="0"/>
-      <c r="AGN14" s="0"/>
-      <c r="AGO14" s="0"/>
-      <c r="AGP14" s="0"/>
-      <c r="AGQ14" s="0"/>
-      <c r="AGR14" s="0"/>
-      <c r="AGS14" s="0"/>
-      <c r="AGT14" s="0"/>
-      <c r="AGU14" s="0"/>
-      <c r="AGV14" s="0"/>
-      <c r="AGW14" s="0"/>
-      <c r="AGX14" s="0"/>
-      <c r="AGY14" s="0"/>
-      <c r="AGZ14" s="0"/>
-      <c r="AHA14" s="0"/>
-      <c r="AHB14" s="0"/>
-      <c r="AHC14" s="0"/>
-      <c r="AHD14" s="0"/>
-      <c r="AHE14" s="0"/>
-      <c r="AHF14" s="0"/>
-      <c r="AHG14" s="0"/>
-      <c r="AHH14" s="0"/>
-      <c r="AHI14" s="0"/>
-      <c r="AHJ14" s="0"/>
-      <c r="AHK14" s="0"/>
-      <c r="AHL14" s="0"/>
-      <c r="AHM14" s="0"/>
-      <c r="AHN14" s="0"/>
-      <c r="AHO14" s="0"/>
-      <c r="AHP14" s="0"/>
-      <c r="AHQ14" s="0"/>
-      <c r="AHR14" s="0"/>
-      <c r="AHS14" s="0"/>
-      <c r="AHT14" s="0"/>
-      <c r="AHU14" s="0"/>
-      <c r="AHV14" s="0"/>
-      <c r="AHW14" s="0"/>
-      <c r="AHX14" s="0"/>
-      <c r="AHY14" s="0"/>
-      <c r="AHZ14" s="0"/>
-      <c r="AIA14" s="0"/>
-      <c r="AIB14" s="0"/>
-      <c r="AIC14" s="0"/>
-      <c r="AID14" s="0"/>
-      <c r="AIE14" s="0"/>
-      <c r="AIF14" s="0"/>
-      <c r="AIG14" s="0"/>
-      <c r="AIH14" s="0"/>
-      <c r="AII14" s="0"/>
-      <c r="AIJ14" s="0"/>
-      <c r="AIK14" s="0"/>
-      <c r="AIL14" s="0"/>
-      <c r="AIM14" s="0"/>
-      <c r="AIN14" s="0"/>
-      <c r="AIO14" s="0"/>
-      <c r="AIP14" s="0"/>
-      <c r="AIQ14" s="0"/>
-      <c r="AIR14" s="0"/>
-      <c r="AIS14" s="0"/>
-      <c r="AIT14" s="0"/>
-      <c r="AIU14" s="0"/>
-      <c r="AIV14" s="0"/>
-      <c r="AIW14" s="0"/>
-      <c r="AIX14" s="0"/>
-      <c r="AIY14" s="0"/>
-      <c r="AIZ14" s="0"/>
-      <c r="AJA14" s="0"/>
-      <c r="AJB14" s="0"/>
-      <c r="AJC14" s="0"/>
-      <c r="AJD14" s="0"/>
-      <c r="AJE14" s="0"/>
-      <c r="AJF14" s="0"/>
-      <c r="AJG14" s="0"/>
-      <c r="AJH14" s="0"/>
-      <c r="AJI14" s="0"/>
-      <c r="AJJ14" s="0"/>
-      <c r="AJK14" s="0"/>
-      <c r="AJL14" s="0"/>
-      <c r="AJM14" s="0"/>
-      <c r="AJN14" s="0"/>
-      <c r="AJO14" s="0"/>
-      <c r="AJP14" s="0"/>
-      <c r="AJQ14" s="0"/>
-      <c r="AJR14" s="0"/>
-      <c r="AJS14" s="0"/>
-      <c r="AJT14" s="0"/>
-      <c r="AJU14" s="0"/>
-      <c r="AJV14" s="0"/>
-      <c r="AJW14" s="0"/>
-      <c r="AJX14" s="0"/>
-      <c r="AJY14" s="0"/>
-      <c r="AJZ14" s="0"/>
-      <c r="AKA14" s="0"/>
-      <c r="AKB14" s="0"/>
-      <c r="AKC14" s="0"/>
-      <c r="AKD14" s="0"/>
-      <c r="AKE14" s="0"/>
-      <c r="AKF14" s="0"/>
-      <c r="AKG14" s="0"/>
-      <c r="AKH14" s="0"/>
-      <c r="AKI14" s="0"/>
-      <c r="AKJ14" s="0"/>
-      <c r="AKK14" s="0"/>
-      <c r="AKL14" s="0"/>
-      <c r="AKM14" s="0"/>
-      <c r="AKN14" s="0"/>
-      <c r="AKO14" s="0"/>
-      <c r="AKP14" s="0"/>
-      <c r="AKQ14" s="0"/>
-      <c r="AKR14" s="0"/>
-      <c r="AKS14" s="0"/>
-      <c r="AKT14" s="0"/>
-      <c r="AKU14" s="0"/>
-      <c r="AKV14" s="0"/>
-      <c r="AKW14" s="0"/>
-      <c r="AKX14" s="0"/>
-      <c r="AKY14" s="0"/>
-      <c r="AKZ14" s="0"/>
-      <c r="ALA14" s="0"/>
-      <c r="ALB14" s="0"/>
-      <c r="ALC14" s="0"/>
-      <c r="ALD14" s="0"/>
-      <c r="ALE14" s="0"/>
-      <c r="ALF14" s="0"/>
-      <c r="ALG14" s="0"/>
-      <c r="ALH14" s="0"/>
-      <c r="ALI14" s="0"/>
-      <c r="ALJ14" s="0"/>
-      <c r="ALK14" s="0"/>
-      <c r="ALL14" s="0"/>
-      <c r="ALM14" s="0"/>
-      <c r="ALN14" s="0"/>
-      <c r="ALO14" s="0"/>
-      <c r="ALP14" s="0"/>
-      <c r="ALQ14" s="0"/>
-      <c r="ALR14" s="0"/>
-      <c r="ALS14" s="0"/>
-      <c r="ALT14" s="0"/>
-      <c r="ALU14" s="0"/>
-      <c r="ALV14" s="0"/>
-      <c r="ALW14" s="0"/>
-      <c r="ALX14" s="0"/>
-      <c r="ALY14" s="0"/>
-      <c r="ALZ14" s="0"/>
-      <c r="AMA14" s="0"/>
-      <c r="AMB14" s="0"/>
-      <c r="AMC14" s="0"/>
-      <c r="AMD14" s="0"/>
-      <c r="AME14" s="0"/>
-      <c r="AMF14" s="0"/>
-      <c r="AMG14" s="0"/>
-      <c r="AMH14" s="0"/>
-      <c r="AMI14" s="0"/>
-      <c r="AMJ14" s="0"/>
-    </row>
-    <row r="15" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AFA14"/>
+      <c r="AFB14"/>
+      <c r="AFC14"/>
+      <c r="AFD14"/>
+      <c r="AFE14"/>
+      <c r="AFF14"/>
+      <c r="AFG14"/>
+      <c r="AFH14"/>
+      <c r="AFI14"/>
+      <c r="AFJ14"/>
+      <c r="AFK14"/>
+      <c r="AFL14"/>
+      <c r="AFM14"/>
+      <c r="AFN14"/>
+      <c r="AFO14"/>
+      <c r="AFP14"/>
+      <c r="AFQ14"/>
+      <c r="AFR14"/>
+      <c r="AFS14"/>
+      <c r="AFT14"/>
+      <c r="AFU14"/>
+      <c r="AFV14"/>
+      <c r="AFW14"/>
+      <c r="AFX14"/>
+      <c r="AFY14"/>
+      <c r="AFZ14"/>
+      <c r="AGA14"/>
+      <c r="AGB14"/>
+      <c r="AGC14"/>
+      <c r="AGD14"/>
+      <c r="AGE14"/>
+      <c r="AGF14"/>
+      <c r="AGG14"/>
+      <c r="AGH14"/>
+      <c r="AGI14"/>
+      <c r="AGJ14"/>
+      <c r="AGK14"/>
+      <c r="AGL14"/>
+      <c r="AGM14"/>
+      <c r="AGN14"/>
+      <c r="AGO14"/>
+      <c r="AGP14"/>
+      <c r="AGQ14"/>
+      <c r="AGR14"/>
+      <c r="AGS14"/>
+      <c r="AGT14"/>
+      <c r="AGU14"/>
+      <c r="AGV14"/>
+      <c r="AGW14"/>
+      <c r="AGX14"/>
+      <c r="AGY14"/>
+      <c r="AGZ14"/>
+      <c r="AHA14"/>
+      <c r="AHB14"/>
+      <c r="AHC14"/>
+      <c r="AHD14"/>
+      <c r="AHE14"/>
+      <c r="AHF14"/>
+      <c r="AHG14"/>
+      <c r="AHH14"/>
+      <c r="AHI14"/>
+      <c r="AHJ14"/>
+      <c r="AHK14"/>
+      <c r="AHL14"/>
+      <c r="AHM14"/>
+      <c r="AHN14"/>
+      <c r="AHO14"/>
+      <c r="AHP14"/>
+      <c r="AHQ14"/>
+      <c r="AHR14"/>
+      <c r="AHS14"/>
+      <c r="AHT14"/>
+      <c r="AHU14"/>
+      <c r="AHV14"/>
+      <c r="AHW14"/>
+      <c r="AHX14"/>
+      <c r="AHY14"/>
+      <c r="AHZ14"/>
+      <c r="AIA14"/>
+      <c r="AIB14"/>
+      <c r="AIC14"/>
+      <c r="AID14"/>
+      <c r="AIE14"/>
+      <c r="AIF14"/>
+      <c r="AIG14"/>
+      <c r="AIH14"/>
+      <c r="AII14"/>
+      <c r="AIJ14"/>
+      <c r="AIK14"/>
+      <c r="AIL14"/>
+      <c r="AIM14"/>
+      <c r="AIN14"/>
+      <c r="AIO14"/>
+      <c r="AIP14"/>
+      <c r="AIQ14"/>
+      <c r="AIR14"/>
+      <c r="AIS14"/>
+      <c r="AIT14"/>
+      <c r="AIU14"/>
+      <c r="AIV14"/>
+      <c r="AIW14"/>
+      <c r="AIX14"/>
+      <c r="AIY14"/>
+      <c r="AIZ14"/>
+      <c r="AJA14"/>
+      <c r="AJB14"/>
+      <c r="AJC14"/>
+      <c r="AJD14"/>
+      <c r="AJE14"/>
+      <c r="AJF14"/>
+      <c r="AJG14"/>
+      <c r="AJH14"/>
+      <c r="AJI14"/>
+      <c r="AJJ14"/>
+      <c r="AJK14"/>
+      <c r="AJL14"/>
+      <c r="AJM14"/>
+      <c r="AJN14"/>
+      <c r="AJO14"/>
+      <c r="AJP14"/>
+      <c r="AJQ14"/>
+      <c r="AJR14"/>
+      <c r="AJS14"/>
+      <c r="AJT14"/>
+      <c r="AJU14"/>
+      <c r="AJV14"/>
+      <c r="AJW14"/>
+      <c r="AJX14"/>
+      <c r="AJY14"/>
+      <c r="AJZ14"/>
+      <c r="AKA14"/>
+      <c r="AKB14"/>
+      <c r="AKC14"/>
+      <c r="AKD14"/>
+      <c r="AKE14"/>
+      <c r="AKF14"/>
+      <c r="AKG14"/>
+      <c r="AKH14"/>
+      <c r="AKI14"/>
+      <c r="AKJ14"/>
+      <c r="AKK14"/>
+      <c r="AKL14"/>
+      <c r="AKM14"/>
+      <c r="AKN14"/>
+      <c r="AKO14"/>
+      <c r="AKP14"/>
+      <c r="AKQ14"/>
+      <c r="AKR14"/>
+      <c r="AKS14"/>
+      <c r="AKT14"/>
+      <c r="AKU14"/>
+      <c r="AKV14"/>
+      <c r="AKW14"/>
+      <c r="AKX14"/>
+      <c r="AKY14"/>
+      <c r="AKZ14"/>
+      <c r="ALA14"/>
+      <c r="ALB14"/>
+      <c r="ALC14"/>
+      <c r="ALD14"/>
+      <c r="ALE14"/>
+      <c r="ALF14"/>
+      <c r="ALG14"/>
+      <c r="ALH14"/>
+      <c r="ALI14"/>
+      <c r="ALJ14"/>
+      <c r="ALK14"/>
+      <c r="ALL14"/>
+      <c r="ALM14"/>
+      <c r="ALN14"/>
+      <c r="ALO14"/>
+      <c r="ALP14"/>
+      <c r="ALQ14"/>
+      <c r="ALR14"/>
+      <c r="ALS14"/>
+      <c r="ALT14"/>
+      <c r="ALU14"/>
+      <c r="ALV14"/>
+      <c r="ALW14"/>
+      <c r="ALX14"/>
+      <c r="ALY14"/>
+      <c r="ALZ14"/>
+      <c r="AMA14"/>
+      <c r="AMB14"/>
+      <c r="AMC14"/>
+      <c r="AMD14"/>
+      <c r="AME14"/>
+      <c r="AMF14"/>
+      <c r="AMG14"/>
+      <c r="AMH14"/>
+      <c r="AMI14"/>
+      <c r="AMJ14"/>
+    </row>
+    <row r="15" spans="1:1024" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="16"/>
       <c r="D15" s="16"/>
       <c r="J15" s="16"/>
@@ -7377,200 +7577,200 @@
       <c r="AEG15" s="16"/>
       <c r="AEH15" s="16"/>
       <c r="AEK15" s="16"/>
-      <c r="AFA15" s="0"/>
-      <c r="AFB15" s="0"/>
-      <c r="AFC15" s="0"/>
-      <c r="AFD15" s="0"/>
-      <c r="AFE15" s="0"/>
-      <c r="AFF15" s="0"/>
-      <c r="AFG15" s="0"/>
-      <c r="AFH15" s="0"/>
-      <c r="AFI15" s="0"/>
-      <c r="AFJ15" s="0"/>
-      <c r="AFK15" s="0"/>
-      <c r="AFL15" s="0"/>
-      <c r="AFM15" s="0"/>
-      <c r="AFN15" s="0"/>
-      <c r="AFO15" s="0"/>
-      <c r="AFP15" s="0"/>
-      <c r="AFQ15" s="0"/>
-      <c r="AFR15" s="0"/>
-      <c r="AFS15" s="0"/>
-      <c r="AFT15" s="0"/>
-      <c r="AFU15" s="0"/>
-      <c r="AFV15" s="0"/>
-      <c r="AFW15" s="0"/>
-      <c r="AFX15" s="0"/>
-      <c r="AFY15" s="0"/>
-      <c r="AFZ15" s="0"/>
-      <c r="AGA15" s="0"/>
-      <c r="AGB15" s="0"/>
-      <c r="AGC15" s="0"/>
-      <c r="AGD15" s="0"/>
-      <c r="AGE15" s="0"/>
-      <c r="AGF15" s="0"/>
-      <c r="AGG15" s="0"/>
-      <c r="AGH15" s="0"/>
-      <c r="AGI15" s="0"/>
-      <c r="AGJ15" s="0"/>
-      <c r="AGK15" s="0"/>
-      <c r="AGL15" s="0"/>
-      <c r="AGM15" s="0"/>
-      <c r="AGN15" s="0"/>
-      <c r="AGO15" s="0"/>
-      <c r="AGP15" s="0"/>
-      <c r="AGQ15" s="0"/>
-      <c r="AGR15" s="0"/>
-      <c r="AGS15" s="0"/>
-      <c r="AGT15" s="0"/>
-      <c r="AGU15" s="0"/>
-      <c r="AGV15" s="0"/>
-      <c r="AGW15" s="0"/>
-      <c r="AGX15" s="0"/>
-      <c r="AGY15" s="0"/>
-      <c r="AGZ15" s="0"/>
-      <c r="AHA15" s="0"/>
-      <c r="AHB15" s="0"/>
-      <c r="AHC15" s="0"/>
-      <c r="AHD15" s="0"/>
-      <c r="AHE15" s="0"/>
-      <c r="AHF15" s="0"/>
-      <c r="AHG15" s="0"/>
-      <c r="AHH15" s="0"/>
-      <c r="AHI15" s="0"/>
-      <c r="AHJ15" s="0"/>
-      <c r="AHK15" s="0"/>
-      <c r="AHL15" s="0"/>
-      <c r="AHM15" s="0"/>
-      <c r="AHN15" s="0"/>
-      <c r="AHO15" s="0"/>
-      <c r="AHP15" s="0"/>
-      <c r="AHQ15" s="0"/>
-      <c r="AHR15" s="0"/>
-      <c r="AHS15" s="0"/>
-      <c r="AHT15" s="0"/>
-      <c r="AHU15" s="0"/>
-      <c r="AHV15" s="0"/>
-      <c r="AHW15" s="0"/>
-      <c r="AHX15" s="0"/>
-      <c r="AHY15" s="0"/>
-      <c r="AHZ15" s="0"/>
-      <c r="AIA15" s="0"/>
-      <c r="AIB15" s="0"/>
-      <c r="AIC15" s="0"/>
-      <c r="AID15" s="0"/>
-      <c r="AIE15" s="0"/>
-      <c r="AIF15" s="0"/>
-      <c r="AIG15" s="0"/>
-      <c r="AIH15" s="0"/>
-      <c r="AII15" s="0"/>
-      <c r="AIJ15" s="0"/>
-      <c r="AIK15" s="0"/>
-      <c r="AIL15" s="0"/>
-      <c r="AIM15" s="0"/>
-      <c r="AIN15" s="0"/>
-      <c r="AIO15" s="0"/>
-      <c r="AIP15" s="0"/>
-      <c r="AIQ15" s="0"/>
-      <c r="AIR15" s="0"/>
-      <c r="AIS15" s="0"/>
-      <c r="AIT15" s="0"/>
-      <c r="AIU15" s="0"/>
-      <c r="AIV15" s="0"/>
-      <c r="AIW15" s="0"/>
-      <c r="AIX15" s="0"/>
-      <c r="AIY15" s="0"/>
-      <c r="AIZ15" s="0"/>
-      <c r="AJA15" s="0"/>
-      <c r="AJB15" s="0"/>
-      <c r="AJC15" s="0"/>
-      <c r="AJD15" s="0"/>
-      <c r="AJE15" s="0"/>
-      <c r="AJF15" s="0"/>
-      <c r="AJG15" s="0"/>
-      <c r="AJH15" s="0"/>
-      <c r="AJI15" s="0"/>
-      <c r="AJJ15" s="0"/>
-      <c r="AJK15" s="0"/>
-      <c r="AJL15" s="0"/>
-      <c r="AJM15" s="0"/>
-      <c r="AJN15" s="0"/>
-      <c r="AJO15" s="0"/>
-      <c r="AJP15" s="0"/>
-      <c r="AJQ15" s="0"/>
-      <c r="AJR15" s="0"/>
-      <c r="AJS15" s="0"/>
-      <c r="AJT15" s="0"/>
-      <c r="AJU15" s="0"/>
-      <c r="AJV15" s="0"/>
-      <c r="AJW15" s="0"/>
-      <c r="AJX15" s="0"/>
-      <c r="AJY15" s="0"/>
-      <c r="AJZ15" s="0"/>
-      <c r="AKA15" s="0"/>
-      <c r="AKB15" s="0"/>
-      <c r="AKC15" s="0"/>
-      <c r="AKD15" s="0"/>
-      <c r="AKE15" s="0"/>
-      <c r="AKF15" s="0"/>
-      <c r="AKG15" s="0"/>
-      <c r="AKH15" s="0"/>
-      <c r="AKI15" s="0"/>
-      <c r="AKJ15" s="0"/>
-      <c r="AKK15" s="0"/>
-      <c r="AKL15" s="0"/>
-      <c r="AKM15" s="0"/>
-      <c r="AKN15" s="0"/>
-      <c r="AKO15" s="0"/>
-      <c r="AKP15" s="0"/>
-      <c r="AKQ15" s="0"/>
-      <c r="AKR15" s="0"/>
-      <c r="AKS15" s="0"/>
-      <c r="AKT15" s="0"/>
-      <c r="AKU15" s="0"/>
-      <c r="AKV15" s="0"/>
-      <c r="AKW15" s="0"/>
-      <c r="AKX15" s="0"/>
-      <c r="AKY15" s="0"/>
-      <c r="AKZ15" s="0"/>
-      <c r="ALA15" s="0"/>
-      <c r="ALB15" s="0"/>
-      <c r="ALC15" s="0"/>
-      <c r="ALD15" s="0"/>
-      <c r="ALE15" s="0"/>
-      <c r="ALF15" s="0"/>
-      <c r="ALG15" s="0"/>
-      <c r="ALH15" s="0"/>
-      <c r="ALI15" s="0"/>
-      <c r="ALJ15" s="0"/>
-      <c r="ALK15" s="0"/>
-      <c r="ALL15" s="0"/>
-      <c r="ALM15" s="0"/>
-      <c r="ALN15" s="0"/>
-      <c r="ALO15" s="0"/>
-      <c r="ALP15" s="0"/>
-      <c r="ALQ15" s="0"/>
-      <c r="ALR15" s="0"/>
-      <c r="ALS15" s="0"/>
-      <c r="ALT15" s="0"/>
-      <c r="ALU15" s="0"/>
-      <c r="ALV15" s="0"/>
-      <c r="ALW15" s="0"/>
-      <c r="ALX15" s="0"/>
-      <c r="ALY15" s="0"/>
-      <c r="ALZ15" s="0"/>
-      <c r="AMA15" s="0"/>
-      <c r="AMB15" s="0"/>
-      <c r="AMC15" s="0"/>
-      <c r="AMD15" s="0"/>
-      <c r="AME15" s="0"/>
-      <c r="AMF15" s="0"/>
-      <c r="AMG15" s="0"/>
-      <c r="AMH15" s="0"/>
-      <c r="AMI15" s="0"/>
-      <c r="AMJ15" s="0"/>
-    </row>
-    <row r="16" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AFA15"/>
+      <c r="AFB15"/>
+      <c r="AFC15"/>
+      <c r="AFD15"/>
+      <c r="AFE15"/>
+      <c r="AFF15"/>
+      <c r="AFG15"/>
+      <c r="AFH15"/>
+      <c r="AFI15"/>
+      <c r="AFJ15"/>
+      <c r="AFK15"/>
+      <c r="AFL15"/>
+      <c r="AFM15"/>
+      <c r="AFN15"/>
+      <c r="AFO15"/>
+      <c r="AFP15"/>
+      <c r="AFQ15"/>
+      <c r="AFR15"/>
+      <c r="AFS15"/>
+      <c r="AFT15"/>
+      <c r="AFU15"/>
+      <c r="AFV15"/>
+      <c r="AFW15"/>
+      <c r="AFX15"/>
+      <c r="AFY15"/>
+      <c r="AFZ15"/>
+      <c r="AGA15"/>
+      <c r="AGB15"/>
+      <c r="AGC15"/>
+      <c r="AGD15"/>
+      <c r="AGE15"/>
+      <c r="AGF15"/>
+      <c r="AGG15"/>
+      <c r="AGH15"/>
+      <c r="AGI15"/>
+      <c r="AGJ15"/>
+      <c r="AGK15"/>
+      <c r="AGL15"/>
+      <c r="AGM15"/>
+      <c r="AGN15"/>
+      <c r="AGO15"/>
+      <c r="AGP15"/>
+      <c r="AGQ15"/>
+      <c r="AGR15"/>
+      <c r="AGS15"/>
+      <c r="AGT15"/>
+      <c r="AGU15"/>
+      <c r="AGV15"/>
+      <c r="AGW15"/>
+      <c r="AGX15"/>
+      <c r="AGY15"/>
+      <c r="AGZ15"/>
+      <c r="AHA15"/>
+      <c r="AHB15"/>
+      <c r="AHC15"/>
+      <c r="AHD15"/>
+      <c r="AHE15"/>
+      <c r="AHF15"/>
+      <c r="AHG15"/>
+      <c r="AHH15"/>
+      <c r="AHI15"/>
+      <c r="AHJ15"/>
+      <c r="AHK15"/>
+      <c r="AHL15"/>
+      <c r="AHM15"/>
+      <c r="AHN15"/>
+      <c r="AHO15"/>
+      <c r="AHP15"/>
+      <c r="AHQ15"/>
+      <c r="AHR15"/>
+      <c r="AHS15"/>
+      <c r="AHT15"/>
+      <c r="AHU15"/>
+      <c r="AHV15"/>
+      <c r="AHW15"/>
+      <c r="AHX15"/>
+      <c r="AHY15"/>
+      <c r="AHZ15"/>
+      <c r="AIA15"/>
+      <c r="AIB15"/>
+      <c r="AIC15"/>
+      <c r="AID15"/>
+      <c r="AIE15"/>
+      <c r="AIF15"/>
+      <c r="AIG15"/>
+      <c r="AIH15"/>
+      <c r="AII15"/>
+      <c r="AIJ15"/>
+      <c r="AIK15"/>
+      <c r="AIL15"/>
+      <c r="AIM15"/>
+      <c r="AIN15"/>
+      <c r="AIO15"/>
+      <c r="AIP15"/>
+      <c r="AIQ15"/>
+      <c r="AIR15"/>
+      <c r="AIS15"/>
+      <c r="AIT15"/>
+      <c r="AIU15"/>
+      <c r="AIV15"/>
+      <c r="AIW15"/>
+      <c r="AIX15"/>
+      <c r="AIY15"/>
+      <c r="AIZ15"/>
+      <c r="AJA15"/>
+      <c r="AJB15"/>
+      <c r="AJC15"/>
+      <c r="AJD15"/>
+      <c r="AJE15"/>
+      <c r="AJF15"/>
+      <c r="AJG15"/>
+      <c r="AJH15"/>
+      <c r="AJI15"/>
+      <c r="AJJ15"/>
+      <c r="AJK15"/>
+      <c r="AJL15"/>
+      <c r="AJM15"/>
+      <c r="AJN15"/>
+      <c r="AJO15"/>
+      <c r="AJP15"/>
+      <c r="AJQ15"/>
+      <c r="AJR15"/>
+      <c r="AJS15"/>
+      <c r="AJT15"/>
+      <c r="AJU15"/>
+      <c r="AJV15"/>
+      <c r="AJW15"/>
+      <c r="AJX15"/>
+      <c r="AJY15"/>
+      <c r="AJZ15"/>
+      <c r="AKA15"/>
+      <c r="AKB15"/>
+      <c r="AKC15"/>
+      <c r="AKD15"/>
+      <c r="AKE15"/>
+      <c r="AKF15"/>
+      <c r="AKG15"/>
+      <c r="AKH15"/>
+      <c r="AKI15"/>
+      <c r="AKJ15"/>
+      <c r="AKK15"/>
+      <c r="AKL15"/>
+      <c r="AKM15"/>
+      <c r="AKN15"/>
+      <c r="AKO15"/>
+      <c r="AKP15"/>
+      <c r="AKQ15"/>
+      <c r="AKR15"/>
+      <c r="AKS15"/>
+      <c r="AKT15"/>
+      <c r="AKU15"/>
+      <c r="AKV15"/>
+      <c r="AKW15"/>
+      <c r="AKX15"/>
+      <c r="AKY15"/>
+      <c r="AKZ15"/>
+      <c r="ALA15"/>
+      <c r="ALB15"/>
+      <c r="ALC15"/>
+      <c r="ALD15"/>
+      <c r="ALE15"/>
+      <c r="ALF15"/>
+      <c r="ALG15"/>
+      <c r="ALH15"/>
+      <c r="ALI15"/>
+      <c r="ALJ15"/>
+      <c r="ALK15"/>
+      <c r="ALL15"/>
+      <c r="ALM15"/>
+      <c r="ALN15"/>
+      <c r="ALO15"/>
+      <c r="ALP15"/>
+      <c r="ALQ15"/>
+      <c r="ALR15"/>
+      <c r="ALS15"/>
+      <c r="ALT15"/>
+      <c r="ALU15"/>
+      <c r="ALV15"/>
+      <c r="ALW15"/>
+      <c r="ALX15"/>
+      <c r="ALY15"/>
+      <c r="ALZ15"/>
+      <c r="AMA15"/>
+      <c r="AMB15"/>
+      <c r="AMC15"/>
+      <c r="AMD15"/>
+      <c r="AME15"/>
+      <c r="AMF15"/>
+      <c r="AMG15"/>
+      <c r="AMH15"/>
+      <c r="AMI15"/>
+      <c r="AMJ15"/>
+    </row>
+    <row r="16" spans="1:1024" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E16" s="16"/>
       <c r="F16" s="16"/>
       <c r="H16" s="16"/>
@@ -7683,214 +7883,209 @@
       <c r="ADK16" s="16"/>
       <c r="AEB16" s="16"/>
       <c r="AEL16" s="16"/>
-      <c r="AFA16" s="0"/>
-      <c r="AFB16" s="0"/>
-      <c r="AFC16" s="0"/>
-      <c r="AFD16" s="0"/>
-      <c r="AFE16" s="0"/>
-      <c r="AFF16" s="0"/>
-      <c r="AFG16" s="0"/>
-      <c r="AFH16" s="0"/>
-      <c r="AFI16" s="0"/>
-      <c r="AFJ16" s="0"/>
-      <c r="AFK16" s="0"/>
-      <c r="AFL16" s="0"/>
-      <c r="AFM16" s="0"/>
-      <c r="AFN16" s="0"/>
-      <c r="AFO16" s="0"/>
-      <c r="AFP16" s="0"/>
-      <c r="AFQ16" s="0"/>
-      <c r="AFR16" s="0"/>
-      <c r="AFS16" s="0"/>
-      <c r="AFT16" s="0"/>
-      <c r="AFU16" s="0"/>
-      <c r="AFV16" s="0"/>
-      <c r="AFW16" s="0"/>
-      <c r="AFX16" s="0"/>
-      <c r="AFY16" s="0"/>
-      <c r="AFZ16" s="0"/>
-      <c r="AGA16" s="0"/>
-      <c r="AGB16" s="0"/>
-      <c r="AGC16" s="0"/>
-      <c r="AGD16" s="0"/>
-      <c r="AGE16" s="0"/>
-      <c r="AGF16" s="0"/>
-      <c r="AGG16" s="0"/>
-      <c r="AGH16" s="0"/>
-      <c r="AGI16" s="0"/>
-      <c r="AGJ16" s="0"/>
-      <c r="AGK16" s="0"/>
-      <c r="AGL16" s="0"/>
-      <c r="AGM16" s="0"/>
-      <c r="AGN16" s="0"/>
-      <c r="AGO16" s="0"/>
-      <c r="AGP16" s="0"/>
-      <c r="AGQ16" s="0"/>
-      <c r="AGR16" s="0"/>
-      <c r="AGS16" s="0"/>
-      <c r="AGT16" s="0"/>
-      <c r="AGU16" s="0"/>
-      <c r="AGV16" s="0"/>
-      <c r="AGW16" s="0"/>
-      <c r="AGX16" s="0"/>
-      <c r="AGY16" s="0"/>
-      <c r="AGZ16" s="0"/>
-      <c r="AHA16" s="0"/>
-      <c r="AHB16" s="0"/>
-      <c r="AHC16" s="0"/>
-      <c r="AHD16" s="0"/>
-      <c r="AHE16" s="0"/>
-      <c r="AHF16" s="0"/>
-      <c r="AHG16" s="0"/>
-      <c r="AHH16" s="0"/>
-      <c r="AHI16" s="0"/>
-      <c r="AHJ16" s="0"/>
-      <c r="AHK16" s="0"/>
-      <c r="AHL16" s="0"/>
-      <c r="AHM16" s="0"/>
-      <c r="AHN16" s="0"/>
-      <c r="AHO16" s="0"/>
-      <c r="AHP16" s="0"/>
-      <c r="AHQ16" s="0"/>
-      <c r="AHR16" s="0"/>
-      <c r="AHS16" s="0"/>
-      <c r="AHT16" s="0"/>
-      <c r="AHU16" s="0"/>
-      <c r="AHV16" s="0"/>
-      <c r="AHW16" s="0"/>
-      <c r="AHX16" s="0"/>
-      <c r="AHY16" s="0"/>
-      <c r="AHZ16" s="0"/>
-      <c r="AIA16" s="0"/>
-      <c r="AIB16" s="0"/>
-      <c r="AIC16" s="0"/>
-      <c r="AID16" s="0"/>
-      <c r="AIE16" s="0"/>
-      <c r="AIF16" s="0"/>
-      <c r="AIG16" s="0"/>
-      <c r="AIH16" s="0"/>
-      <c r="AII16" s="0"/>
-      <c r="AIJ16" s="0"/>
-      <c r="AIK16" s="0"/>
-      <c r="AIL16" s="0"/>
-      <c r="AIM16" s="0"/>
-      <c r="AIN16" s="0"/>
-      <c r="AIO16" s="0"/>
-      <c r="AIP16" s="0"/>
-      <c r="AIQ16" s="0"/>
-      <c r="AIR16" s="0"/>
-      <c r="AIS16" s="0"/>
-      <c r="AIT16" s="0"/>
-      <c r="AIU16" s="0"/>
-      <c r="AIV16" s="0"/>
-      <c r="AIW16" s="0"/>
-      <c r="AIX16" s="0"/>
-      <c r="AIY16" s="0"/>
-      <c r="AIZ16" s="0"/>
-      <c r="AJA16" s="0"/>
-      <c r="AJB16" s="0"/>
-      <c r="AJC16" s="0"/>
-      <c r="AJD16" s="0"/>
-      <c r="AJE16" s="0"/>
-      <c r="AJF16" s="0"/>
-      <c r="AJG16" s="0"/>
-      <c r="AJH16" s="0"/>
-      <c r="AJI16" s="0"/>
-      <c r="AJJ16" s="0"/>
-      <c r="AJK16" s="0"/>
-      <c r="AJL16" s="0"/>
-      <c r="AJM16" s="0"/>
-      <c r="AJN16" s="0"/>
-      <c r="AJO16" s="0"/>
-      <c r="AJP16" s="0"/>
-      <c r="AJQ16" s="0"/>
-      <c r="AJR16" s="0"/>
-      <c r="AJS16" s="0"/>
-      <c r="AJT16" s="0"/>
-      <c r="AJU16" s="0"/>
-      <c r="AJV16" s="0"/>
-      <c r="AJW16" s="0"/>
-      <c r="AJX16" s="0"/>
-      <c r="AJY16" s="0"/>
-      <c r="AJZ16" s="0"/>
-      <c r="AKA16" s="0"/>
-      <c r="AKB16" s="0"/>
-      <c r="AKC16" s="0"/>
-      <c r="AKD16" s="0"/>
-      <c r="AKE16" s="0"/>
-      <c r="AKF16" s="0"/>
-      <c r="AKG16" s="0"/>
-      <c r="AKH16" s="0"/>
-      <c r="AKI16" s="0"/>
-      <c r="AKJ16" s="0"/>
-      <c r="AKK16" s="0"/>
-      <c r="AKL16" s="0"/>
-      <c r="AKM16" s="0"/>
-      <c r="AKN16" s="0"/>
-      <c r="AKO16" s="0"/>
-      <c r="AKP16" s="0"/>
-      <c r="AKQ16" s="0"/>
-      <c r="AKR16" s="0"/>
-      <c r="AKS16" s="0"/>
-      <c r="AKT16" s="0"/>
-      <c r="AKU16" s="0"/>
-      <c r="AKV16" s="0"/>
-      <c r="AKW16" s="0"/>
-      <c r="AKX16" s="0"/>
-      <c r="AKY16" s="0"/>
-      <c r="AKZ16" s="0"/>
-      <c r="ALA16" s="0"/>
-      <c r="ALB16" s="0"/>
-      <c r="ALC16" s="0"/>
-      <c r="ALD16" s="0"/>
-      <c r="ALE16" s="0"/>
-      <c r="ALF16" s="0"/>
-      <c r="ALG16" s="0"/>
-      <c r="ALH16" s="0"/>
-      <c r="ALI16" s="0"/>
-      <c r="ALJ16" s="0"/>
-      <c r="ALK16" s="0"/>
-      <c r="ALL16" s="0"/>
-      <c r="ALM16" s="0"/>
-      <c r="ALN16" s="0"/>
-      <c r="ALO16" s="0"/>
-      <c r="ALP16" s="0"/>
-      <c r="ALQ16" s="0"/>
-      <c r="ALR16" s="0"/>
-      <c r="ALS16" s="0"/>
-      <c r="ALT16" s="0"/>
-      <c r="ALU16" s="0"/>
-      <c r="ALV16" s="0"/>
-      <c r="ALW16" s="0"/>
-      <c r="ALX16" s="0"/>
-      <c r="ALY16" s="0"/>
-      <c r="ALZ16" s="0"/>
-      <c r="AMA16" s="0"/>
-      <c r="AMB16" s="0"/>
-      <c r="AMC16" s="0"/>
-      <c r="AMD16" s="0"/>
-      <c r="AME16" s="0"/>
-      <c r="AMF16" s="0"/>
-      <c r="AMG16" s="0"/>
-      <c r="AMH16" s="0"/>
-      <c r="AMI16" s="0"/>
-      <c r="AMJ16" s="0"/>
-    </row>
-    <row r="17" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="18" s="18" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="19" s="18" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="20" s="18" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="21" s="18" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="22" s="16" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="23" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="24" s="16" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="AFA16"/>
+      <c r="AFB16"/>
+      <c r="AFC16"/>
+      <c r="AFD16"/>
+      <c r="AFE16"/>
+      <c r="AFF16"/>
+      <c r="AFG16"/>
+      <c r="AFH16"/>
+      <c r="AFI16"/>
+      <c r="AFJ16"/>
+      <c r="AFK16"/>
+      <c r="AFL16"/>
+      <c r="AFM16"/>
+      <c r="AFN16"/>
+      <c r="AFO16"/>
+      <c r="AFP16"/>
+      <c r="AFQ16"/>
+      <c r="AFR16"/>
+      <c r="AFS16"/>
+      <c r="AFT16"/>
+      <c r="AFU16"/>
+      <c r="AFV16"/>
+      <c r="AFW16"/>
+      <c r="AFX16"/>
+      <c r="AFY16"/>
+      <c r="AFZ16"/>
+      <c r="AGA16"/>
+      <c r="AGB16"/>
+      <c r="AGC16"/>
+      <c r="AGD16"/>
+      <c r="AGE16"/>
+      <c r="AGF16"/>
+      <c r="AGG16"/>
+      <c r="AGH16"/>
+      <c r="AGI16"/>
+      <c r="AGJ16"/>
+      <c r="AGK16"/>
+      <c r="AGL16"/>
+      <c r="AGM16"/>
+      <c r="AGN16"/>
+      <c r="AGO16"/>
+      <c r="AGP16"/>
+      <c r="AGQ16"/>
+      <c r="AGR16"/>
+      <c r="AGS16"/>
+      <c r="AGT16"/>
+      <c r="AGU16"/>
+      <c r="AGV16"/>
+      <c r="AGW16"/>
+      <c r="AGX16"/>
+      <c r="AGY16"/>
+      <c r="AGZ16"/>
+      <c r="AHA16"/>
+      <c r="AHB16"/>
+      <c r="AHC16"/>
+      <c r="AHD16"/>
+      <c r="AHE16"/>
+      <c r="AHF16"/>
+      <c r="AHG16"/>
+      <c r="AHH16"/>
+      <c r="AHI16"/>
+      <c r="AHJ16"/>
+      <c r="AHK16"/>
+      <c r="AHL16"/>
+      <c r="AHM16"/>
+      <c r="AHN16"/>
+      <c r="AHO16"/>
+      <c r="AHP16"/>
+      <c r="AHQ16"/>
+      <c r="AHR16"/>
+      <c r="AHS16"/>
+      <c r="AHT16"/>
+      <c r="AHU16"/>
+      <c r="AHV16"/>
+      <c r="AHW16"/>
+      <c r="AHX16"/>
+      <c r="AHY16"/>
+      <c r="AHZ16"/>
+      <c r="AIA16"/>
+      <c r="AIB16"/>
+      <c r="AIC16"/>
+      <c r="AID16"/>
+      <c r="AIE16"/>
+      <c r="AIF16"/>
+      <c r="AIG16"/>
+      <c r="AIH16"/>
+      <c r="AII16"/>
+      <c r="AIJ16"/>
+      <c r="AIK16"/>
+      <c r="AIL16"/>
+      <c r="AIM16"/>
+      <c r="AIN16"/>
+      <c r="AIO16"/>
+      <c r="AIP16"/>
+      <c r="AIQ16"/>
+      <c r="AIR16"/>
+      <c r="AIS16"/>
+      <c r="AIT16"/>
+      <c r="AIU16"/>
+      <c r="AIV16"/>
+      <c r="AIW16"/>
+      <c r="AIX16"/>
+      <c r="AIY16"/>
+      <c r="AIZ16"/>
+      <c r="AJA16"/>
+      <c r="AJB16"/>
+      <c r="AJC16"/>
+      <c r="AJD16"/>
+      <c r="AJE16"/>
+      <c r="AJF16"/>
+      <c r="AJG16"/>
+      <c r="AJH16"/>
+      <c r="AJI16"/>
+      <c r="AJJ16"/>
+      <c r="AJK16"/>
+      <c r="AJL16"/>
+      <c r="AJM16"/>
+      <c r="AJN16"/>
+      <c r="AJO16"/>
+      <c r="AJP16"/>
+      <c r="AJQ16"/>
+      <c r="AJR16"/>
+      <c r="AJS16"/>
+      <c r="AJT16"/>
+      <c r="AJU16"/>
+      <c r="AJV16"/>
+      <c r="AJW16"/>
+      <c r="AJX16"/>
+      <c r="AJY16"/>
+      <c r="AJZ16"/>
+      <c r="AKA16"/>
+      <c r="AKB16"/>
+      <c r="AKC16"/>
+      <c r="AKD16"/>
+      <c r="AKE16"/>
+      <c r="AKF16"/>
+      <c r="AKG16"/>
+      <c r="AKH16"/>
+      <c r="AKI16"/>
+      <c r="AKJ16"/>
+      <c r="AKK16"/>
+      <c r="AKL16"/>
+      <c r="AKM16"/>
+      <c r="AKN16"/>
+      <c r="AKO16"/>
+      <c r="AKP16"/>
+      <c r="AKQ16"/>
+      <c r="AKR16"/>
+      <c r="AKS16"/>
+      <c r="AKT16"/>
+      <c r="AKU16"/>
+      <c r="AKV16"/>
+      <c r="AKW16"/>
+      <c r="AKX16"/>
+      <c r="AKY16"/>
+      <c r="AKZ16"/>
+      <c r="ALA16"/>
+      <c r="ALB16"/>
+      <c r="ALC16"/>
+      <c r="ALD16"/>
+      <c r="ALE16"/>
+      <c r="ALF16"/>
+      <c r="ALG16"/>
+      <c r="ALH16"/>
+      <c r="ALI16"/>
+      <c r="ALJ16"/>
+      <c r="ALK16"/>
+      <c r="ALL16"/>
+      <c r="ALM16"/>
+      <c r="ALN16"/>
+      <c r="ALO16"/>
+      <c r="ALP16"/>
+      <c r="ALQ16"/>
+      <c r="ALR16"/>
+      <c r="ALS16"/>
+      <c r="ALT16"/>
+      <c r="ALU16"/>
+      <c r="ALV16"/>
+      <c r="ALW16"/>
+      <c r="ALX16"/>
+      <c r="ALY16"/>
+      <c r="ALZ16"/>
+      <c r="AMA16"/>
+      <c r="AMB16"/>
+      <c r="AMC16"/>
+      <c r="AMD16"/>
+      <c r="AME16"/>
+      <c r="AMF16"/>
+      <c r="AMG16"/>
+      <c r="AMH16"/>
+      <c r="AMI16"/>
+      <c r="AMJ16"/>
+    </row>
+    <row r="17" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>